--- a/assets/episodes.xlsx
+++ b/assets/episodes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpin769\Documents\Personal\_My Projects\batang-90s-tv-plus\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D78D7FAE-D1BE-48DB-96A6-88BB263E7A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EEDACA-2F11-4BF2-9D88-E474AF646385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="77040" windowHeight="21240" activeTab="1" xr2:uid="{9DD08765-C5F9-4FFA-9CCD-C1387A5793AB}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$408</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,82 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="131">
-  <si>
-    <t>"Miracle! The Revival of B't X!"</t>
-  </si>
-  <si>
-    <t>"Rebirth! The Sun Battler"</t>
-  </si>
-  <si>
-    <t>"Confrontation! The Machine Empire"</t>
-  </si>
-  <si>
-    <t>"Appearance! The Legendary Spirit Knight"</t>
-  </si>
-  <si>
-    <t>"Departure! Desperate Battle Road"</t>
-  </si>
-  <si>
-    <t>"Fear! The Watch Man, Pirate in the Desert!"</t>
-  </si>
-  <si>
-    <t>"Frightening! The Mystery of the Machine Emperor!"</t>
-  </si>
-  <si>
-    <t>"Magnificent! The Dazzling Solder, Camilla!"</t>
-  </si>
-  <si>
-    <t>"Fear! Evil Flower!"</t>
-  </si>
-  <si>
-    <t>"Chase! Metal Face Counterattacks!"</t>
-  </si>
-  <si>
-    <t>"Invincible! Spirit General of the East, Ron"</t>
-  </si>
-  <si>
-    <t>"Formidable Enemy! The Warrior, Kaos"</t>
-  </si>
-  <si>
-    <t>"Buddy! The Bond of a Passionate Soul"</t>
-  </si>
-  <si>
-    <t>"Tragic! Maria Who Lives in the Graveyard"</t>
-  </si>
-  <si>
-    <t>"Blast! Message to the Reaper"</t>
-  </si>
-  <si>
-    <t>"Revived! The Prism of Aura"</t>
-  </si>
-  <si>
-    <t>"Appear! Shadow X!"</t>
-  </si>
-  <si>
-    <t>"The Dark! Fear of the Underhell"</t>
-  </si>
-  <si>
-    <t>"Desperate! X's Death"</t>
-  </si>
-  <si>
-    <t>"Life! Break Heart"</t>
-  </si>
-  <si>
-    <t>"Reborn! The Neo B't X"</t>
-  </si>
-  <si>
-    <t>"The Worst! The Area's Seven Evil Knights"</t>
-  </si>
-  <si>
-    <t>"Flash of Light! Shining Knuckle"</t>
-  </si>
-  <si>
-    <t>"Burn! A Piece of the Sun"</t>
-  </si>
-  <si>
-    <t>"Overthrow! B'T Raphael"</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="173">
   <si>
     <t>synopsis</t>
   </si>
@@ -136,132 +61,6 @@
     <t>airDate</t>
   </si>
   <si>
-    <t>"The Four Knights vs. The Evil Knights"</t>
-  </si>
-  <si>
-    <t>"reishō vs mashō" (Japanese: 霊将VS魔将)</t>
-  </si>
-  <si>
-    <t>21 August 1997</t>
-  </si>
-  <si>
-    <t>"The Land of Love and Hate"</t>
-  </si>
-  <si>
-    <t>"ai to nikushimi no chi!" (Japanese: 愛と憎しみの地!)</t>
-  </si>
-  <si>
-    <t>28 August 1997</t>
-  </si>
-  <si>
-    <t>"Burning Red Flame!"</t>
-  </si>
-  <si>
-    <t>"guren no honō" (Japanese: 紅蓮の炎)</t>
-  </si>
-  <si>
-    <t>4 September 1997</t>
-  </si>
-  <si>
-    <t>"Miracles of the Blood"</t>
-  </si>
-  <si>
-    <t>"buraddo no kiseki!" (Japanese: ブラッドの奇跡!)</t>
-  </si>
-  <si>
-    <t>11 September 1997</t>
-  </si>
-  <si>
-    <t>"Fear of the Illusions"</t>
-  </si>
-  <si>
-    <t>"mugen no kyōfu!" (Japanese: 夢幻の恐怖!)</t>
-  </si>
-  <si>
-    <t>18 September 1997</t>
-  </si>
-  <si>
-    <t>"A Streak of Light"</t>
-  </si>
-  <si>
-    <t>"ichijō no hikari!" (Japanese: 一条の光!)</t>
-  </si>
-  <si>
-    <t>25 September 1997</t>
-  </si>
-  <si>
-    <t>"Mehr Licht (more light)"</t>
-  </si>
-  <si>
-    <t>"mēru rihito! (motto hikari o)" (Japanese: メール リヒト!(もっと光を))</t>
-  </si>
-  <si>
-    <t>2 October 1997</t>
-  </si>
-  <si>
-    <t>"Confessions of a Mask"</t>
-  </si>
-  <si>
-    <t>"kamen no kokuhaku!" (Japanese: 仮面の告白!)</t>
-  </si>
-  <si>
-    <t>9 October 1997</t>
-  </si>
-  <si>
-    <t>"Blood Bonds"</t>
-  </si>
-  <si>
-    <t>"chi no kizuna" (Japanese: 血の絆)</t>
-  </si>
-  <si>
-    <t>16 October 1997</t>
-  </si>
-  <si>
-    <t>"The Lair of the Beast"</t>
-  </si>
-  <si>
-    <t>"akuma no hōkō" (Japanese: 悪魔の咆哮)</t>
-  </si>
-  <si>
-    <t>23 October 1997</t>
-  </si>
-  <si>
-    <t>"Search for a Lost Era!"</t>
-  </si>
-  <si>
-    <t>"ushinawareta kako o motome te!" (Japanese: 失われた過去を求めて!)</t>
-  </si>
-  <si>
-    <t>30 October 1997</t>
-  </si>
-  <si>
-    <t>"One for All"</t>
-  </si>
-  <si>
-    <t>(Japanese: ONE FOR ALL!)</t>
-  </si>
-  <si>
-    <t>6 November 1997</t>
-  </si>
-  <si>
-    <t>"Memories of the Future!"</t>
-  </si>
-  <si>
-    <t>"mirai no kioku!" (Japanese: 未来の記憶!)</t>
-  </si>
-  <si>
-    <t>13 November 1997</t>
-  </si>
-  <si>
-    <t>"A Piece of the Sun!"</t>
-  </si>
-  <si>
-    <t>(Japanese: A PIECE OF THE SUN!)</t>
-  </si>
-  <si>
-    <t>20 November 1997</t>
-  </si>
-  <si>
     <t>01</t>
   </si>
   <si>
@@ -295,12 +94,6 @@
     <t>{"episode":"</t>
   </si>
   <si>
-    <t>","title":</t>
-  </si>
-  <si>
-    <t>,"airDate":"</t>
-  </si>
-  <si>
     <t>","synopsis":"</t>
   </si>
   <si>
@@ -316,121 +109,454 @@
     <t>"},</t>
   </si>
   <si>
-    <t>1996-04-06</t>
-  </si>
-  <si>
-    <t>1996-04-13</t>
-  </si>
-  <si>
-    <t>1996-04-20</t>
-  </si>
-  <si>
-    <t>1996-04-27</t>
-  </si>
-  <si>
-    <t>1996-05-04</t>
-  </si>
-  <si>
-    <t>1996-05-11</t>
-  </si>
-  <si>
-    <t>1996-05-18</t>
-  </si>
-  <si>
-    <t>1996-05-25</t>
-  </si>
-  <si>
-    <t>1996-06-01</t>
-  </si>
-  <si>
-    <t>1996-06-08</t>
-  </si>
-  <si>
-    <t>1996-06-15</t>
-  </si>
-  <si>
-    <t>1996-06-22</t>
-  </si>
-  <si>
-    <t>1996-06-29</t>
-  </si>
-  <si>
-    <t>1996-07-06</t>
-  </si>
-  <si>
-    <t>1996-07-13</t>
-  </si>
-  <si>
-    <t>1996-07-20</t>
-  </si>
-  <si>
-    <t>1996-07-27</t>
-  </si>
-  <si>
-    <t>1996-08-03</t>
-  </si>
-  <si>
-    <t>1996-08-10</t>
-  </si>
-  <si>
-    <t>1996-08-17</t>
-  </si>
-  <si>
-    <t>1996-08-24</t>
-  </si>
-  <si>
-    <t>1996-08-31</t>
-  </si>
-  <si>
-    <t>1996-09-07</t>
-  </si>
-  <si>
-    <t>1996-09-14</t>
-  </si>
-  <si>
-    <t>1996-09-21</t>
-  </si>
-  <si>
-    <t>1997-08-21</t>
-  </si>
-  <si>
-    <t>1997-08-28</t>
-  </si>
-  <si>
-    <t>1997-09-04</t>
-  </si>
-  <si>
-    <t>1997-09-11</t>
-  </si>
-  <si>
-    <t>1997-09-18</t>
-  </si>
-  <si>
-    <t>1997-09-25</t>
-  </si>
-  <si>
-    <t>1997-10-02</t>
-  </si>
-  <si>
-    <t>1997-10-09</t>
-  </si>
-  <si>
-    <t>1997-10-16</t>
-  </si>
-  <si>
-    <t>1997-10-23</t>
-  </si>
-  <si>
-    <t>1997-10-30</t>
-  </si>
-  <si>
-    <t>1997-11-06</t>
-  </si>
-  <si>
-    <t>1997-11-13</t>
-  </si>
-  <si>
-    <t>1997-11-20</t>
+    <t>Season 1</t>
+  </si>
+  <si>
+    <t>The Fierce Guardian Spirit Awakens</t>
+  </si>
+  <si>
+    <t>Karuma the Demon and Her Three Demon Disciples</t>
+  </si>
+  <si>
+    <t>Shut in by the Shutter</t>
+  </si>
+  <si>
+    <t>The Pot Filled with Desire</t>
+  </si>
+  <si>
+    <t>Tastes Like Fresh Zenki</t>
+  </si>
+  <si>
+    <t>The Boy and the Telephone</t>
+  </si>
+  <si>
+    <t>Run for the Finish Line of Desire</t>
+  </si>
+  <si>
+    <t>Welcome to Hotel Mummy</t>
+  </si>
+  <si>
+    <t>A Demon in He Basement and the Fire Spell</t>
+  </si>
+  <si>
+    <t>A Boy and His Dogs</t>
+  </si>
+  <si>
+    <t>The Night Song of the Samurai</t>
+  </si>
+  <si>
+    <t>Memories Buried in the Snow</t>
+  </si>
+  <si>
+    <t>The challenge of the wishing plaques</t>
+  </si>
+  <si>
+    <t>The Legendary Guardian Spirit. Reveal Zenki's Secret</t>
+  </si>
+  <si>
+    <t>The Plan of Sealing Up the Guardian Spirit</t>
+  </si>
+  <si>
+    <t>The Spell of Darkness. Souma vs Anju</t>
+  </si>
+  <si>
+    <t>The Servant of Evil Falls. Anju's Longest Day</t>
+  </si>
+  <si>
+    <t>The Golden Dragon Awakens. The Mythical Immortal Mountain</t>
+  </si>
+  <si>
+    <t>The Two Chiakis. 800-year Promise</t>
+  </si>
+  <si>
+    <t>Heian Capital Up in Flames. Come, Golden Axe!</t>
+  </si>
+  <si>
+    <t>Rush to the Future. The Pentagram Shrines in the Ancient Capital</t>
+  </si>
+  <si>
+    <t>Guardian Village Destroyed. Water Formation</t>
+  </si>
+  <si>
+    <t>Goula the Traitor. Gold Formation and Earth Formation</t>
+  </si>
+  <si>
+    <t>Come Back to Life Zenki! Flame Formation</t>
+  </si>
+  <si>
+    <t>The Last Battle! The End of Karuma</t>
+  </si>
+  <si>
+    <t>Eve of the Guardian Spirit Festival. Lulupapa Appears</t>
+  </si>
+  <si>
+    <t>A New Enemy. I Am the Prince of the Realm of the Dead</t>
+  </si>
+  <si>
+    <t>The Awakening of the Heartbeat! Akira's Secret</t>
+  </si>
+  <si>
+    <t>Rear Out! The Ultimate Guardian Spirit Vajura Mahar Samskara</t>
+  </si>
+  <si>
+    <t>Stolen Faces. Beware of the Pick-up Artist!</t>
+  </si>
+  <si>
+    <t>The Hands That Create Souls. The Night of the Dolls</t>
+  </si>
+  <si>
+    <t>Terror by the Lake. Listen! The Spirit's Song</t>
+  </si>
+  <si>
+    <t>Fragments of Desire. Chiaki in Big Trouble!</t>
+  </si>
+  <si>
+    <t>Jukai runs for office! Daruma power, cast your honest vote!</t>
+  </si>
+  <si>
+    <t>An Arrow That Pierces the Full Moon. Ichiko's Secret</t>
+  </si>
+  <si>
+    <t>Forbidden Garden. Let's Put Flowers on Our Heads</t>
+  </si>
+  <si>
+    <t>A Star Is Born. Got the Punch Line?</t>
+  </si>
+  <si>
+    <t>The Nightmare of the Lost Pool. Souma Returns</t>
+  </si>
+  <si>
+    <t>Hirumaki's Scheme. The Shadow of Death Creeps</t>
+  </si>
+  <si>
+    <t>Dangerous Encounter, Sayaka's Crush</t>
+  </si>
+  <si>
+    <t>Kokutei Gets Kidnapped, Assassinate the Dog Deity!</t>
+  </si>
+  <si>
+    <t>Akira Is the Target. Attacker from the Realm of the Dead</t>
+  </si>
+  <si>
+    <t>Darkness Approaches, Chiaki Gets Tested.</t>
+  </si>
+  <si>
+    <t>The Miracle of Mother Mary, the Memory of an Ancient Jewel.</t>
+  </si>
+  <si>
+    <t>Kaze Dies at Dawn, Kill the Phantom Karuma Beast</t>
+  </si>
+  <si>
+    <t>Beautiful Beast, Negation Power</t>
+  </si>
+  <si>
+    <t>Enno Shrine Under Attack. Come, Earth Dragon Staff!</t>
+  </si>
+  <si>
+    <t>The Fate of the Moon and the Wolf. Beyond the White and Silver.</t>
+  </si>
+  <si>
+    <t>The Guardian Spirit Versus the Dog Deity. The Last Battle of Destiny.</t>
+  </si>
+  <si>
+    <t>The God of Destruction Arrives. Fight, Courageous Ones!</t>
+  </si>
+  <si>
+    <t>Go Guardian Spirit! Golden Axe Ludora!</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>The Fierce Demon God Awakens!</t>
+  </si>
+  <si>
+    <t>Karuma the Demon and her Three Demon Deciples</t>
+  </si>
+  <si>
+    <t>A Demon in the Basement and the Fire Spell</t>
+  </si>
+  <si>
+    <t>A Boy and his Dogs</t>
+  </si>
+  <si>
+    <t>The Challenge of the Wishing Plaques</t>
+  </si>
+  <si>
+    <t>The Legendary Demon God, Reveal Zenki`s Secret</t>
+  </si>
+  <si>
+    <t>The Plan of Sealing up The Demon God</t>
+  </si>
+  <si>
+    <t>The Spell of Darkness Souma vs Anju</t>
+  </si>
+  <si>
+    <t>The Servant of Evil Falls Anju`s Longest Day</t>
+  </si>
+  <si>
+    <t>The Diamond Dragon Awakens The Mythical Immortal Mountain</t>
+  </si>
+  <si>
+    <t>The Two Chiakis' 800 year promise</t>
+  </si>
+  <si>
+    <t>Heian Capital up in Flames, Come Diamond Axe!</t>
+  </si>
+  <si>
+    <t>Rush to the Future! The Pentagram Shrines in the Ancient Capital</t>
+  </si>
+  <si>
+    <t>Shikigami-chou Destroyed Water Formation</t>
+  </si>
+  <si>
+    <t>Goura the Traitor, Diamond Formation and Earth Formation</t>
+  </si>
+  <si>
+    <t>Come back to Life Zenki! Flame Formation</t>
+  </si>
+  <si>
+    <t>The Last Battle! The end of Karuma</t>
+  </si>
+  <si>
+    <t>Eve of the Demon God Festival, Lulupapa Appears</t>
+  </si>
+  <si>
+    <t>A New Enemy, I'm the Prince of the Realm of the Dead.</t>
+  </si>
+  <si>
+    <t>The Awakening of the Heartbeat! Akira`s Secret</t>
+  </si>
+  <si>
+    <t>Roar out! The Great Demon God Vajura Mahar Samaskara</t>
+  </si>
+  <si>
+    <t>Stolen Faces, Beware of the Pick-up Artist!</t>
+  </si>
+  <si>
+    <t>Terror by the Lake, Listen to the Song of the Spirit</t>
+  </si>
+  <si>
+    <t>Jukai Runs for Office! Daruma Power, Cast Your Honest Vote!</t>
+  </si>
+  <si>
+    <t>An Arrow that Pierces the Full Moon. Ichiko's Secret</t>
+  </si>
+  <si>
+    <t>Forbidden Garden. Let`s Put Flowers on our Head!</t>
+  </si>
+  <si>
+    <t>A Star is Born. Got the Punch Line?</t>
+  </si>
+  <si>
+    <t>The Nightmare of the Lost Pool, Souma Returns</t>
+  </si>
+  <si>
+    <t>Dangerous Encounter. Sayaka`s Crush</t>
+  </si>
+  <si>
+    <t>Akira is the Target. Attacker from the Realm of the Dead</t>
+  </si>
+  <si>
+    <t>The Miracle of Mother Mary, The Memory of an Ancient Jewel.</t>
+  </si>
+  <si>
+    <t>The Demon God Versus the Dog Deity. The Last Battle of Destiny.</t>
+  </si>
+  <si>
+    <t>Go Demon God! Diamond Axe Rudra!</t>
+  </si>
+  <si>
+    <t>","title":"</t>
+  </si>
+  <si>
+    <t>","airDate":"</t>
+  </si>
+  <si>
+    <t>1995-01-09</t>
+  </si>
+  <si>
+    <t>1995-01-16</t>
+  </si>
+  <si>
+    <t>1995-01-23</t>
+  </si>
+  <si>
+    <t>1995-01-30</t>
+  </si>
+  <si>
+    <t>1995-02-06</t>
+  </si>
+  <si>
+    <t>1995-02-13</t>
+  </si>
+  <si>
+    <t>1995-02-20</t>
+  </si>
+  <si>
+    <t>1995-02-27</t>
+  </si>
+  <si>
+    <t>1995-03-06</t>
+  </si>
+  <si>
+    <t>1995-03-13</t>
+  </si>
+  <si>
+    <t>1995-03-20</t>
+  </si>
+  <si>
+    <t>1995-03-27</t>
+  </si>
+  <si>
+    <t>1995-04-03</t>
+  </si>
+  <si>
+    <t>1995-04-10</t>
+  </si>
+  <si>
+    <t>1995-04-17</t>
+  </si>
+  <si>
+    <t>1995-04-24</t>
+  </si>
+  <si>
+    <t>1995-05-01</t>
+  </si>
+  <si>
+    <t>1995-05-08</t>
+  </si>
+  <si>
+    <t>1995-05-14</t>
+  </si>
+  <si>
+    <t>1995-05-22</t>
+  </si>
+  <si>
+    <t>1995-05-29</t>
+  </si>
+  <si>
+    <t>1995-06-05</t>
+  </si>
+  <si>
+    <t>1995-06-12</t>
+  </si>
+  <si>
+    <t>1995-06-19</t>
+  </si>
+  <si>
+    <t>1995-06-26</t>
+  </si>
+  <si>
+    <t>1995-07-03</t>
+  </si>
+  <si>
+    <t>1995-07-10</t>
+  </si>
+  <si>
+    <t>1995-07-17</t>
+  </si>
+  <si>
+    <t>1995-07-24</t>
+  </si>
+  <si>
+    <t>1995-07-31</t>
+  </si>
+  <si>
+    <t>1995-08-07</t>
+  </si>
+  <si>
+    <t>1995-08-14</t>
+  </si>
+  <si>
+    <t>1995-08-21</t>
+  </si>
+  <si>
+    <t>1995-08-28</t>
+  </si>
+  <si>
+    <t>1995-09-04</t>
+  </si>
+  <si>
+    <t>1995-09-11</t>
+  </si>
+  <si>
+    <t>1995-09-18</t>
+  </si>
+  <si>
+    <t>1995-09-25</t>
+  </si>
+  <si>
+    <t>1995-10-02</t>
+  </si>
+  <si>
+    <t>1995-10-09</t>
+  </si>
+  <si>
+    <t>1995-10-16</t>
+  </si>
+  <si>
+    <t>1995-10-22</t>
+  </si>
+  <si>
+    <t>1995-10-30</t>
+  </si>
+  <si>
+    <t>1995-11-06</t>
+  </si>
+  <si>
+    <t>1995-11-13</t>
+  </si>
+  <si>
+    <t>1995-11-20</t>
+  </si>
+  <si>
+    <t>1995-11-27</t>
+  </si>
+  <si>
+    <t>1995-12-04</t>
+  </si>
+  <si>
+    <t>1995-12-11</t>
+  </si>
+  <si>
+    <t>1995-12-18</t>
+  </si>
+  <si>
+    <t>1995-12-25</t>
   </si>
 </sst>
 </file>
@@ -466,9 +592,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -783,275 +911,848 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C330FC6-35A2-494B-B67D-6FEDE6D9A186}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:C51"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <dimension ref="A1:A408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C27"/>
+      <selection activeCell="A4" sqref="A4:A404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="122.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>34708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>34715</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>34722</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>34729</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>34736</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>34743</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>34750</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>34757</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>34764</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="70" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>34771</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>34778</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>34785</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>34792</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>34799</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>34806</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>38</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>34813</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="129" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="130" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="131" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>34820</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="134" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>34827</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>41</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="142" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="145" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="146" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="147" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>34833</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="151" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="152" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="153" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="154" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="155" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>34841</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="158" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="159" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="160" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="161" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="162" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="163" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>34848</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>44</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="166" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="167" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="168" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="169" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="170" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="171" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>34855</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="175" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="176" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="177" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="178" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="179" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>34862</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="182" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="183" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="184" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="185" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="186" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="187" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <v>34869</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>47</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="190" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="191" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="192" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="193" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="194" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="195" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
+        <v>34876</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="199" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="200" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="201" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="202" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="203" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
+        <v>34883</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="206" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="207" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="208" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="209" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="210" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="211" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="2">
+        <v>34890</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
         <v>50</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="214" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="215" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="216" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="217" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="218" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="219" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="2">
+        <v>34897</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="223" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="224" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="225" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="226" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="227" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="2">
+        <v>34904</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="230" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="231" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="232" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="233" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="234" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="235" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="2">
+        <v>34911</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
         <v>53</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="238" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="239" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="240" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="241" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="242" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="243" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="3">
+        <v>34918</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="247" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="248" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="249" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="250" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="251" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="2">
+        <v>34925</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="254" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="255" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="256" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="257" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="258" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="259" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="2">
+        <v>34932</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
         <v>56</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="262" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="263" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="264" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="265" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="266" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="267" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="2">
+        <v>34939</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="271" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="272" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="273" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="274" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="275" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="2">
+        <v>34946</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="278" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="279" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="280" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="281" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="282" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="283" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="2">
+        <v>34953</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
         <v>59</v>
       </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="286" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="287" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="288" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="289" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="290" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="291" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="2">
+        <v>34960</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="295" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="296" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="297" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="298" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="299" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="2">
+        <v>34967</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="302" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="303" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="304" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="305" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="306" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="307" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="2">
+        <v>34974</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
         <v>62</v>
       </c>
-      <c r="C21" t="s">
+    </row>
+    <row r="310" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="311" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="312" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="313" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="314" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="315" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="2">
+        <v>34981</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="319" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="320" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="321" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="322" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="323" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="2">
+        <v>34988</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="326" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="327" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="328" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="329" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="330" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="331" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="2">
+        <v>34994</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
         <v>65</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="334" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="335" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="336" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="337" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="338" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="339" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="2">
+        <v>35002</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="343" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="344" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="345" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="346" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="347" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="2">
+        <v>35009</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>13</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="350" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="351" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="352" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="353" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="354" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="355" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="2">
+        <v>35016</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
         <v>68</v>
       </c>
-      <c r="C25" t="s">
+    </row>
+    <row r="358" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="359" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="360" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="361" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="362" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="363" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="2">
+        <v>35023</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="367" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="368" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="369" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="370" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="371" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="2">
+        <v>35030</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>14</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="374" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="375" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="376" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="377" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="378" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="379" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="2">
+        <v>35037</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
         <v>71</v>
       </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="382" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="383" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="384" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="385" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="386" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="387" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="2">
+        <v>35044</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="391" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="392" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="393" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="394" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="395" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="2">
+        <v>35051</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="33" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="34" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="35" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="36" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="37" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="38" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="39" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="40" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="41" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="42" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="43" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="44" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="46" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="47" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="48" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="49" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="50" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="51" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="398" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="399" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="400" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="401" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="402" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="403" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="2">
+        <v>35058</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="407" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="408" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:E51" xr:uid="{5C330FC6-35A2-494B-B67D-6FEDE6D9A186}">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
+  <autoFilter ref="A1:A408" xr:uid="{5C330FC6-35A2-494B-B67D-6FEDE6D9A186}">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="1995" dateTimeGrouping="year"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1061,19 +1762,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F981EC3-C999-49F6-BD11-376E3684FD90}">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P40"/>
+      <selection activeCell="P2" sqref="P2:P52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="60.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="180.140625" bestFit="1" customWidth="1"/>
@@ -1088,2067 +1789,2691 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="N1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J2" t="str">
-        <f>_xlfn.CONCAT(B2,".png")</f>
-        <v>01.png</v>
+        <f>_xlfn.CONCAT(B2,".jpg")</f>
+        <v>01.jpg</v>
       </c>
       <c r="K2" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="N2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O2" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="P2" t="str">
         <f>_xlfn.CONCAT(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2)</f>
-        <v>{"episode":"01","title":"Miracle! The Revival of B't X!","airDate":"1996-04-06","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"01.png","season":1,"showId":"12"},</v>
+        <v>{"episode":"01","title":"The Fierce Demon God Awakens!","airDate":"1995-01-09","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"01.jpg","season":1,"showId":"13"},</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J40" si="0">_xlfn.CONCAT(B3,".png")</f>
-        <v>02.png</v>
+        <f t="shared" ref="J3:J52" si="0">_xlfn.CONCAT(B3,".jpg")</f>
+        <v>02.jpg</v>
       </c>
       <c r="K3" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="N3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O3" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="P3" t="str">
-        <f t="shared" ref="P3:P40" si="1">_xlfn.CONCAT(A3,B3,C3,D3,E3,F3,G3,H3,I3,J3,K3,L3,M3,N3,O3)</f>
-        <v>{"episode":"02","title":"Rebirth! The Sun Battler","airDate":"1996-04-13","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"02.png","season":1,"showId":"12"},</v>
+        <f t="shared" ref="P3:P52" si="1">_xlfn.CONCAT(A3,B3,C3,D3,E3,F3,G3,H3,I3,J3,K3,L3,M3,N3,O3)</f>
+        <v>{"episode":"02","title":"Karuma the Demon and her Three Demon Deciples","airDate":"1995-01-16","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"02.jpg","season":1,"showId":"13"},</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="0"/>
-        <v>03.png</v>
+        <v>03.jpg</v>
       </c>
       <c r="K4" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="N4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O4" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="P4" t="str">
         <f t="shared" si="1"/>
-        <v>{"episode":"03","title":"Confrontation! The Machine Empire","airDate":"1996-04-20","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"03.png","season":1,"showId":"12"},</v>
+        <v>{"episode":"03","title":"Shut in by the Shutter","airDate":"1995-01-23","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"03.jpg","season":1,"showId":"13"},</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="0"/>
-        <v>04.png</v>
+        <v>04.jpg</v>
       </c>
       <c r="K5" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="N5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O5" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="P5" t="str">
         <f t="shared" si="1"/>
-        <v>{"episode":"04","title":"Appearance! The Legendary Spirit Knight","airDate":"1996-04-27","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"04.png","season":1,"showId":"12"},</v>
+        <v>{"episode":"04","title":"The Pot Filled with Desire","airDate":"1995-01-30","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"04.jpg","season":1,"showId":"13"},</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v>05.png</v>
+        <v>05.jpg</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="N6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O6" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="P6" t="str">
         <f t="shared" si="1"/>
-        <v>{"episode":"05","title":"Departure! Desperate Battle Road","airDate":"1996-05-04","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"05.png","season":1,"showId":"12"},</v>
+        <v>{"episode":"05","title":"Tastes Like Fresh Zenki","airDate":"1995-02-06","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"05.jpg","season":1,"showId":"13"},</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
-        <v>06.png</v>
+        <v>06.jpg</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="N7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O7" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="P7" t="str">
         <f t="shared" si="1"/>
-        <v>{"episode":"06","title":"Fear! The Watch Man, Pirate in the Desert!","airDate":"1996-05-11","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"06.png","season":1,"showId":"12"},</v>
+        <v>{"episode":"06","title":"The Boy and the Telephone","airDate":"1995-02-13","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"06.jpg","season":1,"showId":"13"},</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="G8" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
-        <v>07.png</v>
+        <v>07.jpg</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="N8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O8" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="P8" t="str">
         <f t="shared" si="1"/>
-        <v>{"episode":"07","title":"Frightening! The Mystery of the Machine Emperor!","airDate":"1996-05-18","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"07.png","season":1,"showId":"12"},</v>
+        <v>{"episode":"07","title":"Run for the Finish Line of Desire","airDate":"1995-02-20","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"07.jpg","season":1,"showId":"13"},</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="G9" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
-        <v>08.png</v>
+        <v>08.jpg</v>
       </c>
       <c r="K9" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="N9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O9" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="P9" t="str">
         <f t="shared" si="1"/>
-        <v>{"episode":"08","title":"Magnificent! The Dazzling Solder, Camilla!","airDate":"1996-05-25","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"08.png","season":1,"showId":"12"},</v>
+        <v>{"episode":"08","title":"Welcome to Hotel Mummy","airDate":"1995-02-27","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"08.jpg","season":1,"showId":"13"},</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="G10" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
-        <v>09.png</v>
+        <v>09.jpg</v>
       </c>
       <c r="K10" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="N10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O10" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="P10" t="str">
         <f t="shared" si="1"/>
-        <v>{"episode":"09","title":"Fear! Evil Flower!","airDate":"1996-06-01","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"09.png","season":1,"showId":"12"},</v>
+        <v>{"episode":"09","title":"A Demon in the Basement and the Fire Spell","airDate":"1995-03-06","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"09.jpg","season":1,"showId":"13"},</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="G11" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
-        <v>10.png</v>
+        <v>10.jpg</v>
       </c>
       <c r="K11" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="N11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O11" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="P11" t="str">
         <f t="shared" si="1"/>
-        <v>{"episode":"10","title":"Chase! Metal Face Counterattacks!","airDate":"1996-06-08","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"10.png","season":1,"showId":"12"},</v>
+        <v>{"episode":"10","title":"A Boy and his Dogs","airDate":"1995-03-13","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"10.jpg","season":1,"showId":"13"},</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1">
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I12" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
-        <v>11.png</v>
+        <v>11.jpg</v>
       </c>
       <c r="K12" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="N12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O12" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="P12" t="str">
         <f t="shared" si="1"/>
-        <v>{"episode":"11","title":"Invincible! Spirit General of the East, Ron","airDate":"1996-06-15","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"11.png","season":1,"showId":"12"},</v>
+        <v>{"episode":"11","title":"The Night Song of the Samurai","airDate":"1995-03-20","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"11.jpg","season":1,"showId":"13"},</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1">
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I13" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
-        <v>12.png</v>
+        <v>12.jpg</v>
       </c>
       <c r="K13" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="N13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O13" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="P13" t="str">
         <f t="shared" si="1"/>
-        <v>{"episode":"12","title":"Formidable Enemy! The Warrior, Kaos","airDate":"1996-06-22","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"12.png","season":1,"showId":"12"},</v>
+        <v>{"episode":"12","title":"Memories Buried in the Snow","airDate":"1995-03-27","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"12.jpg","season":1,"showId":"13"},</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1">
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="G14" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I14" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="0"/>
-        <v>13.png</v>
+        <v>13.jpg</v>
       </c>
       <c r="K14" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="N14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O14" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="P14" t="str">
         <f t="shared" si="1"/>
-        <v>{"episode":"13","title":"Buddy! The Bond of a Passionate Soul","airDate":"1996-06-29","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"13.png","season":1,"showId":"12"},</v>
+        <v>{"episode":"13","title":"The Challenge of the Wishing Plaques","airDate":"1995-04-03","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"13.jpg","season":1,"showId":"13"},</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1">
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="G15" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I15" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
-        <v>14.png</v>
+        <v>14.jpg</v>
       </c>
       <c r="K15" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="N15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O15" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="P15" t="str">
         <f t="shared" si="1"/>
-        <v>{"episode":"14","title":"Tragic! Maria Who Lives in the Graveyard","airDate":"1996-07-06","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"14.png","season":1,"showId":"12"},</v>
+        <v>{"episode":"14","title":"The Legendary Demon God, Reveal Zenki`s Secret","airDate":"1995-04-10","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"14.jpg","season":1,"showId":"13"},</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1">
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="G16" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I16" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
-        <v>15.png</v>
+        <v>15.jpg</v>
       </c>
       <c r="K16" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="N16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O16" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="P16" t="str">
         <f t="shared" si="1"/>
-        <v>{"episode":"15","title":"Blast! Message to the Reaper","airDate":"1996-07-13","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"15.png","season":1,"showId":"12"},</v>
+        <v>{"episode":"15","title":"The Plan of Sealing up The Demon God","airDate":"1995-04-17","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"15.jpg","season":1,"showId":"13"},</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1">
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="G17" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I17" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="0"/>
-        <v>16.png</v>
+        <v>16.jpg</v>
       </c>
       <c r="K17" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="N17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O17" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="P17" t="str">
         <f t="shared" si="1"/>
-        <v>{"episode":"16","title":"Revived! The Prism of Aura","airDate":"1996-07-20","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"16.png","season":1,"showId":"12"},</v>
+        <v>{"episode":"16","title":"The Spell of Darkness Souma vs Anju","airDate":"1995-04-24","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"16.jpg","season":1,"showId":"13"},</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="G18" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I18" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="0"/>
-        <v>17.png</v>
+        <v>17.jpg</v>
       </c>
       <c r="K18" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="N18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O18" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="P18" t="str">
         <f t="shared" si="1"/>
-        <v>{"episode":"17","title":"Appear! Shadow X!","airDate":"1996-07-27","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"17.png","season":1,"showId":"12"},</v>
+        <v>{"episode":"17","title":"The Servant of Evil Falls Anju`s Longest Day","airDate":"1995-05-01","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"17.jpg","season":1,"showId":"13"},</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="G19" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I19" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="0"/>
-        <v>18.png</v>
+        <v>18.jpg</v>
       </c>
       <c r="K19" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="N19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O19" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="P19" t="str">
         <f t="shared" si="1"/>
-        <v>{"episode":"18","title":"The Dark! Fear of the Underhell","airDate":"1996-08-03","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"18.png","season":1,"showId":"12"},</v>
+        <v>{"episode":"18","title":"The Diamond Dragon Awakens The Mythical Immortal Mountain","airDate":"1995-05-08","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"18.jpg","season":1,"showId":"13"},</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1">
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="G20" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I20" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" si="0"/>
-        <v>19.png</v>
+        <v>19.jpg</v>
       </c>
       <c r="K20" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="N20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O20" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="P20" t="str">
         <f t="shared" si="1"/>
-        <v>{"episode":"19","title":"Desperate! X's Death","airDate":"1996-08-10","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"19.png","season":1,"showId":"12"},</v>
+        <v>{"episode":"19","title":"The Two Chiakis' 800 year promise","airDate":"1995-05-14","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"19.jpg","season":1,"showId":"13"},</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1">
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="G21" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="H21" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I21" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="0"/>
-        <v>20.png</v>
+        <v>20.jpg</v>
       </c>
       <c r="K21" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="N21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O21" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="P21" t="str">
         <f t="shared" si="1"/>
-        <v>{"episode":"20","title":"Life! Break Heart","airDate":"1996-08-17","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"20.png","season":1,"showId":"12"},</v>
+        <v>{"episode":"20","title":"Heian Capital up in Flames, Come Diamond Axe!","airDate":"1995-05-22","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"20.jpg","season":1,"showId":"13"},</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B22" s="1">
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="E22" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="G22" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I22" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="0"/>
-        <v>21.png</v>
+        <v>21.jpg</v>
       </c>
       <c r="K22" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="N22">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O22" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="P22" t="str">
         <f t="shared" si="1"/>
-        <v>{"episode":"21","title":"Reborn! The Neo B't X","airDate":"1996-08-24","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"21.png","season":1,"showId":"12"},</v>
+        <v>{"episode":"21","title":"Rush to the Future! The Pentagram Shrines in the Ancient Capital","airDate":"1995-05-29","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"21.jpg","season":1,"showId":"13"},</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B23" s="1">
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="E23" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="G23" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I23" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="0"/>
-        <v>22.png</v>
+        <v>22.jpg</v>
       </c>
       <c r="K23" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="N23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O23" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="P23" t="str">
         <f t="shared" si="1"/>
-        <v>{"episode":"22","title":"The Worst! The Area's Seven Evil Knights","airDate":"1996-08-31","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"22.png","season":1,"showId":"12"},</v>
+        <v>{"episode":"22","title":"Shikigami-chou Destroyed Water Formation","airDate":"1995-06-05","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"22.jpg","season":1,"showId":"13"},</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B24" s="1">
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="E24" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="G24" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="H24" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I24" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" si="0"/>
-        <v>23.png</v>
+        <v>23.jpg</v>
       </c>
       <c r="K24" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="N24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O24" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="P24" t="str">
         <f t="shared" si="1"/>
-        <v>{"episode":"23","title":"Flash of Light! Shining Knuckle","airDate":"1996-09-07","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"23.png","season":1,"showId":"12"},</v>
+        <v>{"episode":"23","title":"Goura the Traitor, Diamond Formation and Earth Formation","airDate":"1995-06-12","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"23.jpg","season":1,"showId":"13"},</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B25" s="1">
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="G25" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="H25" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I25" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="0"/>
-        <v>24.png</v>
+        <v>24.jpg</v>
       </c>
       <c r="K25" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="N25">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O25" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="P25" t="str">
         <f t="shared" si="1"/>
-        <v>{"episode":"24","title":"Burn! A Piece of the Sun","airDate":"1996-09-14","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"24.png","season":1,"showId":"12"},</v>
+        <v>{"episode":"24","title":"Come back to Life Zenki! Flame Formation","airDate":"1995-06-19","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"24.jpg","season":1,"showId":"13"},</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B26" s="1">
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="G26" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="H26" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I26" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" si="0"/>
-        <v>25.png</v>
+        <v>25.jpg</v>
       </c>
       <c r="K26" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="N26">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O26" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="P26" t="str">
         <f t="shared" si="1"/>
-        <v>{"episode":"25","title":"Overthrow! B'T Raphael","airDate":"1996-09-21","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"25.png","season":1,"showId":"12"},</v>
+        <v>{"episode":"25","title":"The Last Battle! The end of Karuma","airDate":"1995-06-26","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"25.jpg","season":1,"showId":"13"},</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B27" s="1">
         <f>B26+1</f>
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="G27" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I27" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J27" t="str">
         <f t="shared" si="0"/>
-        <v>26.png</v>
+        <v>26.jpg</v>
       </c>
       <c r="K27" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M27" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="N27">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O27" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="P27" t="str">
         <f t="shared" si="1"/>
-        <v>{"episode":"26","title":"The Four Knights vs. The Evil Knights","airDate":"1997-08-21","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"26.png","season":2,"showId":"12"},</v>
+        <v>{"episode":"26","title":"Eve of the Demon God Festival, Lulupapa Appears","airDate":"1995-07-03","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"26.jpg","season":1,"showId":"13"},</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" ref="B28:B40" si="2">B27+1</f>
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="G28" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="H28" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I28" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J28" t="str">
         <f t="shared" si="0"/>
-        <v>27.png</v>
+        <v>27.jpg</v>
       </c>
       <c r="K28" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="L28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M28" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="N28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O28" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="P28" t="str">
         <f t="shared" si="1"/>
-        <v>{"episode":"27","title":"The Land of Love and Hate","airDate":"1997-08-28","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"27.png","season":2,"showId":"12"},</v>
+        <v>{"episode":"27","title":"A New Enemy, I'm the Prince of the Realm of the Dead.","airDate":"1995-07-10","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"27.jpg","season":1,"showId":"13"},</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B29" s="1">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="G29" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I29" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" si="0"/>
-        <v>28.png</v>
+        <v>28.jpg</v>
       </c>
       <c r="K29" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M29" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="N29">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O29" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="P29" t="str">
         <f t="shared" si="1"/>
-        <v>{"episode":"28","title":"Burning Red Flame!","airDate":"1997-09-04","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"28.png","season":2,"showId":"12"},</v>
+        <v>{"episode":"28","title":"The Awakening of the Heartbeat! Akira`s Secret","airDate":"1995-07-17","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"28.jpg","season":1,"showId":"13"},</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D30" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="G30" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="H30" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I30" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J30" t="str">
         <f t="shared" si="0"/>
-        <v>29.png</v>
+        <v>29.jpg</v>
       </c>
       <c r="K30" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M30" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="N30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O30" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="P30" t="str">
         <f t="shared" si="1"/>
-        <v>{"episode":"29","title":"Miracles of the Blood","airDate":"1997-09-11","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"29.png","season":2,"showId":"12"},</v>
+        <v>{"episode":"29","title":"Roar out! The Great Demon God Vajura Mahar Samaskara","airDate":"1995-07-24","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"29.jpg","season":1,"showId":"13"},</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D31" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="E31" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="G31" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="H31" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I31" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" si="0"/>
-        <v>30.png</v>
+        <v>30.jpg</v>
       </c>
       <c r="K31" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M31" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="N31">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O31" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="P31" t="str">
         <f t="shared" si="1"/>
-        <v>{"episode":"30","title":"Fear of the Illusions","airDate":"1997-09-18","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"30.png","season":2,"showId":"12"},</v>
+        <v>{"episode":"30","title":"Stolen Faces, Beware of the Pick-up Artist!","airDate":"1995-07-31","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"30.jpg","season":1,"showId":"13"},</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E32" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="G32" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="H32" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I32" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" si="0"/>
-        <v>31.png</v>
+        <v>31.jpg</v>
       </c>
       <c r="K32" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="L32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M32" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="N32">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O32" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="P32" t="str">
         <f t="shared" si="1"/>
-        <v>{"episode":"31","title":"A Streak of Light","airDate":"1997-09-25","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"31.png","season":2,"showId":"12"},</v>
+        <v>{"episode":"31","title":"The Hands That Create Souls. The Night of the Dolls","airDate":"1995-08-07","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"31.jpg","season":1,"showId":"13"},</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="E33" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="G33" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="H33" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I33" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J33" t="str">
         <f t="shared" si="0"/>
-        <v>32.png</v>
+        <v>32.jpg</v>
       </c>
       <c r="K33" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="L33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M33" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="N33">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O33" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="P33" t="str">
         <f t="shared" si="1"/>
-        <v>{"episode":"32","title":"Mehr Licht (more light)","airDate":"1997-10-02","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"32.png","season":2,"showId":"12"},</v>
+        <v>{"episode":"32","title":"Terror by the Lake, Listen to the Song of the Spirit","airDate":"1995-08-14","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"32.jpg","season":1,"showId":"13"},</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E34" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="G34" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="H34" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I34" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" si="0"/>
-        <v>33.png</v>
+        <v>33.jpg</v>
       </c>
       <c r="K34" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="L34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M34" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="N34">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O34" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="P34" t="str">
         <f t="shared" si="1"/>
-        <v>{"episode":"33","title":"Confessions of a Mask","airDate":"1997-10-09","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"33.png","season":2,"showId":"12"},</v>
+        <v>{"episode":"33","title":"Fragments of Desire. Chiaki in Big Trouble!","airDate":"1995-08-21","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"33.jpg","season":1,"showId":"13"},</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="E35" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="G35" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="H35" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I35" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" si="0"/>
-        <v>34.png</v>
+        <v>34.jpg</v>
       </c>
       <c r="K35" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="L35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M35" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="N35">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O35" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="P35" t="str">
         <f t="shared" si="1"/>
-        <v>{"episode":"34","title":"Blood Bonds","airDate":"1997-10-16","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"34.png","season":2,"showId":"12"},</v>
+        <v>{"episode":"34","title":"Jukai Runs for Office! Daruma Power, Cast Your Honest Vote!","airDate":"1995-08-28","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"34.jpg","season":1,"showId":"13"},</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B36" s="1">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D36" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="E36" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="G36" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="H36" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I36" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J36" t="str">
         <f t="shared" si="0"/>
-        <v>35.png</v>
+        <v>35.jpg</v>
       </c>
       <c r="K36" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="L36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M36" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="N36">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O36" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="P36" t="str">
         <f t="shared" si="1"/>
-        <v>{"episode":"35","title":"The Lair of the Beast","airDate":"1997-10-23","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"35.png","season":2,"showId":"12"},</v>
+        <v>{"episode":"35","title":"An Arrow that Pierces the Full Moon. Ichiko's Secret","airDate":"1995-09-04","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"35.jpg","season":1,"showId":"13"},</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="E37" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="G37" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="H37" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I37" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J37" t="str">
         <f t="shared" si="0"/>
-        <v>36.png</v>
+        <v>36.jpg</v>
       </c>
       <c r="K37" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="L37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M37" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="N37">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O37" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="P37" t="str">
         <f t="shared" si="1"/>
-        <v>{"episode":"36","title":"Search for a Lost Era!","airDate":"1997-10-30","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"36.png","season":2,"showId":"12"},</v>
+        <v>{"episode":"36","title":"Forbidden Garden. Let`s Put Flowers on our Head!","airDate":"1995-09-11","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"36.jpg","season":1,"showId":"13"},</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="E38" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="G38" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="H38" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I38" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J38" t="str">
         <f t="shared" si="0"/>
-        <v>37.png</v>
+        <v>37.jpg</v>
       </c>
       <c r="K38" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="L38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M38" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="N38">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O38" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="P38" t="str">
         <f t="shared" si="1"/>
-        <v>{"episode":"37","title":"One for All","airDate":"1997-11-06","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"37.png","season":2,"showId":"12"},</v>
+        <v>{"episode":"37","title":"A Star is Born. Got the Punch Line?","airDate":"1995-09-18","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"37.jpg","season":1,"showId":"13"},</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D39" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="E39" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="G39" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="H39" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I39" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="J39" t="str">
         <f t="shared" si="0"/>
-        <v>38.png</v>
+        <v>38.jpg</v>
       </c>
       <c r="K39" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="L39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M39" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="N39">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O39" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="P39" t="str">
         <f t="shared" si="1"/>
-        <v>{"episode":"38","title":"Memories of the Future!","airDate":"1997-11-13","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"38.png","season":2,"showId":"12"},</v>
+        <v>{"episode":"38","title":"The Nightmare of the Lost Pool, Souma Returns","airDate":"1995-09-25","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"38.jpg","season":1,"showId":"13"},</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" t="s">
+        <v>121</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G40" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" t="s">
+        <v>19</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="0"/>
+        <v>39.jpg</v>
+      </c>
+      <c r="K40" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40" t="s">
+        <v>21</v>
+      </c>
+      <c r="N40">
+        <v>13</v>
+      </c>
+      <c r="O40" t="s">
+        <v>22</v>
+      </c>
+      <c r="P40" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"39","title":"Hirumaki's Scheme. The Shadow of Death Creeps","airDate":"1995-10-02","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"39.jpg","season":1,"showId":"13"},</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" t="s">
+        <v>121</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G41" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="0"/>
+        <v>40.jpg</v>
+      </c>
+      <c r="K41" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41" t="s">
+        <v>21</v>
+      </c>
+      <c r="N41">
+        <v>13</v>
+      </c>
+      <c r="O41" t="s">
+        <v>22</v>
+      </c>
+      <c r="P41" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"40","title":"Dangerous Encounter. Sayaka`s Crush","airDate":"1995-10-09","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"40.jpg","season":1,"showId":"13"},</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" t="s">
+        <v>121</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="0"/>
+        <v>41.jpg</v>
+      </c>
+      <c r="K42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42" t="s">
+        <v>21</v>
+      </c>
+      <c r="N42">
+        <v>13</v>
+      </c>
+      <c r="O42" t="s">
+        <v>22</v>
+      </c>
+      <c r="P42" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"41","title":"Kokutei Gets Kidnapped, Assassinate the Dog Deity!","airDate":"1995-10-16","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"41.jpg","season":1,"showId":"13"},</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" t="s">
+        <v>116</v>
+      </c>
+      <c r="E43" t="s">
+        <v>121</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="0"/>
+        <v>42.jpg</v>
+      </c>
+      <c r="K43" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N43">
+        <v>13</v>
+      </c>
+      <c r="O43" t="s">
+        <v>22</v>
+      </c>
+      <c r="P43" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"42","title":"Akira is the Target. Attacker from the Realm of the Dead","airDate":"1995-10-22","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"42.jpg","season":1,"showId":"13"},</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="0"/>
+        <v>43.jpg</v>
+      </c>
+      <c r="K44" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44" t="s">
+        <v>21</v>
+      </c>
+      <c r="N44">
+        <v>13</v>
+      </c>
+      <c r="O44" t="s">
+        <v>22</v>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"43","title":"Darkness Approaches, Chiaki Gets Tested.","airDate":"1995-10-30","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"43.jpg","season":1,"showId":"13"},</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" t="s">
+        <v>117</v>
+      </c>
+      <c r="E45" t="s">
+        <v>121</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G45" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="0"/>
+        <v>44.jpg</v>
+      </c>
+      <c r="K45" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45" t="s">
+        <v>21</v>
+      </c>
+      <c r="N45">
+        <v>13</v>
+      </c>
+      <c r="O45" t="s">
+        <v>22</v>
+      </c>
+      <c r="P45" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"44","title":"The Miracle of Mother Mary, The Memory of an Ancient Jewel.","airDate":"1995-11-06","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"44.jpg","season":1,"showId":"13"},</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G46" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="0"/>
+        <v>45.jpg</v>
+      </c>
+      <c r="K46" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46" t="s">
+        <v>21</v>
+      </c>
+      <c r="N46">
+        <v>13</v>
+      </c>
+      <c r="O46" t="s">
+        <v>22</v>
+      </c>
+      <c r="P46" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"45","title":"Kaze Dies at Dawn, Kill the Phantom Karuma Beast","airDate":"1995-11-13","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"45.jpg","season":1,"showId":"13"},</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" t="s">
+        <v>121</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="0"/>
+        <v>46.jpg</v>
+      </c>
+      <c r="K47" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47" t="s">
+        <v>21</v>
+      </c>
+      <c r="N47">
+        <v>13</v>
+      </c>
+      <c r="O47" t="s">
+        <v>22</v>
+      </c>
+      <c r="P47" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"46","title":"Beautiful Beast, Negation Power","airDate":"1995-11-20","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"46.jpg","season":1,"showId":"13"},</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D48" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" t="s">
+        <v>121</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G48" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="0"/>
+        <v>47.jpg</v>
+      </c>
+      <c r="K48" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48" t="s">
+        <v>21</v>
+      </c>
+      <c r="N48">
+        <v>13</v>
+      </c>
+      <c r="O48" t="s">
+        <v>22</v>
+      </c>
+      <c r="P48" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"47","title":"Enno Shrine Under Attack. Come, Earth Dragon Staff!","airDate":"1995-11-27","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"47.jpg","season":1,"showId":"13"},</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" t="s">
+        <v>121</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G49" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" t="s">
+        <v>19</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="0"/>
+        <v>48.jpg</v>
+      </c>
+      <c r="K49" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49" t="s">
+        <v>21</v>
+      </c>
+      <c r="N49">
+        <v>13</v>
+      </c>
+      <c r="O49" t="s">
+        <v>22</v>
+      </c>
+      <c r="P49" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"48","title":"The Fate of the Moon and the Wolf. Beyond the White and Silver.","airDate":"1995-12-04","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"48.jpg","season":1,"showId":"13"},</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" t="s">
+        <v>121</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" t="s">
+        <v>19</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="0"/>
+        <v>49.jpg</v>
+      </c>
+      <c r="K50" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50" t="s">
+        <v>21</v>
+      </c>
+      <c r="N50">
+        <v>13</v>
+      </c>
+      <c r="O50" t="s">
+        <v>22</v>
+      </c>
+      <c r="P50" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"49","title":"The Demon God Versus the Dog Deity. The Last Battle of Destiny.","airDate":"1995-12-11","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"49.jpg","season":1,"showId":"13"},</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D40" t="s">
-        <v>71</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="C51" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" t="s">
+        <v>121</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G51" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="0"/>
+        <v>50.jpg</v>
+      </c>
+      <c r="K51" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51" t="s">
+        <v>21</v>
+      </c>
+      <c r="N51">
+        <v>13</v>
+      </c>
+      <c r="O51" t="s">
+        <v>22</v>
+      </c>
+      <c r="P51" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"50","title":"The God of Destruction Arrives. Fight, Courageous Ones!","airDate":"1995-12-18","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"50.jpg","season":1,"showId":"13"},</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G40" t="s">
-        <v>87</v>
-      </c>
-      <c r="H40" t="s">
-        <v>83</v>
-      </c>
-      <c r="I40" t="s">
-        <v>88</v>
-      </c>
-      <c r="J40" t="str">
-        <f t="shared" si="0"/>
-        <v>39.png</v>
-      </c>
-      <c r="K40" t="s">
-        <v>89</v>
-      </c>
-      <c r="L40">
-        <v>2</v>
-      </c>
-      <c r="M40" t="s">
-        <v>90</v>
-      </c>
-      <c r="N40">
-        <v>12</v>
-      </c>
-      <c r="O40" t="s">
-        <v>91</v>
-      </c>
-      <c r="P40" t="str">
-        <f t="shared" si="1"/>
-        <v>{"episode":"39","title":"A Piece of the Sun!","airDate":"1997-11-20","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"39.png","season":2,"showId":"12"},</v>
+      <c r="C52" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D52" t="s">
+        <v>119</v>
+      </c>
+      <c r="E52" t="s">
+        <v>121</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G52" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="0"/>
+        <v>51.jpg</v>
+      </c>
+      <c r="K52" t="s">
+        <v>20</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52" t="s">
+        <v>21</v>
+      </c>
+      <c r="N52">
+        <v>13</v>
+      </c>
+      <c r="O52" t="s">
+        <v>22</v>
+      </c>
+      <c r="P52" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"51","title":"Go Demon God! Diamond Axe Rudra!","airDate":"1995-12-25","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"51.jpg","season":1,"showId":"13"},</v>
       </c>
     </row>
   </sheetData>

--- a/assets/episodes.xlsx
+++ b/assets/episodes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpin769\Documents\Personal\_My Projects\batang-90s-tv-plus\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60963533-34E0-4446-990D-91DABB6D36D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E3BF21-D4F4-4808-A5DF-27A155FB3E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="77040" windowHeight="21240" activeTab="1" xr2:uid="{9DD08765-C5F9-4FFA-9CCD-C1387A5793AB}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="297">
   <si>
     <t>synopsis</t>
   </si>
@@ -106,393 +106,845 @@
     <t>"},</t>
   </si>
   <si>
-    <t>","title":"</t>
-  </si>
-  <si>
-    <t>","airDate":"</t>
-  </si>
-  <si>
-    <t>"The Princess and her Ninja! Power Awakens!"</t>
-  </si>
-  <si>
-    <t>"Fire and Wind, the Fatal Temptation!"</t>
-  </si>
-  <si>
-    <t>"The Soldier of Water! The Plane of Revenge!"</t>
-  </si>
-  <si>
-    <t>"The Maze of Mirror and the Determined Flame"</t>
-  </si>
-  <si>
-    <t>As Yanagi appears, Tokiya withdraws from the fight and Yanagi manages to heal Recca using her powers. Feeling down because he let Yanagi save him, Yanagi recommends they go to the amusement park. On the way to buying some drinks, Tokiya appears and takes Yanagi to Mirror House. Recca then confronts Tokiya in order to save Yanagi, after a fierce battle, Tokiya admit defeat. It is also revealed that Kage Houshi is actually Recca's biological mother, and make them fight each other to strengthen their power.</t>
-  </si>
-  <si>
-    <t>"The Mystery of the Hokage Ninja"</t>
-  </si>
-  <si>
-    <t>Recca meets a teacher that knows a lot about the Hokage Ninjas. Yanagi is kidnapped by people from Kurei's Uruha (his Death Squad), including a greatly skilled but rather innocent swordschild named Koganei.</t>
-  </si>
-  <si>
-    <t>"The Dangerous Master of Flame, Kurei!"</t>
-  </si>
-  <si>
-    <t>Yanagi wakes up to find herself in a huge bedroom. She meets Koganei, who has washed her clothes and tells her he did not mean to hurt her, but that he must follow Kurei's orders. It is revealed the Kurei's 'father' has ordered the kidnapping of Yanagi, because she has the innate ability to heal and he thinks this can help him achieve immortality. Kage Houshi appears and encourages Recca to fight for Yanagi's release. Recca, Domon and Fuuko team up to go for this. They head to Kurei's mansion, but are met by a stone statue called Maria that shoots lasers at them, upon entrance.</t>
-  </si>
-  <si>
-    <t>"A Deadly Struggle, the Guardian of Stone"</t>
-  </si>
-  <si>
-    <t>Recca, Domon and Fuuko realize that Maria is too fast for them but, taking advantage of the time she needs to occasionally recharge her laser, they defeat her. As they travel to the next room, the group encounters a room full of mannequins playing instruments and holding festivities. There they meet Katashira Reira (doll controller) and her doll Primera, and a battle breaks off between them and Fuuko.</t>
-  </si>
-  <si>
-    <t>"Room of the Doll! Fuko's Fatal Combat!"</t>
-  </si>
-  <si>
-    <t>Katashira Reira gains control of Fuuko's body and begins to attack the other two. During this, Reira uses the moment to gain control of the boys. Stuck in her control, Reira tortures Fuuko with Primera until she begins to laugh. Fuuko learns the secret of the doll controller and stops her, ultimately defeating the duo. Kage Hoshi is then seen trying to convince Tokiya to assist Recca and company. Meanwhile, Kurei gives order to let loose a dangerous character that is locked up in a cage on the second floor.</t>
-  </si>
-  <si>
-    <t>"Devil Domon! Overwhelming Power!"</t>
-  </si>
-  <si>
-    <t>The group goes up to the second floor with new friend Ganko to meet Seiko. Seiko who was locked up because he was too dangerous is now stopping our team from getting to the fourth floor where Yanagi is. Domon steps up to the challenge, and declares he'll face Seiko alone. Seiko is at first taken down, but after the use of his elemental weapon, creates a rock armor and pulverizes the group. It is then viewers learn that Domon is given Saturn's Ring from Kage Hoshi, and with its aid manages to defeat Seiko. As the episode closes, Tokiya makes his appearance at the mansion.</t>
-  </si>
-  <si>
-    <t>"The War of Flames! The Fight Between Hokage Descendants"</t>
-  </si>
-  <si>
-    <t>Fuuko, Recca, and Domon are holding up a wall when Tokiya appears and taunts them. He destroys the wall and then begins to battle with Koganei who was waiting from the group on the third floor. Tokiya engages Koganei, and allows the rest of the group to run on to the fourth floor where they meet Kurei. After getting their attention, Kurei tells Recca about their past 400 years ago and how both were sent to the present time when they were infants.</t>
-  </si>
-  <si>
-    <t>"Adamantium Blade's Five Different Forms!"</t>
-  </si>
-  <si>
-    <t>"Kurenai, the Flame of the Angel of Death"</t>
-  </si>
-  <si>
-    <t>Expecting the ambush from Kurei, Recca counters him with his own flames but still gets blasted back. Kurei is surprised that his flames were evenly countered by Recca. As Recca demands Kurei to return Yanagi to them, Kurei notices the scar on Reccas' face and reminisces that he was the one who gave Recca that scar when he was a kid and that they both are not people from the current time period. When Recca is not the least concerned about this, Kurei blames Recca for his bad luck since he was going to die by his hands now. Kurei materializes a raging fire being called Kurenai and commands it to attack Recca and his friends. After everyone scatters in order to avoid getting hit by the flames, Kureis' eyes fall on Ganko. As punishment for Gankos' betrayal, Kurei directs Kurenai to kill Ganko. In the nick of time, Recca shields Ganko from the attack. Angered by Kureis' assault on Ganko, Recca unleashes an even powerful flame to stop Kurenai. Motivated by Recca, Fuko and Domon attack Kurenai with their weapons joined by Tokiya as well. Recca and the others decide to attack Kurei since he is the source of Kurenais' power but end up miscalculating his strength. They are all dealt with one by one by Kurei leaving Recca to be dealt by Kurenai. After all of them are defeated and at their wits end, Kagehoshi appears in front of them. She advises Recca to retreat but he doesn't agree. Kageroshi tells Recca to remove his gauntlet which is actually used to seal Reccas' full power to save him from harm. Recca is engulfed in his own flames and in immense pain as soon as he removes his gauntlet.</t>
-  </si>
-  <si>
-    <t>"The Ultimate Flame! Legend of the Fire Dragons"</t>
-  </si>
-  <si>
-    <t>After removing the gauntlet, an eight headed dragon appears from Reccas' flames. Everyone is astonished as Kagehoshi deems that it is the most powerful form of flame in history. Each head has its own savage consciousness and named Saiha, Nadare, Madoka, Rui, Homura, Koku, Setsuna and Resshin. Recca struggles immensely to gain control over the enormous power of his flames. One of the flame dragon heads, Resshin, is about to attack unconscious Yanagi when Recca fiercely commands it to stop or he would kill them all. Hearing this, Resshin warns Recca to watch his words but Recca is adamant to make them obey him. The angered dragons attack Recca and seeing him face them bravely without fleeing, Resshin offers to help Recca this one time in exchange for a price. Recca says that he is unable to forgive Kurei who kills women or children on a mere whim and asks Resshins' help to defeat Kurei in exchange for one of his arm. Resshin accepts and attacks Kurenai and Kurei. Even after being hit by Resshins' flame, Kurei manages to stand up. Looking unaffected Kurei attacks Recca intent on killing him and muses that once he dies the dragons may be plotting to use Kurei as their next host. At the same time, 4 people arrive in front of Kurei saying that they sensed disturbance in the mansion. Kurei introduces them as the assassin squad under his command, 'Uruha', with members Raiha, Neon, Jisho and Genjuro. Kurei further says that he will let go of Recca and the others along with Yanagi as a reward for entertaining him and will kill him for sure the next time they meet. As everyone is relieved and prepare to leave, they find Ganko beside Reccas' teacher who was also kidnapped. Ganko reveals that Koganei saved the teacher. Outside the mansion, Koganei meets up with Kurei and Uruha members only to let them know that he will not follow Kurei anymore since he betrayed his trust and hurt Yanagi. Kurei lets him off warning him that he will be given a brutal death the next time they meet.</t>
-  </si>
-  <si>
-    <t>"The Past is Brought Forward! The Truth of 400 Years Ago!"</t>
-  </si>
-  <si>
-    <t>After rescuing Yanagi and destroying Kurei's mansion, Kage Hoshi invited Recca and his friends into her secret hideout carved in the face of a cliff. Kage Hoshi reveals to them that her real name is Kagero, and that she is Recca's true mother. While Recca refuses to believe, she tells all of them the truth of 400 years ago: Oka, the Hokage clan's leader and a flame master, had two sons: Recca with his wife Kagero, and Kurei with his mistress Reina, making Kurei and Recca half-brothers. Kurei, who exhibited flame powers as a child, was slated to inherit the clan leadership, but it was soon discovered that Recca also possessed the same powers. According to prophecy, only one member of the Hokage clan can use the powers of flame in each generation, and when there are two of them at the same time, one of them is bearing a cursed flame which can lead to the end of the clan's existence. The clan elders determined that Kurei was the one with the cursed flame, and sentenced him to death, but was spared upon Kagero's request. Meanwhile, while Kagero was telling them all of this, three members of the Uruha under Kurei's orders was spying on them, having discovered the hidden passageway towards the hideout, and was planning to attack them all unaware.</t>
-  </si>
-  <si>
-    <t>"The Curse that Separates Mother and Son"</t>
-  </si>
-  <si>
-    <t>"Determination to Fight! Recca's Challenge!"</t>
-  </si>
-  <si>
-    <t>Recca, Domon, Fuko and Tokiya all decided to train during their summer break in case Kurei confronts them again later on. Before leaving, however, they decided to meet at Recca's house, where Recca introduced Kagero to his adoptive father and thanked him for looking after him for all those years. Yanagi, who was worried about Recca's safety, decided to accompany him in his training, much to his chagrin. Meanwhile, Fuko and Domon decided to train using the Madogu they acquired from the battle at Kagero's hideout. After a month, Recca was able to tame two of the flame dragons, while Mikagami, Fuko and Domon got more proficient in using their Madogu. Their reunion was interrupted however, by Genjuro and Jisho, who sent them an invitation from Kurei to join the Urabutou Satsujin, the most dangerous martial arts tournament in history.</t>
-  </si>
-  <si>
-    <t>"Hokage's Arrival! The Urubatousatsujin"</t>
-  </si>
-  <si>
-    <t>"The Opening Battle! Mikagami's Sword"</t>
-  </si>
-  <si>
-    <t>The fight between Hokage and Kuu begins with the match between Daikoku and Mikagami. But before the match, Tokiya walked away from the ring to refuel his Ensui in a nearby fountain. He recalled what his master/grandfather, Meguri Kyoza taught him on how to use the Ice Crest Sword for revenge by saying the words, "The path of Revenge is hard road in life. This sword requires blood of its opponents and soon, you’ll be covered in blood." When the match began, Tokiya began dodging Daikoku's staff attacks. The former also asked a logical question on how to stop a fan without turning off the switch and touching the blade. Near the end, Daikoku uses his bo's 1000-attack technique.</t>
-  </si>
-  <si>
-    <t>"Unexploded Iron Fist! Domon's Last Resort"</t>
-  </si>
-  <si>
-    <t>"Secret of the Maiden's Skin"</t>
-  </si>
-  <si>
-    <t>Fujimaru stripped Fuuko Kirisawa during the match and called her ugly. At the end of the match, Fuuko warned the audience if there is someone like Fujimaru, she would make their lives as a living hell. Later, Saicho apologized for Fujimaru's perverse behavior and gave a paper bandage to Fuuko's arm and give his jacket to her.</t>
-  </si>
-  <si>
-    <t>"Paper Dance! Breathing in Life!"</t>
-  </si>
-  <si>
-    <t>The match between Saicho and Recca begins. The former tells Hanabishi that he can only fight for 10 minutes since he had a heart condition (which revealed to be an injury caused by stabbing by one of the rebellious Kuu students). Throughout the fight, it is revealed that Saicho's Madogu, Shikigami (animator) can produce paper made of a magical barrier that cannot be easily burned. Some of the artworks made by the Kuu fighter include a deflecting force field (Nuno Zarashin), a paper sword (Kami No Ken) and as well as a crane of a thousand paper birds. In this bout, Saiha, the second flame dragon shows his true power in a form of a flame sword. At the end of the match, Recca challenged Kukai despite Hokage's victory.</t>
-  </si>
-  <si>
-    <t>"The Terrible Monster has Changed! Recca is in Danger!"</t>
-  </si>
-  <si>
-    <t>Recca challenges Kukai however, the referee protested since regardless of the result, Team Hokage still wins. However, Kouran Mori appears in the screen and decided to make some changes. He proposed that all of the previous fights will be discarded, and the winner of the match will advance in the next round. Recca provokingly accepts the proposal. During the fight, Kukai warned Recca that he only has to hit the Kuu master 3 times in any method, after which, it could mean certain death for Recca. Nobody was able to comprehend what Kukai really meant except Daikoku who had a flashback of what happens afterwards. But Recca was reluctant and attacked Kukai with Nadare. Kukai deflects the fireballs with his hands. However, he missed one. Recca has two hits left, so he decided to use Saiha against Kukai but avoids it. Recca kicks Kukai in the face but later gets up and laughs. Now the young ninja only has one strike left. This time, Kukai will not move. If Recca knocks Kukai out, he wins. But if Kukai still has the strength to fight, Recca dies. Daikoku warns Recca not to do it, but Hanabishi was still persistent and gave Kukai a mighty punch. Kukai gets up and activates his madogu, Oni, a demonic necklace that activates after the user is hit three times, turning the possessor in to a perfect killing machine. Both Kagero and Genjuro explained this fact. Kukai began beating Recca up badly. Minamio, who was shocked told his teammates that everybody has a lust for killing just like everybody else, even a gentle and serene teacher like Kukai. He also told that the Urabutousatsoujin is based on killing as a sport. In the end of the episode, Kukai prepares to smash Recca's head.</t>
-  </si>
-  <si>
-    <t>"Trial of Life and Death!/The Life-staking Test"</t>
-  </si>
-  <si>
-    <t>"The Call from the Monster, the Warrior from Hell"</t>
-  </si>
-  <si>
-    <t>Koganei joins the Hokage team after learning that they do not have enough members. NOTE: Fuuko and Domon were fallen by Kurei's trap.</t>
-  </si>
-  <si>
-    <t>"What an Attack! The Lightning Battle"</t>
-  </si>
-  <si>
-    <t>After Koganei defeats Shiju, Genjuro suggested to change the format of Round 2 as single elimination where the loser gets eliminated and the winner keeps fighting. The next opponent for Uruha Illusion is Maboroshi X who is later revealed to be Mokuren. During the fight, Mokuren used false words of compassion to trick Koganei by gradually transforming into a human tree. The episode ends with Mokuren saying that he will use Koganei as a fertilizer for his human-faced tree.</t>
-  </si>
-  <si>
-    <t>"Mokuren has Returned! The Danger of the Human Tree"</t>
-  </si>
-  <si>
-    <t>The episode begins with Koganei about to be absorbed by Mokuren. The former eventually accepted defeat. Recca was about to fight Mokuren but Kagero asks that if Recca fights Mokuren, what will happen to Koganei? Mokuren will be burned alongside Koganei who was inside the human tree. So Tokiya decided to fight Mokuren. During the fight, Mokuren's branches grow after being cut by Tokiya. Kagero revealed that the source of Mokuren's power comes from the Kodama madogu implanted in Mokuren's face. Near the end of the fight, Tokiya pierces his sword to the ground where Mokuren interpreted it as an act of submission. In reality, he froze the entire ring to freeze Mokuren as well. He eventually finds and rescues Koganei due to the fact of heat conductivity where metals react first in freezing temperatures (which in this case, Koganei's golden cross gave Tokiya the signal of the former's location). Tokiya emerged victorious</t>
-  </si>
-  <si>
-    <t>"The Reason for her Tear! The Girl with the Hairblade!"</t>
-  </si>
-  <si>
-    <t>Mikagami was supposed to fight Menou, a school girl, but forfeited due to the injuries caused by Mokuren. So Recca fights Menou who also wields an implanted Shikigami in Menou's hair. Saicho, who also uses a Shikigami also explains that despite having the same name, they have different abilities. Saicho's madogu (made by Koku) is used to animate paper objects. While that of Menou (made by Kaima) is implanted and uses the user's hair as a deadly weapon. Near the end of the episode, it is revealed that Genjuro was behind the trapping of Menou's father so Recca and Menou teamed up to defeat Genjuro to save Menou's father. Recca manages to do so and Menou accepts defeat. At the end of the match, Recca finally gets to face Genjuro.</t>
-  </si>
-  <si>
-    <t>"The Instantaneous Flame, the Flame of Setsuna/Scorching Glance! Setsuna's Incineration!"</t>
-  </si>
-  <si>
-    <t>Recca faces Genjuro into a fight after defeating Meno Sakura. During the match it is revealed that Genjuro first used the illusion technique that Kurei used. At the end of the fight, Genjuro angered Setsuna, the 4th Dragon who burned him alive.</t>
-  </si>
-  <si>
-    <t>"Dangerous Lips! The Madougu of Speech!/Dangerous Lips! Terror of the Kotodama!"</t>
-  </si>
-  <si>
-    <t>Team Hokage faces the beautiful but deadly Uruha Sound/Oto. In the first match, Domon Ishijima faces illusionist Aki who uses the madogu Kotodama which enables the user to create illusions that only the opponent can see. The illusions include Aki stripping, a giant snake, snowy weather, flower (which is really Aki striking a dueling sword and flames all over Domon. Mikagami tried to stop Domon's match but is prevented by Recca which led the two men having a rift. Luckily, with his mental fortitude, Domon was able to repel the Kotodama's spell and emerged victorious. Mikagami objected Recca's happiness for Domon's win because he almost let Domon die which made the conflict worse. At the end of the fight, Neon called a double bout (i.e. 2 vs. 2 Neon and Miki vs. Recca and Mikagami)</t>
-  </si>
-  <si>
-    <t>"The Seduction of the Beautiful. Dangerous Duet!/Seduction of the Beauties: Double-play of Death"</t>
-  </si>
-  <si>
-    <t>Team Hokage agreed to Neon's suggestion in having a double bout since if Team Hokage loses the next 2 matches, Fuuko Kirisawa will win by default and the match will end in a tie. During the fight, Recca and Mikagami had a rift because of Domon who later intervened during the match and stopped the argument but ended up losing his win against Aki. The duo worked together to win and defeated Miki. Neon then released the sealed energy from her madogu the Fukyo Waon and tried to play the last tune, the Requiem (song for the dead)</t>
-  </si>
-  <si>
-    <t>"The Cursed Flame! Kurenai's Past!!/Cursed Fire! Kurenai's Past"</t>
-  </si>
-  <si>
-    <t>Recca asked Neon why was she protecting Kurei despite being a merciless killer. Neon told a story about Kurei's sad past and why Neon became a Jyuushinju. Recca tried to summon Madoka, the barrier dragon and try to save Neon despite being their enemy.</t>
-  </si>
-  <si>
-    <t>"The Invisible Enemy! A Horrible Battle/Invisible Foe! The Battle Against Fear"</t>
-  </si>
-  <si>
-    <t>Team Hokage automatically advances to the Semi-Finals after learning that their opponent dropped from the quarter finals due to severe injuries in their last bout. Under the suggestion of Tokiya, the team watch the quarter match of their possible opponents, Uruha Ma (Uruha Magic)and Uruha Kurogane (Uruha Iron). During the match, The former's team leader, Magensha kills the Jyushinshuu Jisho by using the Homashin Madogu (Demon Cannon) which leads to Uruha Ma pitting against Team Hokage. In the first match, Koganei faces Tsukishiro, who uses two madogus the Kaigetsu and the Oboro (Hazy Moon). Koganei figured out the Oboro's weakness by following the trail of blood and defeated Tsukishiro, but due to fatal wounds caused during the fight, Koganei lost consciousness and the match ended in a draw.</t>
-  </si>
-  <si>
-    <t>"Two Dragons! The Stolen Move!/Two Fire Dragons! A Stolen Technique!"</t>
-  </si>
-  <si>
-    <t>Recca faces the copycat ninja Kashamaru who wielded the madogu Nisebi (Fake Flame). During the fight, Recca was given a riddle by Rui (One of the Karyu) and was able to solve her riddle and created fog illusions (in the forms of Gashakura, Jisho and Kashamaru) against the Uruha Ma ninja. Recca emerged victorious. Tsukishiro and Kashamaru are then sent to the Majigen dimension. Recca was supposed to fight Gashakura who stated that Kashamaru applied sleeping potions to all his weapons. The episode ends with Fuuko ready to face Gashakura</t>
-  </si>
-  <si>
-    <t>"Skin Covered in Bruises! Fuko's Tough Fight!"</t>
-  </si>
-  <si>
-    <t>Fuuko Kirisawa faces Uruha Ma's second-in-command, Gashakura. During the match, Kouran Mori interfered and set a laser in the ring's corners where Fuuko was hit twice</t>
-  </si>
-  <si>
-    <t>"Answer to a Maiden's Prayer! The True Power of Fujin"</t>
-  </si>
-  <si>
-    <t>The true form of Fuujin is revealed and it is a cute little fox. Later, Fuuko challenges Magensha but ended up getting sucked in the Majigen</t>
-  </si>
-  <si>
-    <t>"The Fire Dragons United! The Enemy Outside the Ring!"</t>
-  </si>
-  <si>
-    <t>An evil presence is stalking Yanagi, and he is another Magensha who is later revealed to be a fake.</t>
-  </si>
-  <si>
-    <t>"Escape from the Oblivious Dimension! The Battle of the Other Place!"</t>
-  </si>
-  <si>
-    <t>Fuuko, Tsukishiro and Kashamaru tried to escape from the Majigen dimension and eventually found the real Magensha and Domon won the match. In the second part of the semi-finals, Raiha, who was supposed to fight Kurei withdrew.</t>
-  </si>
-  <si>
-    <t>"Horror! The Walking Corpse"</t>
-  </si>
-  <si>
-    <t>Domon faces Noroi, a ghost that haunts the Bakuju madogu. Noroi tried to invade Domon's mind and body but thanks to Domon's strong spiritual capacity, he was able to repel the Bakuju's spell and emerged victorious. And at the end of the match, Kurei appeared.</t>
-  </si>
-  <si>
-    <t>"Mikagami Battles. Desperate Ice Sword!"</t>
-  </si>
-  <si>
-    <t>Mikagami battles Kai who is suspected to be the murderer of Mifuyu. Kai was able to defeat Mikagami. But despite this, Kai declared that Mikagami was the rightful heir of the Hyomon Ken (Ice Crest Sword). And before he died, Kai revealed that the murderer of Mifuyu was their sensei and Tokiya's grandfather, Meguri Kyoza (In the manga, two men hired by Kurei were the true killers and Meguri arrive too late and blamed himself for Mifuyu's death. Also, Kai stabbed himself with the Hyoma En in the manga after the match). At the same time, Recca learned that the 8 Flame Dragons were Hokage ancestors and was forced to fight them again to regain their powers.</t>
-  </si>
-  <si>
-    <t>"Trap of the Evil Woman. The God of Wind is Furious!/Trap, the Angry Fuujin"</t>
-  </si>
-  <si>
-    <t>Recca faces the last Karyu in the desert, Setsuna and the old man reveals himself to be the 7th dragon, Koku. Back at the arena, Fuuko fights Mikoto, in order to avenge a little boy's father's death by her (Mikoto). During the fight, the Mikoto Fuuko was fighting was actually a robot. The real Mikoto appeared and later abused the referee who accused her of cheating because her madogu takes human form. Fuuko was eventually poisoned by the Dokumashin, a poisonous nail that contains the poisons from all over the world. Mikoto too was poisoned in order to release the Gendokugan (the antidote). Fuuko took one dose but was eventually defeated since Domon interfered. Back at the desert, Recca fights Koku and told Recca to combine the dragons just as he (Recca) fought Magensha. However, there are rules to be honored to successfully summon composite dragons. NOTE: This is the only episode in the anime where Recca is only a minor character.</t>
-  </si>
-  <si>
-    <t>"Fight Again! Recca &amp; Kurei/Second Reckoning! Recca &amp; Kurei"</t>
-  </si>
-  <si>
-    <t>Koganei's fight with the Joker begins but the Joker gives up so Kurei can fight Recca. With Recca still not back from training the others battle Kurei four on one. Recca appears just in time to save Koganei. Recca and Kurei finally begin their fight. During the fight Recca simultaneously summoned all 7 dragons in order for Resshin, the 8th dragon to appear. But it turned out to be a whammy since he came to bear witness the fight between Recca and Kurei.</t>
-  </si>
-  <si>
-    <t>"The Deadly Battle! When the Candle of Life Burns out."</t>
-  </si>
-  <si>
-    <t>After Kurenai has been extinguished, Kurei unleashed his powerful flame, the Sacred Flame Ho-Oh (Phoenix). Resshin recalled that the Sacred Flames caused Kurei's harsh fate. It is revealed that Resshin was a spirit of Recca and Kurei's real father, Oka. During the end of the fight, Kouran Mori appeared with a puppet Kurei. Recca and Kurei faced the puppet and Resshin finally joins them to destroy the puppet. At the end, Recca emerged victorious.</t>
-  </si>
-  <si>
-    <t>The second part of Tokiya's match with Daikoku continues. In this episode, Recca explained what Tokiya really meant in the previous episode, by stopping the fan by pointing towards the center of the fan to stop rotating. Which Tokiya exactly did to Daikoku's bo which led to the Hokage fighter's victory. The next match is between Minamio (Kuu) and Domon Ishijima (Hokage). Domon began giving attention before the match which the audience find uninteresting such as making poses and carrying a radio as well as intentionally getting hit by Minamio. It is revealed that Minamio's body is made of rubber which is impervious to any attacks. The secret was a Madogu inside his mouth called, Nan which ability is mentioned earlier. Near the end of the bout, Domon used his Kuchibashi-oh which chains bound and defeated Minamio and emerged Domon victoriously. However, Tokiya said that Domon used the Madogu too late which made the latter fall unconscious as well despite saying "I won!" which resulted in a draw. (NOTE:There is a comic relief in this episode. When Kukai requested for paper from Saicho, the referee thought that the Kuu leader was about to make an announcement. However, Kukai used the paper as a tissue to blow his nose. He even asked the referee if she wanted to keep it as a souvenir). The bout between Fujimaru and Fuuko begins. The episode ends with Fujimaru countering Fuuko's darts and starts throwing sickles at Fuuko stripping off her long sleeves.</t>
-  </si>
-  <si>
-    <t>Kukai teaches Recca the true meaning of life and death during a battle. Near the end, Homura appears to Recca which led to Hokage's victory over Kuu as well as Kukai returning to his gentle normal self. NOTE: In the end of the episode, it is revealed that despite in demonic state, Kukai was still aware of his actions. He admitted to his teammates that Recca was too tough for him and he almost killed Hanabishi the last time.</t>
-  </si>
-  <si>
-    <t>1997-07-19</t>
-  </si>
-  <si>
-    <t>1997-08-02</t>
-  </si>
-  <si>
-    <t>1997-08-09</t>
-  </si>
-  <si>
-    <t>1997-08-16</t>
-  </si>
-  <si>
-    <t>1997-08-20</t>
-  </si>
-  <si>
-    <t>1997-09-13</t>
-  </si>
-  <si>
-    <t>1997-09-27</t>
-  </si>
-  <si>
-    <t>1997-10-04</t>
-  </si>
-  <si>
-    <t>1997-10-11</t>
-  </si>
-  <si>
-    <t>1997-10-18</t>
-  </si>
-  <si>
-    <t>1997-10-25</t>
-  </si>
-  <si>
-    <t>1997-11-01</t>
-  </si>
-  <si>
-    <t>1997-11-15</t>
-  </si>
-  <si>
-    <t>1997-11-22</t>
-  </si>
-  <si>
-    <t>1997-11-29</t>
-  </si>
-  <si>
-    <t>1997-12-06</t>
-  </si>
-  <si>
-    <t>1997-12-13</t>
-  </si>
-  <si>
-    <t>1997-12-20</t>
-  </si>
-  <si>
-    <t>1998-01-10</t>
-  </si>
-  <si>
-    <t>1998-01-17</t>
-  </si>
-  <si>
-    <t>1998-01-24</t>
-  </si>
-  <si>
-    <t>1998-01-31</t>
-  </si>
-  <si>
-    <t>1998-02-07</t>
-  </si>
-  <si>
-    <t>1998-02-14</t>
-  </si>
-  <si>
-    <t>1998-02-21</t>
-  </si>
-  <si>
-    <t>1998-02-28</t>
-  </si>
-  <si>
-    <t>1998-03-07</t>
-  </si>
-  <si>
-    <t>1998-03-14</t>
-  </si>
-  <si>
-    <t>1998-03-21</t>
-  </si>
-  <si>
-    <t>1998-03-28</t>
-  </si>
-  <si>
-    <t>1998-04-17</t>
-  </si>
-  <si>
-    <t>1998-04-24</t>
-  </si>
-  <si>
-    <t>1998-05-01</t>
-  </si>
-  <si>
-    <t>1998-05-08</t>
-  </si>
-  <si>
-    <t>1998-05-15</t>
-  </si>
-  <si>
-    <t>1998-05-22</t>
-  </si>
-  <si>
-    <t>1998-05-29</t>
-  </si>
-  <si>
-    <t>1998-06-12</t>
-  </si>
-  <si>
-    <t>1998-06-19</t>
-  </si>
-  <si>
-    <t>1998-07-03</t>
-  </si>
-  <si>
-    <t>1998-07-10</t>
-  </si>
-  <si>
-    <t>A boy named Recca Hanibishi is obsessed with being a ninja. After an accident, a girl named Yanagi Sakoshita heals him, and he declares her to be his princess, and pledges to be her loyal ninja. After an encounter with Kage H?shi, he learns that he has the ability to control fire.</t>
-  </si>
-  <si>
-    <t>F?ko Kirisawa is irritated by the fact that Recca became someone's ninja just because he felt like it, and accepts the F?jin, an object that enables its user to control wind, from Kage H?shi. The F?jin, however, is rigged with a mind control orb that enables Kage H?shi to manipulate F?ko's thoughts. F?ko then arranges to meet Recca on the school grounds after dark to fight with him. Recca is at a disadvantage at first, but is saved by Domon Ishijima after the latter is informed by Yanagi of what was happening. Recca eventually resorts to using his power to control fire to combat F?ko.</t>
-  </si>
-  <si>
-    <t>Recca and Domon manage to defeat F?ko and destroy the mind control orb, and they learn that Kage H?shi cannot be killed. The next day, Tokiya Mikagami confronts Recca and states that he knows of what occurred the night before, but Recca acts oblivious. Shortly after, it is revealed that Tokiya is pursuing Recca because Kage H?shi led him to believe that Recca may have connections to the men who murdered his sister when he was a child. He eventually confronts Recca in the park, and attacks him with Ensui, a sword that manipulates water. As Recca is about to be killed, Yanagi rushes in to try to stop the fight, and Tokiya is shocked upon seeing her because she looks just like his deceased sister.</t>
-  </si>
-  <si>
-    <t>Recca has a flashback to the past, caused by Kurei's revelation. He awakens to find that he, Fuuko, Domon and Ganko have fallen into Mokuren's lab, where plants attack. Meanwhile, Kogenai shows off the versatility of his K?gan Anki weapon in a series of attacks against Tokiya. He disarms Tokiya, yet waits for him to retrieve his blade in an effort to show off all five forms. In the end, Tokiya uses a fake image of himself created with water to catch Kogenai off guard and win the battle. Back in the lab, the group encounters Mokuren, a psycho with the ability to manipulate plants. Recca bludgeons him with stereo equipmeny, and when Mokuren transforms, Recca sets him on fire, winning the battle. The group heads for the elevator, where Kurei is waiting in ambush.</t>
-  </si>
-  <si>
-    <t>Kagero continued on with her story: Kurei, in an attempt to please his mother who has fallen out of grace with the rest of the clan, tried to kill Recca, giving him the prominent scar on his cheek, but was stopped in time and was subsequently imprisoned. Meanwhile, the warlord Oda Nobunaga was preparing to attack the Hokage, with the hopes of stealing the Madogu and use their powers to conquer Japan. The Hokage clan, out of fear that the Madogu will fall into the wrong hands, decided to fight Nobunaga's soldiers without using them, but were overwhelmed by sheer numbers and were all defeated. Kagero, in a last desperate attempt to save her son, used a forbidden spell to open a time portal and send Recca into the future, at the cost of being immortal. However, Kurei, who was able to make his way out of his prison during the destruction of the village, found them and tried to get to Recca, and was sent into the future as well. Mikagami was able to sense the presence of the three interlopers while Kagero was telling her her story and they all proceeded to engage them in combat. It turns out however, that they are not able to use their Madogu well, and they were all able to defeat them quickly. One of them, however took Kagero hostage and was about to kill her (pointlessly, as she is immortal), but Recca was angered by this and unconsciously summoned Nadare, his first flame dragon, to defeat him. After the battle, Recca finally acknowledged Kagero as his mother and tried to check if she was alright, but found out that he is unable to touch her, as the forbidden spell that Kagero used ensured that mother and son cannot make contact.</t>
-  </si>
-  <si>
-    <t>The Team Hokage decided to participate in the Urabutou Satsujin. Upon admission, however, they realized that they have to place a predetermined wager to enter the tournament, which turned out to be Yanagi, whom Koran Mori, the tournament organizer, wants because of her healing powers. Team Hokage was first hesitant, but Yanagi volunteered herself, saying that she trusts them all that they will not lose the tournament and let her fall into Koran Mori's hands. Before the tournament's opening ceremony, Recca decided to go out for some rest and fresh air. Outside, he met Kukai, a laid-back monk who is also participating in the tournament under Team Kuu.</t>
+    <t>"The Genius Basketball Player Is Born?!"</t>
+  </si>
+  <si>
+    <t>Hanamichi Sakuragi is depressed after being rejected by 50 girls during middle school. Once he enters high school, he meets a girl (Haruko Akagi) who introduces him to basketball.</t>
+  </si>
+  <si>
+    <t>"Go to Hell, Basketball! Hanamichi vs. Rukawa"</t>
+  </si>
+  <si>
+    <t>After school, Hanamichi has a run-in with Rukawa Kaede, who Haruko has a crush on. Hanamichi gets into a fight with him out of jealousy, causing Haruko to hate him. Later, Hanamichi gets into a competition with the Shohoku basketball captain after he calls the sport 'childish'.</t>
+  </si>
+  <si>
+    <t>"Gorilla vs. Hanamichi! Big Showdown!!"</t>
+  </si>
+  <si>
+    <t>Hanamichi pulls off an amazing defense and manages to steal the ball from Akagi. He also manages to successfully pull off a slam dunk against Akagi. After the challenge, he finds out that Akagi is actually Haruko's brother.</t>
+  </si>
+  <si>
+    <t>"Basketball Player Hanamichi Joins the Team!"</t>
+  </si>
+  <si>
+    <t>Hanamichi decides to join the basketball club, which Akagi is against. Sakuragi tries to find a way to get on Akagi's good side for Haruko's sake. After Hanamichi shows his determination, Akagi lets him join the team and entrusts his basic training to the manager, Ayako.</t>
+  </si>
+  <si>
+    <t>"A Spiritless Afternoon"</t>
+  </si>
+  <si>
+    <t>Hanamichi is tired of being made to do basic dribbling practice by himself. After Akagi refuses to let him practice with the rest of the team, Hanamichi gets into a fight with him and quits the club. He later regrets his actions and returns to the club.</t>
+  </si>
+  <si>
+    <t>"Rukawa vs. Akagi: The Real Showdown"</t>
+  </si>
+  <si>
+    <t>Kogure remarks that Hanamichi is improving at an astonishing rate. Coach Anzai stops by to announce that they will be having a practice match against Ryonan High School soon. Anzai sets up a match, freshmen vs. seniors, to measure the freshmen's skills, but Akagi doesn't let Hanamichi play. Rukawa pulls off some great moves, but isn't able to score against Akagi.</t>
+  </si>
+  <si>
+    <t>"Hanamichi Debut! Dunk Explosion"</t>
+  </si>
+  <si>
+    <t>After Rukawa is defeated by Akagi, he reveals his true potential and makes a spectacular dunk. Hanamichi is allowed to play for the last two minutes of the game, and he demonstrates his skill at dribbling that he learned from Ayako. He refuses to cooperate with his teammate Rukawa, however and tries to make a slam dunk, but ends but smashing the ball into Akagi's head instead.</t>
+  </si>
+  <si>
+    <t>"Hanamichi's Crisis! The Judo-man's Trap"</t>
+  </si>
+  <si>
+    <t>Aota Tatsuhiko, captain of the Shohoku Judo Club and a childhood friend of Akagi and Haruko, decides that he wants Hanamichi in the Judo Club because of his innate talent. He tries to use pictures of Haruko as bait to lure Hanamichi into the Judo Club.</t>
+  </si>
+  <si>
+    <t>"I'm Going to Play Basketball"</t>
+  </si>
+  <si>
+    <t>Aota continues to try and bribe Hanamichi into joining the Judo Club using Haruko's photos. Hanamichi decides that he will take the pictures, but not join the Judo Club. The two get into a fight, and Hanamichi declares that he will not join the Judo Club as he is a basketball player.</t>
+  </si>
+  <si>
+    <t>"The Commoner's Shoot is Difficult"</t>
+  </si>
+  <si>
+    <t>Akagi decides that it's about time that Hanamichi learns how to shoot. He asks Rukawa to demonstrate a simple layup shot, but Hanamichi isn't interested in learning from Rukawa. Inevitably, they get in a fight, and are banned from practice for the day.</t>
+  </si>
+  <si>
+    <t>"Our Love's Special Secret Training"</t>
+  </si>
+  <si>
+    <t>After practicing the lay up shot with Haruko before school, Hanamichi finally makes it in. After a bit more practice late after school, he figures that he can make the shot roughly one in three times. A player from Ryonan named Hikouichi comes to investigate Shohoku while Hanamichi is attempting a dunk, mistaking him for Rukawa after admiring his jumping ability.</t>
+  </si>
+  <si>
+    <t>"Defeat Ryonan! The Fierce Training the Night Before the Match"</t>
+  </si>
+  <si>
+    <t>The team practices for the upcoming match. Akagi stays after with Hanamichi the day before the match to instruct him on rebounds.</t>
+  </si>
+  <si>
+    <t>"Shohoku vs Ryonan. Burning Captain!"</t>
+  </si>
+  <si>
+    <t>The faceoff between Shohoku and Ryonan begins. Hanamichi is crushed when it is revealed that he won't be in the starting lineup, but soon relaxes when Anzai reassures him that he will become their "secret weapon". Uozomi and Akagi begin their rivalry as captains.</t>
+  </si>
+  <si>
+    <t>"Super Basketball Match With Ryonan"</t>
+  </si>
+  <si>
+    <t>The match starts off with Ryonan leading 19-0. Life returns to Shohoku after Rukawa gets the rebound and faces off with Sendo, passing the ball to Akagi for the dunk. Shohoku manages to catch up, ending the first half with a score of 42 to 50.</t>
+  </si>
+  <si>
+    <t>"Hanamichi Nervously Steps Into the Spotlight"</t>
+  </si>
+  <si>
+    <t>Finally, Sakuragi gets a chance to play when Akagi injures himself while playing. Now, there is only about 9 minutes left on the clock.</t>
+  </si>
+  <si>
+    <t>"Who is This Guy? Taoka's Miscalculation"</t>
+  </si>
+  <si>
+    <t>With just 8 minutes left in the second half, Ryonan is still leading. Taoka tells the Ryonan to continue to attack. Sakuragi plays whole-heartedly and this impresses Sendoh.</t>
+  </si>
+  <si>
+    <t>"The Rebound King Sakuragi Hanamichi's Distress"</t>
+  </si>
+  <si>
+    <t>Ryonan is leading with 3 points ahead of Shohoku, and Taoka says that the game will depend on how Sakuragi plays. Meanwhile, Sakuragi begins to realize how important rebounds are.</t>
+  </si>
+  <si>
+    <t>"Last 2 Minutes! I'll Be the One to Defeat Sendoh"</t>
+  </si>
+  <si>
+    <t>Sendoh is amazed at how good Shohoku has become, thus he begins to take the game seriously. Anzai then calls both Rukawa and Sakuragi to approach, to tell them of his plan.</t>
+  </si>
+  <si>
+    <t>"Time's Up! The Decisive Battle with Ryonan"</t>
+  </si>
+  <si>
+    <t>Although Shohoku has lost the game, Sakuragi played very well for his first game. Sakuragi and Rukawa vow that in their next game with Ryonan, they will beat Sendoh.</t>
+  </si>
+  <si>
+    <t>"Basketball Shoes"</t>
+  </si>
+  <si>
+    <t>The next day, Haruko has to accompany Sakuragi to the sports shop to buy a new pair of shoes because his old shoes are in bad shape after the practice game with Ryonan.</t>
+  </si>
+  <si>
+    <t>"Enormous Trouble Makers! Hanamichi vs Miyagi"</t>
+  </si>
+  <si>
+    <t>Ryota Miyagi returns to basketball after being injured in a fight. Meanwhile, Ayako hears rumors of Miyagi's return, so she decides to investigate. She brings along Sakuragi, but Miyagi, who has a crush on Ayako, thinks that she and Sakuragi are together and immediately becomes jealous. Will Miyagi and Sakuragi be able to coexist?</t>
+  </si>
+  <si>
+    <t>"History's Biggest Idiot Combination is Born"</t>
+  </si>
+  <si>
+    <t>It almost seemed like Miyagi and Sakuragi were about to collide with each other, but it seems that things have turned out much better than expected.</t>
+  </si>
+  <si>
+    <t>"Shohoku Basketball Club's Last Day"</t>
+  </si>
+  <si>
+    <t>A former member of the Shohoku team returns with a major bone to pick. Does this spell doom for the team?</t>
+  </si>
+  <si>
+    <t>"The Battle for Justice! Sakuragi's Goon Squad Joins!"</t>
+  </si>
+  <si>
+    <t>After Ayako is slapped by one of the delinquents, Miyagi joins in the fight, and Rukawa follows suit. However, they are both easily taken down by Tetsuo. Sakuragi steps up, though he is outnumbered. Things change, however, when Sakuragi's friends appear in an unlikely fashion.</t>
+  </si>
+  <si>
+    <t>"The Man Who Aimed at National Championship"</t>
+  </si>
+  <si>
+    <t>Mitsui and Tetsuo were defeated, but Mitsui still continues to fight. When Akagi arrives, the atmosphere becomes tense. Akagi slaps Mitsui around when the latter attacks him. Kogure then informs everyone that Mitsui was once an excellent basketball player, and was even on the team. Kogure then proceeds to tell the story of the rise and downfall of Mitsui's basketball career.</t>
+  </si>
+  <si>
+    <t>"Mitsui, the Problems of the Past"</t>
+  </si>
+  <si>
+    <t>It seems that Mitsui was once a great basketball player himself before high school. However, something happened during one practice session that changed everything.</t>
+  </si>
+  <si>
+    <t>"I Want To Play Basketball!"</t>
+  </si>
+  <si>
+    <t>After suffering through a severe injury, Mitsui quit basketball. Now two years later, in his attempt to sabotage Shohoku's chances of participating in the tournament, his feelings for the sport appear to be returning once again.</t>
+  </si>
+  <si>
+    <t>"The Beginning of Interhigh Preliminaries"</t>
+  </si>
+  <si>
+    <t>The day of the tournament is quickly approaching. Sakuragi is anxious to play against Sendo again, but Shohoku will have to deal with Miuradai first.</t>
+  </si>
+  <si>
+    <t>"Hanamichi! Debut at an Official Game"</t>
+  </si>
+  <si>
+    <t>The match starts, and Anzai refuses to put Sakuragi, Rukawa, Mitsui, and Miyagi in the starting line-up as punishment for fighting. Will Anzai keep it like this for the entire game?</t>
+  </si>
+  <si>
+    <t>"The Introspective Army's Big Counterattack"</t>
+  </si>
+  <si>
+    <t>With four of Shohoku's best players finally entering in the game, the tables turn quickly as they narrow the lead down to only 2. Sakuragi was hacked on a play, giving him two shots at the freethrow line, but things began to get tough for him, as nervousness broke his concentration, and his imagination started running wild.</t>
+  </si>
+  <si>
+    <t>"Formidable Enemy Miuradai's Secret Weapon"</t>
+  </si>
+  <si>
+    <t>Miuradai revealed a secret weapon of theirs that will help them try and overcome Shohoku, that secret weapon being the ox Nato.</t>
+  </si>
+  <si>
+    <t>"Genius Hanamichi! Certain Death Dunk"</t>
+  </si>
+  <si>
+    <t>Miuradai starts to gain control of the game, until Nato begins to block Rukawa instead of Sakuragi. Rukawa exploits his weakness, and this causes the game to go in Shohoku's favor.</t>
+  </si>
+  <si>
+    <t>"Walkout King!? Hanamichi Sakuragi"</t>
+  </si>
+  <si>
+    <t>Shohoku's next match is against Gohoku. While they have been exceeding almost everyone's expectations, Sakuragi continues to be laughed at for his nonsensical and pointless fouls. He starts to realize that he might not be so great after all.</t>
+  </si>
+  <si>
+    <t>"Gorilla's Secret, Kill with Your Eyes!"</t>
+  </si>
+  <si>
+    <t>Sakuragi and his fouling troubles continue. He unconsciously went to Akagi's house for help, and in order to help Sakuragi a little bit, Akagi gives him one piece of advice... instill his opponents with fear using his eyes. Sakuragi takes this too literally, with predictable results.</t>
+  </si>
+  <si>
+    <t>"Hot Blooded Guys"</t>
+  </si>
+  <si>
+    <t>Mitsui got himself caught up in a fight between Ryo and Tetsuo, and was eventually beaten himself. However, Sakuragi pops out of nowhere, and comes to aid his teammate when trying to get to the gym.</t>
+  </si>
+  <si>
+    <t>"A Well Seeded School, Enter Shoyo"</t>
+  </si>
+  <si>
+    <t>Sakuragi is still upset at Akagi for telling him a false technique in defense, and tries harder the next game against Tsukubu. While he gets fouled out, he's improving rather quickly, and he'll need it against a powerhouse team like Shoyo, who's the second ranking team in the tournament.</t>
+  </si>
+  <si>
+    <t>"Hanamichi: First-time As Starter!"</t>
+  </si>
+  <si>
+    <t>Anzai-sensei decides to start Sakuragi, much to everyone's shock. He figures that with his height and drive, he'll be the perfect weapon to use against Shoyo.</t>
+  </si>
+  <si>
+    <t>"Rukawa's Counterattack!"</t>
+  </si>
+  <si>
+    <t>With the Shohoku offense stalled by Shoyo's defense, Rukawa takes it upon himself to lead the offensive charge.</t>
+  </si>
+  <si>
+    <t>"Lightning Flash Ryota!"</t>
+  </si>
+  <si>
+    <t>With Rukawa taking the heat off of the rest of the team, Miyagi gets a chance to show off his skills as a point guard and his speed on the court.</t>
+  </si>
+  <si>
+    <t>"Rebound King Hanamichi Sakuragi!"</t>
+  </si>
+  <si>
+    <t>With Mitsui's 3 point shot, Shohoku finally catches up with Shoyo. It seems like Fujima has had enough, but Hanagata asks him to trust him for a little while longer. Fujima made a good decision in trusting his star center, for Shoyo pulled away from Shohoku again, creating another 10 point deficit.</t>
+  </si>
+  <si>
+    <t>"Shoyo's Ace Fujima Enters the Court"</t>
+  </si>
+  <si>
+    <t>Driven hard by Rukawa's offense and Sakuragi's rebounding, Fujima comes off the bench to lead his team to victory.</t>
+  </si>
+  <si>
+    <t>"Shoyo Ace Fujima's Real Ability"</t>
+  </si>
+  <si>
+    <t>Fujima is leading a strong charge for Shoyo against Shohoku, taking the lead once again. Though Shohoku has other problems besides Fujima; Mitsui is already very tired. Will Kogure be able to take his place?</t>
+  </si>
+  <si>
+    <t>"Has Mitsui Reached His Limit!?"</t>
+  </si>
+  <si>
+    <t>Shohoku's problems continue piling up. Mitsui can't get a 3 pointer to go in, forcing all the burden on Rukawa. Plus, Sakuragi is on the brink of fouling out, one more and he's gone. Is this the end for Shohoku?</t>
+  </si>
+  <si>
+    <t>"Mitsui! Stormy 3 Points"</t>
+  </si>
+  <si>
+    <t>Mitsui, reminiscing upon the past, gets the energy to play and lead his team. In just a matter of time, he scores 9 consecutive points thanks to his impressive shooting, but is it enough to overcome Shoyo?</t>
+  </si>
+  <si>
+    <t>"Imminent Walkout!? Hanamichi's Pinch"</t>
+  </si>
+  <si>
+    <t>While Mitsui has increased his efficiency during the game, Sakuragi still faces the risk of being dismissed. After a few destructive words from Rukawa, Sakuragi is fueled with fire.</t>
+  </si>
+  <si>
+    <t>"Hanamichi, Hot Dunk"</t>
+  </si>
+  <si>
+    <t>Thanks to a basket from Rukawa, Shohoku has finally taken the lead in a critical time. Sakuragi, wanting to feel important, jumps up at the same time as two opposing Shoyo players as he goes for the dunk. It seems like Sakuragi's long desire to perform a slam dunk will be fulfilled.</t>
+  </si>
+  <si>
+    <t>"Challenge From a Rival"</t>
+  </si>
+  <si>
+    <t>Shohoku has defeated Shoyo, and Sakuragi is quick to spread the word, especially after his ferocious slam dunk on Hanagata. It seems like Oda, a person that went to the same junior high as him, is going to be facing Kainan. They're also hoping to pull off an upset victory like Shohoku has.</t>
+  </si>
+  <si>
+    <t>"The Guy Who Pledged to Defeat Kainan"</t>
+  </si>
+  <si>
+    <t>Sakuragi skips practice in order to investigate on why Yohko was acting so strangely. When they get to Takezono, he is immediately met by hordes of girls who misjudge his delinquent looks as someone who came to beat up Oda in order to Sabotage Takezono's chances of beating Kainan.</t>
+  </si>
+  <si>
+    <t>"Takezono, Last Fight"</t>
+  </si>
+  <si>
+    <t>The match between Takezono and Kainan starts. Kainan only put in two starters the entire game, but it seemed like it was enough to take care of their opponents. That wasn't Takezono's only problem; Oda's injury remains ignorant to everyone but Yohko and Sakuragi, and it's clearly affecting his ability to play.</t>
+  </si>
+  <si>
+    <t>"Challenge to the King"</t>
+  </si>
+  <si>
+    <t>"Outside Calculation!? Hanamichi at His Best!"</t>
+  </si>
+  <si>
+    <t>The match between Shohoku and Kainan has been tight and intense all the way through, but it was Sakuragi who stood out the most with his cocky attitude and amazing athleticism. However, Kainan's coach is planning something to get Sakuragi off the court.</t>
+  </si>
+  <si>
+    <t>"Secret Weapon Against Sakuragi!"</t>
+  </si>
+  <si>
+    <t>Takato seemed to have devised the perfect plan to counter-attack against Sakuragi, which is sending in the extremely small and weak Miyamasu. In an unbelievable turn around, the plan worked in which Sakuragi ends up horribly embarrassed, allowing Kainan to widen the gap. Rukawa however, seems to be heating up.</t>
+  </si>
+  <si>
+    <t>"The Gorilla's Injury! Desperate Situation!?"</t>
+  </si>
+  <si>
+    <t>Coach Anzai asks for a time-out and substitutes Sakuragi. Rukawa is heated-up and starts scoring for Shohoku. Akagi assists with rebounds but takes a misstep and injures his foot. As he has to be taken out, Sakuragi goes back into the court with some words from Ansai for him and Rukawa. In the meantime, Ryonan is winning with an overwhelming difference against Takesato.</t>
+  </si>
+  <si>
+    <t>"King Kong's Younger Brother"</t>
+  </si>
+  <si>
+    <t>"The Guy Who Dominates the Game"</t>
+  </si>
+  <si>
+    <t>"Ace Maki, Full Throttle"</t>
+  </si>
+  <si>
+    <t>"Anzai, Bet on Victory!"</t>
+  </si>
+  <si>
+    <t>"Stubborn Guys!"</t>
+  </si>
+  <si>
+    <t>"Last 10 Seconds! A Perfect Conclusion"</t>
+  </si>
+  <si>
+    <t>"Shohoku on the Edge"</t>
+  </si>
+  <si>
+    <t>Sakuragi blames himself deeply for Shohoku's loss against Kainan and becomes depressed. However, after a beating match against Rukawa, who tries to leviate the blame on himself, Sakuragi shaves his red head bald. This episode also introduces Kicchou Fukuda, a player on Ryonan's basketball team that was in disgrace.</t>
+  </si>
+  <si>
+    <t>"Baldy Strikes Back!"</t>
+  </si>
+  <si>
+    <t>"Three-Day Super Training"</t>
+  </si>
+  <si>
+    <t>"Battle of the Aces! Kainan vs Ryonan"</t>
+  </si>
+  <si>
+    <t>"King Kainan Shows its Abilities!"</t>
+  </si>
+  <si>
+    <t>"The Strongest Match! Sendoh vs Maki"</t>
+  </si>
+  <si>
+    <t>"Sendoh's Bet"</t>
+  </si>
+  <si>
+    <t>"The Final Battle! Shohoku vs Ryonan"</t>
+  </si>
+  <si>
+    <t>"Savior!? Hanamichi Sakuragi"</t>
+  </si>
+  <si>
+    <t>"Gorilla Goes Astray"</t>
+  </si>
+  <si>
+    <t>"Gorilla Dunk II"</t>
+  </si>
+  <si>
+    <t>"Gorilla, Shout of Revival!"</t>
+  </si>
+  <si>
+    <t>"The Greatest Shame of One's Life"</t>
+  </si>
+  <si>
+    <t>"Rukawa Kaede, Gambling on the 2nd Half"</t>
+  </si>
+  <si>
+    <t>"The Most Dangerous Challenger!"</t>
+  </si>
+  <si>
+    <t>"Fine Play"</t>
+  </si>
+  <si>
+    <t>"The Feeling of Victory"</t>
+  </si>
+  <si>
+    <t>"You Guys Are Strong!"</t>
+  </si>
+  <si>
+    <t>"Uozumi Jun Revives"</t>
+  </si>
+  <si>
+    <t>"Blue Waves - Ryonan Fights Back!"</t>
+  </si>
+  <si>
+    <t>"Shohoku's Problems"</t>
+  </si>
+  <si>
+    <t>"Sendoh On Fire! Shohoku Loses"</t>
+  </si>
+  <si>
+    <t>"Amateur Sakuragi Hanamichi the Man"</t>
+  </si>
+  <si>
+    <t>"Vice-Captain Kogure's Determination"</t>
+  </si>
+  <si>
+    <t>While shooting a three-pointer that will determine Shohoku's chances of winning, Kogure has a flashback from his early days of playing basketball up to the present, which also counts as a recap of the series from Kogure's point of view.</t>
+  </si>
+  <si>
+    <t>"Win or Lose"</t>
+  </si>
+  <si>
+    <t>It is a race against time between Shohoku and Ryonan to win the basketball match and earn the final qualifying position for the National Championship Games.</t>
+  </si>
+  <si>
+    <t>"New Challenge: The National Championship!"</t>
+  </si>
+  <si>
+    <t>The Shohoku Basketball Team's reputation has grown popular following their winning the final qualifying position for the National Championship Games, with Rukawa's popularity soaring high, much to Sakuragi's ire. However, it seems that Rukawa has some high ambitions of his own.</t>
+  </si>
+  <si>
+    <t>"Rukawa's Ambition"</t>
+  </si>
+  <si>
+    <t>In the aftermath of Ryonan losing the final qualifying position for the National Championship Games, Uozomi and Ikegami retire from the basketball team, passing the team's leadership to Sendoh, whom Yayoi Aida, Hikoichi's older sister and a basketball magazine reporter, wants to do a report on despite her editor's refusal on the grounds that Ryonan had lost.</t>
+  </si>
+  <si>
+    <t>"Japan's Number One High School Player"</t>
+  </si>
+  <si>
+    <t>Sakuragi chances upon Kainan players Maki and Kiyota and accompanies them to watch a basketball match between Sannoh Industry Affiliated High School and Aiwa Academy, which Maki acknowledges will be the new powerful rivals Shohoku will face in the National Championship Games. Meanwhile, Rukawa visits Coach Anzai to ask for his blessing for his wish to study abroad in the United States of America. To his surprise, Coach Anzai refuses, instead telling him to become the top-ranking player in Japan before he even thought of it.</t>
+  </si>
+  <si>
+    <t>"The Basketball Kingdom - America"</t>
+  </si>
+  <si>
+    <t>Coach Anzai's wife tells Rukawa the story of Ryuji Yazawa, a talented basketball player from Anzai's past 10 years ago who became dissatisfied with Anzai's tough training for him alone and left Japan to play in the United States, where he thought he would have better opportunities to show his talent, only to become depressed as a result of the unsupportive American college basketball culture and die in a high-speed head-on car collision five years later, reportedly under the influence of drugs. This revelation forces Rukawa to rethink his views on basketball playing.</t>
+  </si>
+  <si>
+    <t>"Rukawa Kaede's Spirit"</t>
+  </si>
+  <si>
+    <t>With a new viewpoint, Rukawa shows great improvement on his basketball skills, impressing his teammates and fans alike, much to the ire of Sakuragi. Haruko also comes to realize that her crush on Rukawa will never be requited.</t>
+  </si>
+  <si>
+    <t>"Shohoku's Real Ace"</t>
+  </si>
+  <si>
+    <t>Unwilling to accept Rukawa's improvement, Sakuragi challenges his rival to a one-on-one match to see who befits the role of Shohoku's Ace player. Meanwhile, Akagi is visited by the coach and captain of Shintai University's basketball team at his house with the invitation of joining their team upon graduating high school.</t>
+  </si>
+  <si>
+    <t>"The Nationals' Crisis!"</t>
+  </si>
+  <si>
+    <t>The Shohoku Basketball Team faces an unusual crisis when four of its best players - Sakuragi, Rukawa, Miyagi and Mitsui, are at risk of being disqualified from participating in the National Championship Games due to their poor academic grades, prompting Team Captain Akagi to beg the school authorities to give them a retry test and draft them into a study camp at his house.</t>
+  </si>
+  <si>
+    <t>"Guys' Friendship? Sakuragi Gang"</t>
+  </si>
+  <si>
+    <t>Sakuragi's gang take part-time jobs among two rivaling beachside stands to earn the money to pay for the travel expenses to watch the National Championship Games, and learn the hard lesson of hard-earned money when they unwittingly waste their first paycheck and then have to earn it back several times fold when asked by their employers to help defend their stands against a typhoon strike. Sakuragi steals their hard-earned money to pay for his travel expenses to attend Shohoku's friendship match with Jousei High but is dismayed to learn that he is being left behind at Coach Anzai's request, and the gang steal their money back from him.</t>
+  </si>
+  <si>
+    <t>"Going Toward 20000 Shoots"</t>
+  </si>
+  <si>
+    <t>Coach Anzai reveals that Sakuragi's weakness is long-distance shooting, so he puts him through a special training regime of 20,000 practice shots in a week to prepare for the National Championship Games. Haruko and Sakuragi's gang arrive to offer support.</t>
+  </si>
+  <si>
+    <t>"Shizuoka's Fierce Fight! Shohoku vs. Jousei"</t>
+  </si>
+  <si>
+    <t>While Sakuragi's training under Coach Anzai continues, the Shohoku Basketball Team faces off against the Jousei High Basketball Team in their friendship match.</t>
+  </si>
+  <si>
+    <t>"Hanamichi's Hottest Day"</t>
+  </si>
+  <si>
+    <t>Sakuragi's training is completed just as the Shohoku Basketball Team returns from their friendship match against Jousei High, and Haruko decides to reward Sakuragi for his hard practicing by taking him to the summer festival. Sakuragi sees this as an opportunity to try to get with her, but the process became harder than he had expected.</t>
+  </si>
+  <si>
+    <t>"Basketball Shoes Part II"</t>
+  </si>
+  <si>
+    <t>Sakuragi has been working hard for the past months to improve his basketball skills, but as a result, his shoes have torn. He visits none other than the man that gave him his first shoes.</t>
+  </si>
+  <si>
+    <t>"Mixed Feelings, Uozumi Returns"</t>
+  </si>
+  <si>
+    <t>When a couple of Shoyo players decided to give their goodlucks to Shohoku, Sakuragi comes up with a suggestion; a game against Shoyo and Ryonan!</t>
+  </si>
+  <si>
+    <t>"Fierce Battle Begins! Shohoku vs. Shoyo/Ryonan"</t>
+  </si>
+  <si>
+    <t>Rukawa garnered all the attention with his strong start to the game, but it was Sendoh who soon stole that spotlight when he entered the gym in his fishing clothes.</t>
+  </si>
+  <si>
+    <t>"Facing the Strongest Team, Shohoku in Danger!"</t>
+  </si>
+  <si>
+    <t>The combination team has become even more formidable by adding Sendoh and Fukuda to their lineup, and while Sakuragi is still struggling, Shohoku retains the lead.</t>
+  </si>
+  <si>
+    <t>"The Man of Miracles, Hanamichi Sakuragi!"</t>
+  </si>
+  <si>
+    <t>Fujima starts passing more and shooting less 3 pointers, giving hims teammates more open looks and easy opportunities to score. But is it enough to overcome Shohoku?</t>
+  </si>
+  <si>
+    <t>"The Glorious Slam Dunk!"</t>
+  </si>
+  <si>
+    <t>The game between Shoyo-Ryonan and Shohoku continues. At the last few minutes of the practice game, Sakuragi made two jump shots and everyone is amazed. The score is tied, when Fujima and Sendo attempts to do an alley-oop. Everyone is amazed when Sakuragi appeared at the back of Sendo, blocking the supposed alley-oop. Sakuragi then takes control of the ball and when he is about to dunk the ball, he remembered what Haruko taught him about slam dunk when he first met her. Shohoku wins with the score 76-74. The last episode ends showing the team of Shohoku and Kainan about to leave Kanagawa for the Inter High. When Shohoku is about to enter the shinkansen train, they promised to themselves that they're going to win the championship.</t>
+  </si>
+  <si>
+    <t>","title":</t>
+  </si>
+  <si>
+    <t>,"airDate":"</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.</t>
+  </si>
+  <si>
+    <t>1993-10-16</t>
+  </si>
+  <si>
+    <t>1993-10-30</t>
+  </si>
+  <si>
+    <t>1993-11-06</t>
+  </si>
+  <si>
+    <t>1993-11-13</t>
+  </si>
+  <si>
+    <t>1993-11-20</t>
+  </si>
+  <si>
+    <t>1993-12-04</t>
+  </si>
+  <si>
+    <t>1993-12-11</t>
+  </si>
+  <si>
+    <t>1993-12-18</t>
+  </si>
+  <si>
+    <t>1993-12-25</t>
+  </si>
+  <si>
+    <t>1994-01-08</t>
+  </si>
+  <si>
+    <t>1994-01-15</t>
+  </si>
+  <si>
+    <t>1994-01-22</t>
+  </si>
+  <si>
+    <t>1994-01-29</t>
+  </si>
+  <si>
+    <t>1994-02-05</t>
+  </si>
+  <si>
+    <t>1994-02-12</t>
+  </si>
+  <si>
+    <t>1994-02-19</t>
+  </si>
+  <si>
+    <t>1994-02-26</t>
+  </si>
+  <si>
+    <t>1994-03-05</t>
+  </si>
+  <si>
+    <t>1994-03-12</t>
+  </si>
+  <si>
+    <t>1994-03-19</t>
+  </si>
+  <si>
+    <t>1994-03-26</t>
+  </si>
+  <si>
+    <t>1994-04-16</t>
+  </si>
+  <si>
+    <t>1994-04-23</t>
+  </si>
+  <si>
+    <t>1994-04-30</t>
+  </si>
+  <si>
+    <t>1994-05-07</t>
+  </si>
+  <si>
+    <t>1994-05-14</t>
+  </si>
+  <si>
+    <t>1994-05-21</t>
+  </si>
+  <si>
+    <t>1994-05-28</t>
+  </si>
+  <si>
+    <t>1994-06-18</t>
+  </si>
+  <si>
+    <t>1994-06-25</t>
+  </si>
+  <si>
+    <t>1994-07-02</t>
+  </si>
+  <si>
+    <t>1994-07-16</t>
+  </si>
+  <si>
+    <t>1994-08-06</t>
+  </si>
+  <si>
+    <t>1994-08-20</t>
+  </si>
+  <si>
+    <t>1994-08-27</t>
+  </si>
+  <si>
+    <t>1994-09-03</t>
+  </si>
+  <si>
+    <t>1994-09-10</t>
+  </si>
+  <si>
+    <t>1994-09-17</t>
+  </si>
+  <si>
+    <t>1994-09-24</t>
+  </si>
+  <si>
+    <t>1994-10-01</t>
+  </si>
+  <si>
+    <t>1994-10-15</t>
+  </si>
+  <si>
+    <t>1994-10-22</t>
+  </si>
+  <si>
+    <t>1994-11-05</t>
+  </si>
+  <si>
+    <t>1994-11-26</t>
+  </si>
+  <si>
+    <t>1994-12-03</t>
+  </si>
+  <si>
+    <t>1994-12-10</t>
+  </si>
+  <si>
+    <t>1994-12-17</t>
+  </si>
+  <si>
+    <t>1994-12-24</t>
+  </si>
+  <si>
+    <t>1995-01-07</t>
+  </si>
+  <si>
+    <t>1995-01-14</t>
+  </si>
+  <si>
+    <t>1995-01-21</t>
+  </si>
+  <si>
+    <t>1995-01-28</t>
+  </si>
+  <si>
+    <t>1995-02-04</t>
+  </si>
+  <si>
+    <t>1995-02-11</t>
+  </si>
+  <si>
+    <t>1995-02-18</t>
+  </si>
+  <si>
+    <t>1995-02-25</t>
+  </si>
+  <si>
+    <t>1995-03-04</t>
+  </si>
+  <si>
+    <t>1995-03-11</t>
+  </si>
+  <si>
+    <t>1995-03-18</t>
+  </si>
+  <si>
+    <t>1995-03-25</t>
+  </si>
+  <si>
+    <t>1995-04-08</t>
+  </si>
+  <si>
+    <t>1995-04-15</t>
+  </si>
+  <si>
+    <t>1995-04-29</t>
+  </si>
+  <si>
+    <t>1995-05-13</t>
+  </si>
+  <si>
+    <t>1995-05-20</t>
+  </si>
+  <si>
+    <t>1995-05-27</t>
+  </si>
+  <si>
+    <t>1995-06-03</t>
+  </si>
+  <si>
+    <t>1995-06-10</t>
+  </si>
+  <si>
+    <t>1995-06-17</t>
+  </si>
+  <si>
+    <t>1995-07-01</t>
+  </si>
+  <si>
+    <t>1995-07-08</t>
+  </si>
+  <si>
+    <t>1995-07-15</t>
+  </si>
+  <si>
+    <t>1995-07-22</t>
+  </si>
+  <si>
+    <t>1995-08-05</t>
+  </si>
+  <si>
+    <t>1995-08-12</t>
+  </si>
+  <si>
+    <t>1995-08-19</t>
+  </si>
+  <si>
+    <t>1995-08-26</t>
+  </si>
+  <si>
+    <t>1995-09-02</t>
+  </si>
+  <si>
+    <t>1995-09-09</t>
+  </si>
+  <si>
+    <t>1995-10-21</t>
+  </si>
+  <si>
+    <t>1995-10-28</t>
+  </si>
+  <si>
+    <t>1995-11-04</t>
+  </si>
+  <si>
+    <t>1995-11-11</t>
+  </si>
+  <si>
+    <t>1995-11-18</t>
+  </si>
+  <si>
+    <t>1995-11-25</t>
+  </si>
+  <si>
+    <t>1995-12-02</t>
+  </si>
+  <si>
+    <t>1995-12-09</t>
+  </si>
+  <si>
+    <t>1995-12-16</t>
+  </si>
+  <si>
+    <t>1995-12-23</t>
+  </si>
+  <si>
+    <t>1996-01-13</t>
+  </si>
+  <si>
+    <t>1996-01-20</t>
+  </si>
+  <si>
+    <t>1996-01-27</t>
+  </si>
+  <si>
+    <t>1996-02-03</t>
+  </si>
+  <si>
+    <t>1996-02-10</t>
+  </si>
+  <si>
+    <t>1996-02-17</t>
+  </si>
+  <si>
+    <t>1996-02-24</t>
+  </si>
+  <si>
+    <t>1996-03-02</t>
+  </si>
+  <si>
+    <t>1996-03-09</t>
+  </si>
+  <si>
+    <t>1996-03-23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -520,9 +972,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -840,15 +1295,15 @@
   <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:A408"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A85"/>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="255.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="96.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -859,378 +1314,614 @@
     <row r="2" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>148</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="61" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>107</v>
+      </c>
+    </row>
     <row r="88" spans="1:1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>109</v>
+      </c>
+    </row>
     <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>111</v>
+      </c>
+    </row>
     <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>113</v>
+      </c>
+    </row>
     <row r="94" spans="1:1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>115</v>
+      </c>
+    </row>
     <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="99" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="102" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="105" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="108" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="111" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="114" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="117" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="120" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="205" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="206" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="207" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="208" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
@@ -1249,28 +1940,28 @@
     <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="241" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="242" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="243" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="244" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="245" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="246" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="247" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="248" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="249" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="250" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="251" hidden="1" x14ac:dyDescent="0.25"/>
@@ -1279,7 +1970,7 @@
     <row r="254" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="255" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="256" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="257" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="258" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="260" hidden="1" x14ac:dyDescent="0.25"/>
@@ -1297,7 +1988,7 @@
     <row r="272" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="274" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="275" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
@@ -1446,10 +2137,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F981EC3-C999-49F6-BD11-376E3684FD90}">
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="C55" workbookViewId="0">
+      <selection activeCell="P58" sqref="P58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1459,7 +2150,7 @@
     <col min="3" max="3" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="91.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
@@ -1503,22 +2194,22 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
       <c r="E2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
         <v>23</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>143</v>
       </c>
       <c r="I2" t="s">
         <v>18</v>
@@ -1537,14 +2228,14 @@
         <v>20</v>
       </c>
       <c r="N2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O2" t="s">
         <v>21</v>
       </c>
       <c r="P2" t="str">
         <f>_xlfn.CONCAT(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2)</f>
-        <v>{"episode":"01","title":""The Princess and her Ninja! Power Awakens!"","airDate":"1997-07-19","synopsis":"A boy named Recca Hanibishi is obsessed with being a ninja. After an accident, a girl named Yanagi Sakoshita heals him, and he declares her to be his princess, and pledges to be her loyal ninja. After an encounter with Kage H?shi, he learns that he has the ability to control fire.","thumbnail":"01.jpg","season":1,"showId":"14"},</v>
+        <v>{"episode":"01","title":"The Genius Basketball Player Is Born?!","airDate":"1993-10-16","synopsis":"Hanamichi Sakuragi is depressed after being rejected by 50 girls during middle school. Once he enters high school, he meets a girl (Haruko Akagi) who introduces him to basketball.","thumbnail":"01.jpg","season":1,"showId":"15"},</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1555,28 +2246,28 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>144</v>
-      </c>
       <c r="I3" t="s">
         <v>18</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J52" si="0">_xlfn.CONCAT(B3,".jpg")</f>
+        <f t="shared" ref="J3:J66" si="0">_xlfn.CONCAT(B3,".jpg")</f>
         <v>02.jpg</v>
       </c>
       <c r="K3" t="s">
@@ -1589,14 +2280,14 @@
         <v>20</v>
       </c>
       <c r="N3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O3" t="s">
         <v>21</v>
       </c>
       <c r="P3" t="str">
-        <f t="shared" ref="P3:P52" si="1">_xlfn.CONCAT(A3,B3,C3,D3,E3,F3,G3,H3,I3,J3,K3,L3,M3,N3,O3)</f>
-        <v>{"episode":"02","title":""Fire and Wind, the Fatal Temptation!"","airDate":"1997-08-02","synopsis":"F?ko Kirisawa is irritated by the fact that Recca became someone's ninja just because he felt like it, and accepts the F?jin, an object that enables its user to control wind, from Kage H?shi. The F?jin, however, is rigged with a mind control orb that enables Kage H?shi to manipulate F?ko's thoughts. F?ko then arranges to meet Recca on the school grounds after dark to fight with him. Recca is at a disadvantage at first, but is saved by Domon Ishijima after the latter is informed by Yanagi of what was happening. Recca eventually resorts to using his power to control fire to combat F?ko.","thumbnail":"02.jpg","season":1,"showId":"14"},</v>
+        <f>_xlfn.CONCAT(A3,B3,C3,D3,E3,F3,G3,H3,I3,J3,K3,L3,M3,N3,O3)</f>
+        <v>{"episode":"02","title":"Go to Hell, Basketball! Hanamichi vs. Rukawa","airDate":"1993-10-30","synopsis":"After school, Hanamichi has a run-in with Rukawa Kaede, who Haruko has a crush on. Hanamichi gets into a fight with him out of jealousy, causing Haruko to hate him. Later, Hanamichi gets into a competition with the Shohoku basketball captain after he calls the sport 'childish'.","thumbnail":"02.jpg","season":1,"showId":"15"},</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1607,22 +2298,22 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>104</v>
+        <v>200</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
         <v>18</v>
@@ -1641,14 +2332,14 @@
         <v>20</v>
       </c>
       <c r="N4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O4" t="s">
         <v>21</v>
       </c>
       <c r="P4" t="str">
-        <f t="shared" si="1"/>
-        <v>{"episode":"03","title":""The Soldier of Water! The Plane of Revenge!"","airDate":"1997-08-09","synopsis":"Recca and Domon manage to defeat F?ko and destroy the mind control orb, and they learn that Kage H?shi cannot be killed. The next day, Tokiya Mikagami confronts Recca and states that he knows of what occurred the night before, but Recca acts oblivious. Shortly after, it is revealed that Tokiya is pursuing Recca because Kage H?shi led him to believe that Recca may have connections to the men who murdered his sister when he was a child. He eventually confronts Recca in the park, and attacks him with Ensui, a sword that manipulates water. As Recca is about to be killed, Yanagi rushes in to try to stop the fight, and Tokiya is shocked upon seeing her because she looks just like his deceased sister.","thumbnail":"03.jpg","season":1,"showId":"14"},</v>
+        <f>_xlfn.CONCAT(A4,B4,C4,D4,E4,F4,G4,H4,I4,J4,K4,L4,M4,N4,O4)</f>
+        <v>{"episode":"03","title":"Gorilla vs. Hanamichi! Big Showdown!!","airDate":"1993-11-06","synopsis":"Hanamichi pulls off an amazing defense and manages to steal the ball from Akagi. He also manages to successfully pull off a slam dunk against Akagi. After the challenge, he finds out that Akagi is actually Haruko's brother.","thumbnail":"03.jpg","season":1,"showId":"15"},</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1659,22 +2350,22 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>105</v>
+        <v>201</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
         <v>18</v>
@@ -1693,14 +2384,14 @@
         <v>20</v>
       </c>
       <c r="N5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O5" t="s">
         <v>21</v>
       </c>
       <c r="P5" t="str">
-        <f t="shared" si="1"/>
-        <v>{"episode":"04","title":""The Maze of Mirror and the Determined Flame"","airDate":"1997-08-16","synopsis":"As Yanagi appears, Tokiya withdraws from the fight and Yanagi manages to heal Recca using her powers. Feeling down because he let Yanagi save him, Yanagi recommends they go to the amusement park. On the way to buying some drinks, Tokiya appears and takes Yanagi to Mirror House. Recca then confronts Tokiya in order to save Yanagi, after a fierce battle, Tokiya admit defeat. It is also revealed that Kage Houshi is actually Recca's biological mother, and make them fight each other to strengthen their power.","thumbnail":"04.jpg","season":1,"showId":"14"},</v>
+        <f>_xlfn.CONCAT(A5,B5,C5,D5,E5,F5,G5,H5,I5,J5,K5,L5,M5,N5,O5)</f>
+        <v>{"episode":"04","title":"Basketball Player Hanamichi Joins the Team!","airDate":"1993-11-13","synopsis":"Hanamichi decides to join the basketball club, which Akagi is against. Sakuragi tries to find a way to get on Akagi's good side for Haruko's sake. After Hanamichi shows his determination, Akagi lets him join the team and entrusts his basic training to the manager, Ayako.","thumbnail":"04.jpg","season":1,"showId":"15"},</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1711,22 +2402,22 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>106</v>
+        <v>202</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
         <v>18</v>
@@ -1745,14 +2436,14 @@
         <v>20</v>
       </c>
       <c r="N6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O6" t="s">
         <v>21</v>
       </c>
       <c r="P6" t="str">
-        <f t="shared" si="1"/>
-        <v>{"episode":"05","title":""The Mystery of the Hokage Ninja"","airDate":"1997-08-20","synopsis":"Recca meets a teacher that knows a lot about the Hokage Ninjas. Yanagi is kidnapped by people from Kurei's Uruha (his Death Squad), including a greatly skilled but rather innocent swordschild named Koganei.","thumbnail":"05.jpg","season":1,"showId":"14"},</v>
+        <f>_xlfn.CONCAT(A6,B6,C6,D6,E6,F6,G6,H6,I6,J6,K6,L6,M6,N6,O6)</f>
+        <v>{"episode":"05","title":"A Spiritless Afternoon","airDate":"1993-11-20","synopsis":"Hanamichi is tired of being made to do basic dribbling practice by himself. After Akagi refuses to let him practice with the rest of the team, Hanamichi gets into a fight with him and quits the club. He later regrets his actions and returns to the club.","thumbnail":"05.jpg","season":1,"showId":"15"},</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1763,22 +2454,22 @@
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s">
         <v>18</v>
@@ -1797,14 +2488,14 @@
         <v>20</v>
       </c>
       <c r="N7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O7" t="s">
         <v>21</v>
       </c>
       <c r="P7" t="str">
-        <f t="shared" si="1"/>
-        <v>{"episode":"06","title":""The Dangerous Master of Flame, Kurei!"","airDate":"1997-09-13","synopsis":"Yanagi wakes up to find herself in a huge bedroom. She meets Koganei, who has washed her clothes and tells her he did not mean to hurt her, but that he must follow Kurei's orders. It is revealed the Kurei's 'father' has ordered the kidnapping of Yanagi, because she has the innate ability to heal and he thinks this can help him achieve immortality. Kage Houshi appears and encourages Recca to fight for Yanagi's release. Recca, Domon and Fuuko team up to go for this. They head to Kurei's mansion, but are met by a stone statue called Maria that shoots lasers at them, upon entrance.","thumbnail":"06.jpg","season":1,"showId":"14"},</v>
+        <f>_xlfn.CONCAT(A7,B7,C7,D7,E7,F7,G7,H7,I7,J7,K7,L7,M7,N7,O7)</f>
+        <v>{"episode":"06","title":"Rukawa vs. Akagi: The Real Showdown","airDate":"1993-12-04","synopsis":"Kogure remarks that Hanamichi is improving at an astonishing rate. Coach Anzai stops by to announce that they will be having a practice match against Ryonan High School soon. Anzai sets up a match, freshmen vs. seniors, to measure the freshmen's skills, but Akagi doesn't let Hanamichi play. Rukawa pulls off some great moves, but isn't able to score against Akagi.","thumbnail":"06.jpg","season":1,"showId":"15"},</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1815,22 +2506,22 @@
         <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>108</v>
+        <v>204</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s">
         <v>18</v>
@@ -1849,14 +2540,14 @@
         <v>20</v>
       </c>
       <c r="N8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O8" t="s">
         <v>21</v>
       </c>
       <c r="P8" t="str">
-        <f t="shared" si="1"/>
-        <v>{"episode":"07","title":""A Deadly Struggle, the Guardian of Stone"","airDate":"1997-09-27","synopsis":"Recca, Domon and Fuuko realize that Maria is too fast for them but, taking advantage of the time she needs to occasionally recharge her laser, they defeat her. As they travel to the next room, the group encounters a room full of mannequins playing instruments and holding festivities. There they meet Katashira Reira (doll controller) and her doll Primera, and a battle breaks off between them and Fuuko.","thumbnail":"07.jpg","season":1,"showId":"14"},</v>
+        <f>_xlfn.CONCAT(A8,B8,C8,D8,E8,F8,G8,H8,I8,J8,K8,L8,M8,N8,O8)</f>
+        <v>{"episode":"07","title":"Hanamichi Debut! Dunk Explosion","airDate":"1993-12-11","synopsis":"After Rukawa is defeated by Akagi, he reveals his true potential and makes a spectacular dunk. Hanamichi is allowed to play for the last two minutes of the game, and he demonstrates his skill at dribbling that he learned from Ayako. He refuses to cooperate with his teammate Rukawa, however and tries to make a slam dunk, but ends but smashing the ball into Akagi's head instead.","thumbnail":"07.jpg","season":1,"showId":"15"},</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1867,22 +2558,22 @@
         <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>108</v>
+        <v>205</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I9" t="s">
         <v>18</v>
@@ -1901,66 +2592,66 @@
         <v>20</v>
       </c>
       <c r="N9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O9" t="s">
         <v>21</v>
       </c>
       <c r="P9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"episode":"08","title":""Room of the Doll! Fuko's Fatal Combat!"","airDate":"1997-09-27","synopsis":"Katashira Reira gains control of Fuuko's body and begins to attack the other two. During this, Reira uses the moment to gain control of the boys. Stuck in her control, Reira tortures Fuuko with Primera until she begins to laugh. Fuuko learns the secret of the doll controller and stops her, ultimately defeating the duo. Kage Hoshi is then seen trying to convince Tokiya to assist Recca and company. Meanwhile, Kurei gives order to let loose a dangerous character that is locked up in a cage on the second floor.","thumbnail":"08.jpg","season":1,"showId":"14"},</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s">
+        <f>_xlfn.CONCAT(A9,B9,C9,D9,E9,F9,G9,H9,I9,J9,K9,L9,M9,N9,O9)</f>
+        <v>{"episode":"08","title":"Hanamichi's Crisis! The Judo-man's Trap","airDate":"1993-12-18","synopsis":"Aota Tatsuhiko, captain of the Shohoku Judo Club and a childhood friend of Akagi and Haruko, decides that he wants Hanamichi in the Judo Club because of his innate talent. He tries to use pictures of Haruko as bait to lure Hanamichi into the Judo Club.","thumbnail":"08.jpg","season":1,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" t="str">
+      <c r="E10" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>09.jpg</v>
       </c>
-      <c r="K10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10">
+      <c r="K10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="2">
         <v>1</v>
       </c>
-      <c r="M10" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10">
-        <v>14</v>
-      </c>
-      <c r="O10" t="s">
-        <v>21</v>
-      </c>
-      <c r="P10" t="str">
-        <f t="shared" si="1"/>
-        <v>{"episode":"09","title":""Devil Domon! Overwhelming Power!"","airDate":"1997-10-04","synopsis":"The group goes up to the second floor with new friend Ganko to meet Seiko. Seiko who was locked up because he was too dangerous is now stopping our team from getting to the fourth floor where Yanagi is. Domon steps up to the challenge, and declares he'll face Seiko alone. Seiko is at first taken down, but after the use of his elemental weapon, creates a rock armor and pulverizes the group. It is then viewers learn that Domon is given Saturn's Ring from Kage Hoshi, and with its aid manages to defeat Seiko. As the episode closes, Tokiya makes his appearance at the mansion.","thumbnail":"09.jpg","season":1,"showId":"14"},</v>
+      <c r="M10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="2">
+        <v>15</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="2" t="str">
+        <f>_xlfn.CONCAT(A10,B10,C10,D10,E10,F10,G10,H10,I10,J10,K10,L10,M10,N10,O10)</f>
+        <v>{"episode":"09","title":"I'm Going to Play Basketball","airDate":"1993-12-25","synopsis":"Aota continues to try and bribe Hanamichi into joining the Judo Club using Haruko's photos. Hanamichi decides that he will take the pictures, but not join the Judo Club. The two get into a fight, and Hanamichi declares that he will not join the Judo Club as he is a basketball player.","thumbnail":"09.jpg","season":1,"showId":"15"},</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1971,22 +2662,22 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>110</v>
+        <v>207</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s">
         <v>18</v>
@@ -1999,20 +2690,20 @@
         <v>19</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11" t="s">
         <v>20</v>
       </c>
       <c r="N11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O11" t="s">
         <v>21</v>
       </c>
       <c r="P11" t="str">
-        <f t="shared" si="1"/>
-        <v>{"episode":"10","title":""The War of Flames! The Fight Between Hokage Descendants"","airDate":"1997-10-11","synopsis":"Fuuko, Recca, and Domon are holding up a wall when Tokiya appears and taunts them. He destroys the wall and then begins to battle with Koganei who was waiting from the group on the third floor. Tokiya engages Koganei, and allows the rest of the group to run on to the fourth floor where they meet Kurei. After getting their attention, Kurei tells Recca about their past 400 years ago and how both were sent to the present time when they were infants.","thumbnail":"10.jpg","season":1,"showId":"14"},</v>
+        <f>_xlfn.CONCAT(A11,B11,C11,D11,E11,F11,G11,H11,I11,J11,K11,L11,M11,N11,O11)</f>
+        <v>{"episode":"10","title":"The Commoner's Shoot is Difficult","airDate":"1994-01-08","synopsis":"Akagi decides that it's about time that Hanamichi learns how to shoot. He asks Rukawa to demonstrate a simple layup shot, but Hanamichi isn't interested in learning from Rukawa. Inevitably, they get in a fight, and are banned from practice for the day.","thumbnail":"10.jpg","season":2,"showId":"15"},</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -2023,22 +2714,22 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>146</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
         <v>18</v>
@@ -2051,20 +2742,20 @@
         <v>19</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M12" t="s">
         <v>20</v>
       </c>
       <c r="N12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O12" t="s">
         <v>21</v>
       </c>
       <c r="P12" t="str">
-        <f t="shared" si="1"/>
-        <v>{"episode":"11","title":""Adamantium Blade's Five Different Forms!"","airDate":"1997-10-18","synopsis":"Recca has a flashback to the past, caused by Kurei's revelation. He awakens to find that he, Fuuko, Domon and Ganko have fallen into Mokuren's lab, where plants attack. Meanwhile, Kogenai shows off the versatility of his K?gan Anki weapon in a series of attacks against Tokiya. He disarms Tokiya, yet waits for him to retrieve his blade in an effort to show off all five forms. In the end, Tokiya uses a fake image of himself created with water to catch Kogenai off guard and win the battle. Back in the lab, the group encounters Mokuren, a psycho with the ability to manipulate plants. Recca bludgeons him with stereo equipmeny, and when Mokuren transforms, Recca sets him on fire, winning the battle. The group heads for the elevator, where Kurei is waiting in ambush.","thumbnail":"11.jpg","season":1,"showId":"14"},</v>
+        <f>_xlfn.CONCAT(A12,B12,C12,D12,E12,F12,G12,H12,I12,J12,K12,L12,M12,N12,O12)</f>
+        <v>{"episode":"11","title":"Our Love's Special Secret Training","airDate":"1994-01-15","synopsis":"After practicing the lay up shot with Haruko before school, Hanamichi finally makes it in. After a bit more practice late after school, he figures that he can make the shot roughly one in three times. A player from Ryonan named Hikouichi comes to investigate Shohoku while Hanamichi is attempting a dunk, mistaking him for Rukawa after admiring his jumping ability.","thumbnail":"11.jpg","season":2,"showId":"15"},</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -2075,22 +2766,22 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>112</v>
+        <v>209</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I13" t="s">
         <v>18</v>
@@ -2103,20 +2794,20 @@
         <v>19</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13" t="s">
         <v>20</v>
       </c>
       <c r="N13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O13" t="s">
         <v>21</v>
       </c>
       <c r="P13" t="str">
-        <f t="shared" si="1"/>
-        <v>{"episode":"12","title":""Kurenai, the Flame of the Angel of Death"","airDate":"1997-10-25","synopsis":"Expecting the ambush from Kurei, Recca counters him with his own flames but still gets blasted back. Kurei is surprised that his flames were evenly countered by Recca. As Recca demands Kurei to return Yanagi to them, Kurei notices the scar on Reccas' face and reminisces that he was the one who gave Recca that scar when he was a kid and that they both are not people from the current time period. When Recca is not the least concerned about this, Kurei blames Recca for his bad luck since he was going to die by his hands now. Kurei materializes a raging fire being called Kurenai and commands it to attack Recca and his friends. After everyone scatters in order to avoid getting hit by the flames, Kureis' eyes fall on Ganko. As punishment for Gankos' betrayal, Kurei directs Kurenai to kill Ganko. In the nick of time, Recca shields Ganko from the attack. Angered by Kureis' assault on Ganko, Recca unleashes an even powerful flame to stop Kurenai. Motivated by Recca, Fuko and Domon attack Kurenai with their weapons joined by Tokiya as well. Recca and the others decide to attack Kurei since he is the source of Kurenais' power but end up miscalculating his strength. They are all dealt with one by one by Kurei leaving Recca to be dealt by Kurenai. After all of them are defeated and at their wits end, Kagehoshi appears in front of them. She advises Recca to retreat but he doesn't agree. Kageroshi tells Recca to remove his gauntlet which is actually used to seal Reccas' full power to save him from harm. Recca is engulfed in his own flames and in immense pain as soon as he removes his gauntlet.","thumbnail":"12.jpg","season":1,"showId":"14"},</v>
+        <f>_xlfn.CONCAT(A13,B13,C13,D13,E13,F13,G13,H13,I13,J13,K13,L13,M13,N13,O13)</f>
+        <v>{"episode":"12","title":"Defeat Ryonan! The Fierce Training the Night Before the Match","airDate":"1994-01-22","synopsis":"The team practices for the upcoming match. Akagi stays after with Hanamichi the day before the match to instruct him on rebounds.","thumbnail":"12.jpg","season":2,"showId":"15"},</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -2127,22 +2818,22 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>113</v>
+        <v>210</v>
       </c>
       <c r="G14" t="s">
         <v>17</v>
       </c>
       <c r="H14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
         <v>18</v>
@@ -2155,20 +2846,20 @@
         <v>19</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14" t="s">
         <v>20</v>
       </c>
       <c r="N14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O14" t="s">
         <v>21</v>
       </c>
       <c r="P14" t="str">
-        <f t="shared" si="1"/>
-        <v>{"episode":"13","title":""The Ultimate Flame! Legend of the Fire Dragons"","airDate":"1997-11-01","synopsis":"After removing the gauntlet, an eight headed dragon appears from Reccas' flames. Everyone is astonished as Kagehoshi deems that it is the most powerful form of flame in history. Each head has its own savage consciousness and named Saiha, Nadare, Madoka, Rui, Homura, Koku, Setsuna and Resshin. Recca struggles immensely to gain control over the enormous power of his flames. One of the flame dragon heads, Resshin, is about to attack unconscious Yanagi when Recca fiercely commands it to stop or he would kill them all. Hearing this, Resshin warns Recca to watch his words but Recca is adamant to make them obey him. The angered dragons attack Recca and seeing him face them bravely without fleeing, Resshin offers to help Recca this one time in exchange for a price. Recca says that he is unable to forgive Kurei who kills women or children on a mere whim and asks Resshins' help to defeat Kurei in exchange for one of his arm. Resshin accepts and attacks Kurenai and Kurei. Even after being hit by Resshins' flame, Kurei manages to stand up. Looking unaffected Kurei attacks Recca intent on killing him and muses that once he dies the dragons may be plotting to use Kurei as their next host. At the same time, 4 people arrive in front of Kurei saying that they sensed disturbance in the mansion. Kurei introduces them as the assassin squad under his command, 'Uruha', with members Raiha, Neon, Jisho and Genjuro. Kurei further says that he will let go of Recca and the others along with Yanagi as a reward for entertaining him and will kill him for sure the next time they meet. As everyone is relieved and prepare to leave, they find Ganko beside Reccas' teacher who was also kidnapped. Ganko reveals that Koganei saved the teacher. Outside the mansion, Koganei meets up with Kurei and Uruha members only to let them know that he will not follow Kurei anymore since he betrayed his trust and hurt Yanagi. Kurei lets him off warning him that he will be given a brutal death the next time they meet.","thumbnail":"13.jpg","season":1,"showId":"14"},</v>
+        <f>_xlfn.CONCAT(A14,B14,C14,D14,E14,F14,G14,H14,I14,J14,K14,L14,M14,N14,O14)</f>
+        <v>{"episode":"13","title":"Shohoku vs Ryonan. Burning Captain!","airDate":"1994-01-29","synopsis":"The faceoff between Shohoku and Ryonan begins. Hanamichi is crushed when it is revealed that he won't be in the starting lineup, but soon relaxes when Anzai reassures him that he will become their "secret weapon". Uozomi and Akagi begin their rivalry as captains.","thumbnail":"13.jpg","season":2,"showId":"15"},</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -2179,22 +2870,22 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>114</v>
+        <v>211</v>
       </c>
       <c r="G15" t="s">
         <v>17</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I15" t="s">
         <v>18</v>
@@ -2207,20 +2898,20 @@
         <v>19</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15" t="s">
         <v>20</v>
       </c>
       <c r="N15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O15" t="s">
         <v>21</v>
       </c>
       <c r="P15" t="str">
-        <f t="shared" si="1"/>
-        <v>{"episode":"14","title":""The Past is Brought Forward! The Truth of 400 Years Ago!"","airDate":"1997-11-15","synopsis":"After rescuing Yanagi and destroying Kurei's mansion, Kage Hoshi invited Recca and his friends into her secret hideout carved in the face of a cliff. Kage Hoshi reveals to them that her real name is Kagero, and that she is Recca's true mother. While Recca refuses to believe, she tells all of them the truth of 400 years ago: Oka, the Hokage clan's leader and a flame master, had two sons: Recca with his wife Kagero, and Kurei with his mistress Reina, making Kurei and Recca half-brothers. Kurei, who exhibited flame powers as a child, was slated to inherit the clan leadership, but it was soon discovered that Recca also possessed the same powers. According to prophecy, only one member of the Hokage clan can use the powers of flame in each generation, and when there are two of them at the same time, one of them is bearing a cursed flame which can lead to the end of the clan's existence. The clan elders determined that Kurei was the one with the cursed flame, and sentenced him to death, but was spared upon Kagero's request. Meanwhile, while Kagero was telling them all of this, three members of the Uruha under Kurei's orders was spying on them, having discovered the hidden passageway towards the hideout, and was planning to attack them all unaware.","thumbnail":"14.jpg","season":1,"showId":"14"},</v>
+        <f>_xlfn.CONCAT(A15,B15,C15,D15,E15,F15,G15,H15,I15,J15,K15,L15,M15,N15,O15)</f>
+        <v>{"episode":"14","title":"Super Basketball Match With Ryonan","airDate":"1994-02-05","synopsis":"The match starts off with Ryonan leading 19-0. Life returns to Shohoku after Rukawa gets the rebound and faces off with Sendo, passing the ball to Akagi for the dunk. Shohoku manages to catch up, ending the first half with a score of 42 to 50.","thumbnail":"14.jpg","season":2,"showId":"15"},</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -2231,22 +2922,22 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>115</v>
+        <v>212</v>
       </c>
       <c r="G16" t="s">
         <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="I16" t="s">
         <v>18</v>
@@ -2259,20 +2950,20 @@
         <v>19</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16" t="s">
         <v>20</v>
       </c>
       <c r="N16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O16" t="s">
         <v>21</v>
       </c>
       <c r="P16" t="str">
-        <f t="shared" si="1"/>
-        <v>{"episode":"15","title":""The Curse that Separates Mother and Son"","airDate":"1997-11-22","synopsis":"Kagero continued on with her story: Kurei, in an attempt to please his mother who has fallen out of grace with the rest of the clan, tried to kill Recca, giving him the prominent scar on his cheek, but was stopped in time and was subsequently imprisoned. Meanwhile, the warlord Oda Nobunaga was preparing to attack the Hokage, with the hopes of stealing the Madogu and use their powers to conquer Japan. The Hokage clan, out of fear that the Madogu will fall into the wrong hands, decided to fight Nobunaga's soldiers without using them, but were overwhelmed by sheer numbers and were all defeated. Kagero, in a last desperate attempt to save her son, used a forbidden spell to open a time portal and send Recca into the future, at the cost of being immortal. However, Kurei, who was able to make his way out of his prison during the destruction of the village, found them and tried to get to Recca, and was sent into the future as well. Mikagami was able to sense the presence of the three interlopers while Kagero was telling her her story and they all proceeded to engage them in combat. It turns out however, that they are not able to use their Madogu well, and they were all able to defeat them quickly. One of them, however took Kagero hostage and was about to kill her (pointlessly, as she is immortal), but Recca was angered by this and unconsciously summoned Nadare, his first flame dragon, to defeat him. After the battle, Recca finally acknowledged Kagero as his mother and tried to check if she was alright, but found out that he is unable to touch her, as the forbidden spell that Kagero used ensured that mother and son cannot make contact.","thumbnail":"15.jpg","season":1,"showId":"14"},</v>
+        <f>_xlfn.CONCAT(A16,B16,C16,D16,E16,F16,G16,H16,I16,J16,K16,L16,M16,N16,O16)</f>
+        <v>{"episode":"15","title":"Hanamichi Nervously Steps Into the Spotlight","airDate":"1994-02-12","synopsis":"Finally, Sakuragi gets a chance to play when Akagi injures himself while playing. Now, there is only about 9 minutes left on the clock.","thumbnail":"15.jpg","season":2,"showId":"15"},</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -2283,22 +2974,22 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>116</v>
+        <v>213</v>
       </c>
       <c r="G17" t="s">
         <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I17" t="s">
         <v>18</v>
@@ -2311,20 +3002,20 @@
         <v>19</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" t="s">
         <v>20</v>
       </c>
       <c r="N17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O17" t="s">
         <v>21</v>
       </c>
       <c r="P17" t="str">
-        <f t="shared" si="1"/>
-        <v>{"episode":"16","title":""Determination to Fight! Recca's Challenge!"","airDate":"1997-11-29","synopsis":"Recca, Domon, Fuko and Tokiya all decided to train during their summer break in case Kurei confronts them again later on. Before leaving, however, they decided to meet at Recca's house, where Recca introduced Kagero to his adoptive father and thanked him for looking after him for all those years. Yanagi, who was worried about Recca's safety, decided to accompany him in his training, much to his chagrin. Meanwhile, Fuko and Domon decided to train using the Madogu they acquired from the battle at Kagero's hideout. After a month, Recca was able to tame two of the flame dragons, while Mikagami, Fuko and Domon got more proficient in using their Madogu. Their reunion was interrupted however, by Genjuro and Jisho, who sent them an invitation from Kurei to join the Urabutou Satsujin, the most dangerous martial arts tournament in history.","thumbnail":"16.jpg","season":1,"showId":"14"},</v>
+        <f>_xlfn.CONCAT(A17,B17,C17,D17,E17,F17,G17,H17,I17,J17,K17,L17,M17,N17,O17)</f>
+        <v>{"episode":"16","title":"Who is This Guy? Taoka's Miscalculation","airDate":"1994-02-19","synopsis":"With just 8 minutes left in the second half, Ryonan is still leading. Taoka tells the Ryonan to continue to attack. Sakuragi plays whole-heartedly and this impresses Sendoh.","thumbnail":"16.jpg","season":2,"showId":"15"},</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -2335,22 +3026,22 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>117</v>
+        <v>214</v>
       </c>
       <c r="G18" t="s">
         <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c r="I18" t="s">
         <v>18</v>
@@ -2363,20 +3054,20 @@
         <v>19</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18" t="s">
         <v>20</v>
       </c>
       <c r="N18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O18" t="s">
         <v>21</v>
       </c>
       <c r="P18" t="str">
-        <f t="shared" si="1"/>
-        <v>{"episode":"17","title":""Hokage's Arrival! The Urubatousatsujin"","airDate":"1997-12-06","synopsis":"The Team Hokage decided to participate in the Urabutou Satsujin. Upon admission, however, they realized that they have to place a predetermined wager to enter the tournament, which turned out to be Yanagi, whom Koran Mori, the tournament organizer, wants because of her healing powers. Team Hokage was first hesitant, but Yanagi volunteered herself, saying that she trusts them all that they will not lose the tournament and let her fall into Koran Mori's hands. Before the tournament's opening ceremony, Recca decided to go out for some rest and fresh air. Outside, he met Kukai, a laid-back monk who is also participating in the tournament under Team Kuu.","thumbnail":"17.jpg","season":1,"showId":"14"},</v>
+        <f>_xlfn.CONCAT(A18,B18,C18,D18,E18,F18,G18,H18,I18,J18,K18,L18,M18,N18,O18)</f>
+        <v>{"episode":"17","title":"The Rebound King Sakuragi Hanamichi's Distress","airDate":"1994-02-26","synopsis":"Ryonan is leading with 3 points ahead of Shohoku, and Taoka says that the game will depend on how Sakuragi plays. Meanwhile, Sakuragi begins to realize how important rebounds are.","thumbnail":"17.jpg","season":2,"showId":"15"},</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -2387,22 +3078,22 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="G19" t="s">
         <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I19" t="s">
         <v>18</v>
@@ -2415,20 +3106,20 @@
         <v>19</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M19" t="s">
         <v>20</v>
       </c>
       <c r="N19">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O19" t="s">
         <v>21</v>
       </c>
       <c r="P19" t="str">
-        <f t="shared" si="1"/>
-        <v>{"episode":"18","title":""The Opening Battle! Mikagami's Sword"","airDate":"1997-12-13","synopsis":"The fight between Hokage and Kuu begins with the match between Daikoku and Mikagami. But before the match, Tokiya walked away from the ring to refuel his Ensui in a nearby fountain. He recalled what his master/grandfather, Meguri Kyoza taught him on how to use the Ice Crest Sword for revenge by saying the words, "The path of Revenge is hard road in life. This sword requires blood of its opponents and soon, you’ll be covered in blood." When the match began, Tokiya began dodging Daikoku's staff attacks. The former also asked a logical question on how to stop a fan without turning off the switch and touching the blade. Near the end, Daikoku uses his bo's 1000-attack technique.","thumbnail":"18.jpg","season":1,"showId":"14"},</v>
+        <f>_xlfn.CONCAT(A19,B19,C19,D19,E19,F19,G19,H19,I19,J19,K19,L19,M19,N19,O19)</f>
+        <v>{"episode":"18","title":"Last 2 Minutes! I'll Be the One to Defeat Sendoh","airDate":"1994-03-05","synopsis":"Sendoh is amazed at how good Shohoku has become, thus he begins to take the game seriously. Anzai then calls both Rukawa and Sakuragi to approach, to tell them of his plan.","thumbnail":"18.jpg","season":2,"showId":"15"},</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -2439,22 +3130,22 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>119</v>
+        <v>216</v>
       </c>
       <c r="G20" t="s">
         <v>17</v>
       </c>
       <c r="H20" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="I20" t="s">
         <v>18</v>
@@ -2467,20 +3158,20 @@
         <v>19</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M20" t="s">
         <v>20</v>
       </c>
       <c r="N20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O20" t="s">
         <v>21</v>
       </c>
       <c r="P20" t="str">
-        <f t="shared" si="1"/>
-        <v>{"episode":"19","title":""Unexploded Iron Fist! Domon's Last Resort"","airDate":"1997-12-20","synopsis":"The second part of Tokiya's match with Daikoku continues. In this episode, Recca explained what Tokiya really meant in the previous episode, by stopping the fan by pointing towards the center of the fan to stop rotating. Which Tokiya exactly did to Daikoku's bo which led to the Hokage fighter's victory. The next match is between Minamio (Kuu) and Domon Ishijima (Hokage). Domon began giving attention before the match which the audience find uninteresting such as making poses and carrying a radio as well as intentionally getting hit by Minamio. It is revealed that Minamio's body is made of rubber which is impervious to any attacks. The secret was a Madogu inside his mouth called, Nan which ability is mentioned earlier. Near the end of the bout, Domon used his Kuchibashi-oh which chains bound and defeated Minamio and emerged Domon victoriously. However, Tokiya said that Domon used the Madogu too late which made the latter fall unconscious as well despite saying "I won!" which resulted in a draw. (NOTE:There is a comic relief in this episode. When Kukai requested for paper from Saicho, the referee thought that the Kuu leader was about to make an announcement. However, Kukai used the paper as a tissue to blow his nose. He even asked the referee if she wanted to keep it as a souvenir). The bout between Fujimaru and Fuuko begins. The episode ends with Fujimaru countering Fuuko's darts and starts throwing sickles at Fuuko stripping off her long sleeves.","thumbnail":"19.jpg","season":1,"showId":"14"},</v>
+        <f>_xlfn.CONCAT(A20,B20,C20,D20,E20,F20,G20,H20,I20,J20,K20,L20,M20,N20,O20)</f>
+        <v>{"episode":"19","title":"Time's Up! The Decisive Battle with Ryonan","airDate":"1994-03-12","synopsis":"Although Shohoku has lost the game, Sakuragi played very well for his first game. Sakuragi and Rukawa vow that in their next game with Ryonan, they will beat Sendoh.","thumbnail":"19.jpg","season":2,"showId":"15"},</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -2491,22 +3182,22 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>120</v>
+        <v>217</v>
       </c>
       <c r="G21" t="s">
         <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I21" t="s">
         <v>18</v>
@@ -2525,14 +3216,14 @@
         <v>20</v>
       </c>
       <c r="N21">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O21" t="s">
         <v>21</v>
       </c>
       <c r="P21" t="str">
-        <f t="shared" si="1"/>
-        <v>{"episode":"20","title":""Secret of the Maiden's Skin"","airDate":"1998-01-10","synopsis":"Fujimaru stripped Fuuko Kirisawa during the match and called her ugly. At the end of the match, Fuuko warned the audience if there is someone like Fujimaru, she would make their lives as a living hell. Later, Saicho apologized for Fujimaru's perverse behavior and gave a paper bandage to Fuuko's arm and give his jacket to her.","thumbnail":"20.jpg","season":2,"showId":"14"},</v>
+        <f>_xlfn.CONCAT(A21,B21,C21,D21,E21,F21,G21,H21,I21,J21,K21,L21,M21,N21,O21)</f>
+        <v>{"episode":"20","title":"Basketball Shoes","airDate":"1994-03-19","synopsis":"The next day, Haruko has to accompany Sakuragi to the sports shop to buy a new pair of shoes because his old shoes are in bad shape after the practice game with Ryonan.","thumbnail":"20.jpg","season":2,"showId":"15"},</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -2543,22 +3234,22 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>121</v>
+        <v>218</v>
       </c>
       <c r="G22" t="s">
         <v>17</v>
       </c>
       <c r="H22" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I22" t="s">
         <v>18</v>
@@ -2577,14 +3268,14 @@
         <v>20</v>
       </c>
       <c r="N22">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O22" t="s">
         <v>21</v>
       </c>
       <c r="P22" t="str">
-        <f t="shared" si="1"/>
-        <v>{"episode":"21","title":""Paper Dance! Breathing in Life!"","airDate":"1998-01-17","synopsis":"The match between Saicho and Recca begins. The former tells Hanabishi that he can only fight for 10 minutes since he had a heart condition (which revealed to be an injury caused by stabbing by one of the rebellious Kuu students). Throughout the fight, it is revealed that Saicho's Madogu, Shikigami (animator) can produce paper made of a magical barrier that cannot be easily burned. Some of the artworks made by the Kuu fighter include a deflecting force field (Nuno Zarashin), a paper sword (Kami No Ken) and as well as a crane of a thousand paper birds. In this bout, Saiha, the second flame dragon shows his true power in a form of a flame sword. At the end of the match, Recca challenged Kukai despite Hokage's victory.","thumbnail":"21.jpg","season":2,"showId":"14"},</v>
+        <f>_xlfn.CONCAT(A22,B22,C22,D22,E22,F22,G22,H22,I22,J22,K22,L22,M22,N22,O22)</f>
+        <v>{"episode":"21","title":"Enormous Trouble Makers! Hanamichi vs Miyagi","airDate":"1994-03-26","synopsis":"Ryota Miyagi returns to basketball after being injured in a fight. Meanwhile, Ayako hears rumors of Miyagi's return, so she decides to investigate. She brings along Sakuragi, but Miyagi, who has a crush on Ayako, thinks that she and Sakuragi are together and immediately becomes jealous. Will Miyagi and Sakuragi be able to coexist?","thumbnail":"21.jpg","season":2,"showId":"15"},</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -2595,22 +3286,22 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>122</v>
+        <v>219</v>
       </c>
       <c r="G23" t="s">
         <v>17</v>
       </c>
       <c r="H23" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I23" t="s">
         <v>18</v>
@@ -2629,14 +3320,14 @@
         <v>20</v>
       </c>
       <c r="N23">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O23" t="s">
         <v>21</v>
       </c>
       <c r="P23" t="str">
-        <f t="shared" si="1"/>
-        <v>{"episode":"22","title":""The Terrible Monster has Changed! Recca is in Danger!"","airDate":"1998-01-24","synopsis":"Recca challenges Kukai however, the referee protested since regardless of the result, Team Hokage still wins. However, Kouran Mori appears in the screen and decided to make some changes. He proposed that all of the previous fights will be discarded, and the winner of the match will advance in the next round. Recca provokingly accepts the proposal. During the fight, Kukai warned Recca that he only has to hit the Kuu master 3 times in any method, after which, it could mean certain death for Recca. Nobody was able to comprehend what Kukai really meant except Daikoku who had a flashback of what happens afterwards. But Recca was reluctant and attacked Kukai with Nadare. Kukai deflects the fireballs with his hands. However, he missed one. Recca has two hits left, so he decided to use Saiha against Kukai but avoids it. Recca kicks Kukai in the face but later gets up and laughs. Now the young ninja only has one strike left. This time, Kukai will not move. If Recca knocks Kukai out, he wins. But if Kukai still has the strength to fight, Recca dies. Daikoku warns Recca not to do it, but Hanabishi was still persistent and gave Kukai a mighty punch. Kukai gets up and activates his madogu, Oni, a demonic necklace that activates after the user is hit three times, turning the possessor in to a perfect killing machine. Both Kagero and Genjuro explained this fact. Kukai began beating Recca up badly. Minamio, who was shocked told his teammates that everybody has a lust for killing just like everybody else, even a gentle and serene teacher like Kukai. He also told that the Urabutousatsoujin is based on killing as a sport. In the end of the episode, Kukai prepares to smash Recca's head.","thumbnail":"22.jpg","season":2,"showId":"14"},</v>
+        <f>_xlfn.CONCAT(A23,B23,C23,D23,E23,F23,G23,H23,I23,J23,K23,L23,M23,N23,O23)</f>
+        <v>{"episode":"22","title":"History's Biggest Idiot Combination is Born","airDate":"1994-04-16","synopsis":"It almost seemed like Miyagi and Sakuragi were about to collide with each other, but it seems that things have turned out much better than expected.","thumbnail":"22.jpg","season":2,"showId":"15"},</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -2647,22 +3338,22 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>123</v>
+        <v>220</v>
       </c>
       <c r="G24" t="s">
         <v>17</v>
       </c>
       <c r="H24" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="I24" t="s">
         <v>18</v>
@@ -2681,14 +3372,14 @@
         <v>20</v>
       </c>
       <c r="N24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O24" t="s">
         <v>21</v>
       </c>
       <c r="P24" t="str">
-        <f t="shared" si="1"/>
-        <v>{"episode":"23","title":""Trial of Life and Death!/The Life-staking Test"","airDate":"1998-01-31","synopsis":"Kukai teaches Recca the true meaning of life and death during a battle. Near the end, Homura appears to Recca which led to Hokage's victory over Kuu as well as Kukai returning to his gentle normal self. NOTE: In the end of the episode, it is revealed that despite in demonic state, Kukai was still aware of his actions. He admitted to his teammates that Recca was too tough for him and he almost killed Hanabishi the last time.","thumbnail":"23.jpg","season":2,"showId":"14"},</v>
+        <f>_xlfn.CONCAT(A24,B24,C24,D24,E24,F24,G24,H24,I24,J24,K24,L24,M24,N24,O24)</f>
+        <v>{"episode":"23","title":"Shohoku Basketball Club's Last Day","airDate":"1994-04-23","synopsis":"A former member of the Shohoku team returns with a major bone to pick. Does this spell doom for the team?","thumbnail":"23.jpg","season":2,"showId":"15"},</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -2699,22 +3390,22 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>124</v>
+        <v>221</v>
       </c>
       <c r="G25" t="s">
         <v>17</v>
       </c>
       <c r="H25" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="I25" t="s">
         <v>18</v>
@@ -2733,14 +3424,14 @@
         <v>20</v>
       </c>
       <c r="N25">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O25" t="s">
         <v>21</v>
       </c>
       <c r="P25" t="str">
-        <f t="shared" si="1"/>
-        <v>{"episode":"24","title":""The Call from the Monster, the Warrior from Hell"","airDate":"1998-02-07","synopsis":"Koganei joins the Hokage team after learning that they do not have enough members. NOTE: Fuuko and Domon were fallen by Kurei's trap.","thumbnail":"24.jpg","season":2,"showId":"14"},</v>
+        <f>_xlfn.CONCAT(A25,B25,C25,D25,E25,F25,G25,H25,I25,J25,K25,L25,M25,N25,O25)</f>
+        <v>{"episode":"24","title":"The Battle for Justice! Sakuragi's Goon Squad Joins!","airDate":"1994-04-30","synopsis":"After Ayako is slapped by one of the delinquents, Miyagi joins in the fight, and Rukawa follows suit. However, they are both easily taken down by Tetsuo. Sakuragi steps up, though he is outnumbered. Things change, however, when Sakuragi's friends appear in an unlikely fashion.","thumbnail":"24.jpg","season":2,"showId":"15"},</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -2751,22 +3442,22 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>125</v>
+        <v>222</v>
       </c>
       <c r="G26" t="s">
         <v>17</v>
       </c>
       <c r="H26" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I26" t="s">
         <v>18</v>
@@ -2785,14 +3476,14 @@
         <v>20</v>
       </c>
       <c r="N26">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O26" t="s">
         <v>21</v>
       </c>
       <c r="P26" t="str">
-        <f t="shared" si="1"/>
-        <v>{"episode":"25","title":""What an Attack! The Lightning Battle"","airDate":"1998-02-14","synopsis":"After Koganei defeats Shiju, Genjuro suggested to change the format of Round 2 as single elimination where the loser gets eliminated and the winner keeps fighting. The next opponent for Uruha Illusion is Maboroshi X who is later revealed to be Mokuren. During the fight, Mokuren used false words of compassion to trick Koganei by gradually transforming into a human tree. The episode ends with Mokuren saying that he will use Koganei as a fertilizer for his human-faced tree.","thumbnail":"25.jpg","season":2,"showId":"14"},</v>
+        <f>_xlfn.CONCAT(A26,B26,C26,D26,E26,F26,G26,H26,I26,J26,K26,L26,M26,N26,O26)</f>
+        <v>{"episode":"25","title":"The Man Who Aimed at National Championship","airDate":"1994-05-07","synopsis":"Mitsui and Tetsuo were defeated, but Mitsui still continues to fight. When Akagi arrives, the atmosphere becomes tense. Akagi slaps Mitsui around when the latter attacks him. Kogure then informs everyone that Mitsui was once an excellent basketball player, and was even on the team. Kogure then proceeds to tell the story of the rise and downfall of Mitsui's basketball career.","thumbnail":"25.jpg","season":2,"showId":"15"},</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -2803,22 +3494,22 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>126</v>
+        <v>223</v>
       </c>
       <c r="G27" t="s">
         <v>17</v>
       </c>
       <c r="H27" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I27" t="s">
         <v>18</v>
@@ -2837,14 +3528,14 @@
         <v>20</v>
       </c>
       <c r="N27">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O27" t="s">
         <v>21</v>
       </c>
       <c r="P27" t="str">
-        <f t="shared" si="1"/>
-        <v>{"episode":"26","title":""Mokuren has Returned! The Danger of the Human Tree"","airDate":"1998-02-21","synopsis":"The episode begins with Koganei about to be absorbed by Mokuren. The former eventually accepted defeat. Recca was about to fight Mokuren but Kagero asks that if Recca fights Mokuren, what will happen to Koganei? Mokuren will be burned alongside Koganei who was inside the human tree. So Tokiya decided to fight Mokuren. During the fight, Mokuren's branches grow after being cut by Tokiya. Kagero revealed that the source of Mokuren's power comes from the Kodama madogu implanted in Mokuren's face. Near the end of the fight, Tokiya pierces his sword to the ground where Mokuren interpreted it as an act of submission. In reality, he froze the entire ring to freeze Mokuren as well. He eventually finds and rescues Koganei due to the fact of heat conductivity where metals react first in freezing temperatures (which in this case, Koganei's golden cross gave Tokiya the signal of the former's location). Tokiya emerged victorious","thumbnail":"26.jpg","season":2,"showId":"14"},</v>
+        <f>_xlfn.CONCAT(A27,B27,C27,D27,E27,F27,G27,H27,I27,J27,K27,L27,M27,N27,O27)</f>
+        <v>{"episode":"26","title":"Mitsui, the Problems of the Past","airDate":"1994-05-14","synopsis":"It seems that Mitsui was once a great basketball player himself before high school. However, something happened during one practice session that changed everything.","thumbnail":"26.jpg","season":2,"showId":"15"},</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -2855,22 +3546,22 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E28" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>127</v>
+        <v>224</v>
       </c>
       <c r="G28" t="s">
         <v>17</v>
       </c>
       <c r="H28" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I28" t="s">
         <v>18</v>
@@ -2889,14 +3580,14 @@
         <v>20</v>
       </c>
       <c r="N28">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O28" t="s">
         <v>21</v>
       </c>
       <c r="P28" t="str">
-        <f t="shared" si="1"/>
-        <v>{"episode":"27","title":""The Reason for her Tear! The Girl with the Hairblade!"","airDate":"1998-02-28","synopsis":"Mikagami was supposed to fight Menou, a school girl, but forfeited due to the injuries caused by Mokuren. So Recca fights Menou who also wields an implanted Shikigami in Menou's hair. Saicho, who also uses a Shikigami also explains that despite having the same name, they have different abilities. Saicho's madogu (made by Koku) is used to animate paper objects. While that of Menou (made by Kaima) is implanted and uses the user's hair as a deadly weapon. Near the end of the episode, it is revealed that Genjuro was behind the trapping of Menou's father so Recca and Menou teamed up to defeat Genjuro to save Menou's father. Recca manages to do so and Menou accepts defeat. At the end of the match, Recca finally gets to face Genjuro.","thumbnail":"27.jpg","season":2,"showId":"14"},</v>
+        <f>_xlfn.CONCAT(A28,B28,C28,D28,E28,F28,G28,H28,I28,J28,K28,L28,M28,N28,O28)</f>
+        <v>{"episode":"27","title":"I Want To Play Basketball!","airDate":"1994-05-21","synopsis":"After suffering through a severe injury, Mitsui quit basketball. Now two years later, in his attempt to sabotage Shohoku's chances of participating in the tournament, his feelings for the sport appear to be returning once again.","thumbnail":"27.jpg","season":2,"showId":"15"},</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -2907,22 +3598,22 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E29" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>128</v>
+        <v>225</v>
       </c>
       <c r="G29" t="s">
         <v>17</v>
       </c>
       <c r="H29" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I29" t="s">
         <v>18</v>
@@ -2941,14 +3632,14 @@
         <v>20</v>
       </c>
       <c r="N29">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O29" t="s">
         <v>21</v>
       </c>
       <c r="P29" t="str">
-        <f t="shared" si="1"/>
-        <v>{"episode":"28","title":""The Instantaneous Flame, the Flame of Setsuna/Scorching Glance! Setsuna's Incineration!"","airDate":"1998-03-07","synopsis":"Recca faces Genjuro into a fight after defeating Meno Sakura. During the match it is revealed that Genjuro first used the illusion technique that Kurei used. At the end of the fight, Genjuro angered Setsuna, the 4th Dragon who burned him alive.","thumbnail":"28.jpg","season":2,"showId":"14"},</v>
+        <f>_xlfn.CONCAT(A29,B29,C29,D29,E29,F29,G29,H29,I29,J29,K29,L29,M29,N29,O29)</f>
+        <v>{"episode":"28","title":"The Beginning of Interhigh Preliminaries","airDate":"1994-05-28","synopsis":"The day of the tournament is quickly approaching. Sakuragi is anxious to play against Sendo again, but Shohoku will have to deal with Miuradai first.","thumbnail":"28.jpg","season":2,"showId":"15"},</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -2959,22 +3650,22 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E30" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>129</v>
+        <v>226</v>
       </c>
       <c r="G30" t="s">
         <v>17</v>
       </c>
       <c r="H30" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s">
         <v>18</v>
@@ -2993,14 +3684,14 @@
         <v>20</v>
       </c>
       <c r="N30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O30" t="s">
         <v>21</v>
       </c>
       <c r="P30" t="str">
-        <f t="shared" si="1"/>
-        <v>{"episode":"29","title":""Dangerous Lips! The Madougu of Speech!/Dangerous Lips! Terror of the Kotodama!"","airDate":"1998-03-14","synopsis":"Team Hokage faces the beautiful but deadly Uruha Sound/Oto. In the first match, Domon Ishijima faces illusionist Aki who uses the madogu Kotodama which enables the user to create illusions that only the opponent can see. The illusions include Aki stripping, a giant snake, snowy weather, flower (which is really Aki striking a dueling sword and flames all over Domon. Mikagami tried to stop Domon's match but is prevented by Recca which led the two men having a rift. Luckily, with his mental fortitude, Domon was able to repel the Kotodama's spell and emerged victorious. Mikagami objected Recca's happiness for Domon's win because he almost let Domon die which made the conflict worse. At the end of the fight, Neon called a double bout (i.e. 2 vs. 2 Neon and Miki vs. Recca and Mikagami)","thumbnail":"29.jpg","season":2,"showId":"14"},</v>
+        <f>_xlfn.CONCAT(A30,B30,C30,D30,E30,F30,G30,H30,I30,J30,K30,L30,M30,N30,O30)</f>
+        <v>{"episode":"29","title":"Hanamichi! Debut at an Official Game","airDate":"1994-06-18","synopsis":"The match starts, and Anzai refuses to put Sakuragi, Rukawa, Mitsui, and Miyagi in the starting line-up as punishment for fighting. Will Anzai keep it like this for the entire game?","thumbnail":"29.jpg","season":2,"showId":"15"},</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -3011,22 +3702,22 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D31" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E31" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>130</v>
+        <v>227</v>
       </c>
       <c r="G31" t="s">
         <v>17</v>
       </c>
       <c r="H31" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I31" t="s">
         <v>18</v>
@@ -3045,14 +3736,14 @@
         <v>20</v>
       </c>
       <c r="N31">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O31" t="s">
         <v>21</v>
       </c>
       <c r="P31" t="str">
-        <f t="shared" si="1"/>
-        <v>{"episode":"30","title":""The Seduction of the Beautiful. Dangerous Duet!/Seduction of the Beauties: Double-play of Death"","airDate":"1998-03-21","synopsis":"Team Hokage agreed to Neon's suggestion in having a double bout since if Team Hokage loses the next 2 matches, Fuuko Kirisawa will win by default and the match will end in a tie. During the fight, Recca and Mikagami had a rift because of Domon who later intervened during the match and stopped the argument but ended up losing his win against Aki. The duo worked together to win and defeated Miki. Neon then released the sealed energy from her madogu the Fukyo Waon and tried to play the last tune, the Requiem (song for the dead)","thumbnail":"30.jpg","season":2,"showId":"14"},</v>
+        <f>_xlfn.CONCAT(A31,B31,C31,D31,E31,F31,G31,H31,I31,J31,K31,L31,M31,N31,O31)</f>
+        <v>{"episode":"30","title":"The Introspective Army's Big Counterattack","airDate":"1994-06-25","synopsis":"With four of Shohoku's best players finally entering in the game, the tables turn quickly as they narrow the lead down to only 2. Sakuragi was hacked on a play, giving him two shots at the freethrow line, but things began to get tough for him, as nervousness broke his concentration, and his imagination started running wild.","thumbnail":"30.jpg","season":2,"showId":"15"},</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -3063,22 +3754,22 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D32" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E32" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>131</v>
+        <v>228</v>
       </c>
       <c r="G32" t="s">
         <v>17</v>
       </c>
       <c r="H32" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I32" t="s">
         <v>18</v>
@@ -3097,14 +3788,14 @@
         <v>20</v>
       </c>
       <c r="N32">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O32" t="s">
         <v>21</v>
       </c>
       <c r="P32" t="str">
-        <f t="shared" si="1"/>
-        <v>{"episode":"31","title":""The Cursed Flame! Kurenai's Past!!/Cursed Fire! Kurenai's Past"","airDate":"1998-03-28","synopsis":"Recca asked Neon why was she protecting Kurei despite being a merciless killer. Neon told a story about Kurei's sad past and why Neon became a Jyuushinju. Recca tried to summon Madoka, the barrier dragon and try to save Neon despite being their enemy.","thumbnail":"31.jpg","season":2,"showId":"14"},</v>
+        <f>_xlfn.CONCAT(A32,B32,C32,D32,E32,F32,G32,H32,I32,J32,K32,L32,M32,N32,O32)</f>
+        <v>{"episode":"31","title":"Formidable Enemy Miuradai's Secret Weapon","airDate":"1994-07-02","synopsis":"Miuradai revealed a secret weapon of theirs that will help them try and overcome Shohoku, that secret weapon being the ox Nato.","thumbnail":"31.jpg","season":2,"showId":"15"},</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
@@ -3115,22 +3806,22 @@
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E33" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>132</v>
+        <v>229</v>
       </c>
       <c r="G33" t="s">
         <v>17</v>
       </c>
       <c r="H33" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I33" t="s">
         <v>18</v>
@@ -3149,14 +3840,14 @@
         <v>20</v>
       </c>
       <c r="N33">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O33" t="s">
         <v>21</v>
       </c>
       <c r="P33" t="str">
-        <f t="shared" si="1"/>
-        <v>{"episode":"32","title":""The Invisible Enemy! A Horrible Battle/Invisible Foe! The Battle Against Fear"","airDate":"1998-04-17","synopsis":"Team Hokage automatically advances to the Semi-Finals after learning that their opponent dropped from the quarter finals due to severe injuries in their last bout. Under the suggestion of Tokiya, the team watch the quarter match of their possible opponents, Uruha Ma (Uruha Magic)and Uruha Kurogane (Uruha Iron). During the match, The former's team leader, Magensha kills the Jyushinshuu Jisho by using the Homashin Madogu (Demon Cannon) which leads to Uruha Ma pitting against Team Hokage. In the first match, Koganei faces Tsukishiro, who uses two madogus the Kaigetsu and the Oboro (Hazy Moon). Koganei figured out the Oboro's weakness by following the trail of blood and defeated Tsukishiro, but due to fatal wounds caused during the fight, Koganei lost consciousness and the match ended in a draw.","thumbnail":"32.jpg","season":2,"showId":"14"},</v>
+        <f>_xlfn.CONCAT(A33,B33,C33,D33,E33,F33,G33,H33,I33,J33,K33,L33,M33,N33,O33)</f>
+        <v>{"episode":"32","title":"Genius Hanamichi! Certain Death Dunk","airDate":"1994-07-16","synopsis":"Miuradai starts to gain control of the game, until Nato begins to block Rukawa instead of Sakuragi. Rukawa exploits his weakness, and this causes the game to go in Shohoku's favor.","thumbnail":"32.jpg","season":2,"showId":"15"},</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
@@ -3167,22 +3858,22 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E34" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>133</v>
+        <v>230</v>
       </c>
       <c r="G34" t="s">
         <v>17</v>
       </c>
       <c r="H34" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I34" t="s">
         <v>18</v>
@@ -3201,14 +3892,14 @@
         <v>20</v>
       </c>
       <c r="N34">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O34" t="s">
         <v>21</v>
       </c>
       <c r="P34" t="str">
-        <f t="shared" si="1"/>
-        <v>{"episode":"33","title":""Two Dragons! The Stolen Move!/Two Fire Dragons! A Stolen Technique!"","airDate":"1998-04-24","synopsis":"Recca faces the copycat ninja Kashamaru who wielded the madogu Nisebi (Fake Flame). During the fight, Recca was given a riddle by Rui (One of the Karyu) and was able to solve her riddle and created fog illusions (in the forms of Gashakura, Jisho and Kashamaru) against the Uruha Ma ninja. Recca emerged victorious. Tsukishiro and Kashamaru are then sent to the Majigen dimension. Recca was supposed to fight Gashakura who stated that Kashamaru applied sleeping potions to all his weapons. The episode ends with Fuuko ready to face Gashakura","thumbnail":"33.jpg","season":2,"showId":"14"},</v>
+        <f>_xlfn.CONCAT(A34,B34,C34,D34,E34,F34,G34,H34,I34,J34,K34,L34,M34,N34,O34)</f>
+        <v>{"episode":"33","title":"Walkout King!? Hanamichi Sakuragi","airDate":"1994-08-06","synopsis":"Shohoku's next match is against Gohoku. While they have been exceeding almost everyone's expectations, Sakuragi continues to be laughed at for his nonsensical and pointless fouls. He starts to realize that he might not be so great after all.","thumbnail":"33.jpg","season":2,"showId":"15"},</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
@@ -3219,22 +3910,22 @@
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D35" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>134</v>
+        <v>231</v>
       </c>
       <c r="G35" t="s">
         <v>17</v>
       </c>
       <c r="H35" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="I35" t="s">
         <v>18</v>
@@ -3253,14 +3944,14 @@
         <v>20</v>
       </c>
       <c r="N35">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O35" t="s">
         <v>21</v>
       </c>
       <c r="P35" t="str">
-        <f t="shared" si="1"/>
-        <v>{"episode":"34","title":""Skin Covered in Bruises! Fuko's Tough Fight!"","airDate":"1998-05-01","synopsis":"Fuuko Kirisawa faces Uruha Ma's second-in-command, Gashakura. During the match, Kouran Mori interfered and set a laser in the ring's corners where Fuuko was hit twice","thumbnail":"34.jpg","season":2,"showId":"14"},</v>
+        <f>_xlfn.CONCAT(A35,B35,C35,D35,E35,F35,G35,H35,I35,J35,K35,L35,M35,N35,O35)</f>
+        <v>{"episode":"34","title":"Gorilla's Secret, Kill with Your Eyes!","airDate":"1994-08-20","synopsis":"Sakuragi and his fouling troubles continue. He unconsciously went to Akagi's house for help, and in order to help Sakuragi a little bit, Akagi gives him one piece of advice... instill his opponents with fear using his eyes. Sakuragi takes this too literally, with predictable results.","thumbnail":"34.jpg","season":2,"showId":"15"},</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -3271,22 +3962,22 @@
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D36" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E36" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>135</v>
+        <v>232</v>
       </c>
       <c r="G36" t="s">
         <v>17</v>
       </c>
       <c r="H36" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="I36" t="s">
         <v>18</v>
@@ -3305,14 +3996,14 @@
         <v>20</v>
       </c>
       <c r="N36">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O36" t="s">
         <v>21</v>
       </c>
       <c r="P36" t="str">
-        <f t="shared" si="1"/>
-        <v>{"episode":"35","title":""Answer to a Maiden's Prayer! The True Power of Fujin"","airDate":"1998-05-08","synopsis":"The true form of Fuujin is revealed and it is a cute little fox. Later, Fuuko challenges Magensha but ended up getting sucked in the Majigen","thumbnail":"35.jpg","season":2,"showId":"14"},</v>
+        <f>_xlfn.CONCAT(A36,B36,C36,D36,E36,F36,G36,H36,I36,J36,K36,L36,M36,N36,O36)</f>
+        <v>{"episode":"35","title":"Hot Blooded Guys","airDate":"1994-08-27","synopsis":"Mitsui got himself caught up in a fight between Ryo and Tetsuo, and was eventually beaten himself. However, Sakuragi pops out of nowhere, and comes to aid his teammate when trying to get to the gym.","thumbnail":"35.jpg","season":2,"showId":"15"},</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -3323,22 +4014,22 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E37" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>136</v>
+        <v>233</v>
       </c>
       <c r="G37" t="s">
         <v>17</v>
       </c>
       <c r="H37" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I37" t="s">
         <v>18</v>
@@ -3357,14 +4048,14 @@
         <v>20</v>
       </c>
       <c r="N37">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O37" t="s">
         <v>21</v>
       </c>
       <c r="P37" t="str">
-        <f t="shared" si="1"/>
-        <v>{"episode":"36","title":""The Fire Dragons United! The Enemy Outside the Ring!"","airDate":"1998-05-15","synopsis":"An evil presence is stalking Yanagi, and he is another Magensha who is later revealed to be a fake.","thumbnail":"36.jpg","season":2,"showId":"14"},</v>
+        <f>_xlfn.CONCAT(A37,B37,C37,D37,E37,F37,G37,H37,I37,J37,K37,L37,M37,N37,O37)</f>
+        <v>{"episode":"36","title":"A Well Seeded School, Enter Shoyo","airDate":"1994-09-03","synopsis":"Sakuragi is still upset at Akagi for telling him a false technique in defense, and tries harder the next game against Tsukubu. While he gets fouled out, he's improving rather quickly, and he'll need it against a powerhouse team like Shoyo, who's the second ranking team in the tournament.","thumbnail":"36.jpg","season":2,"showId":"15"},</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
@@ -3375,22 +4066,22 @@
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D38" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E38" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>137</v>
+        <v>234</v>
       </c>
       <c r="G38" t="s">
         <v>17</v>
       </c>
       <c r="H38" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="I38" t="s">
         <v>18</v>
@@ -3409,14 +4100,14 @@
         <v>20</v>
       </c>
       <c r="N38">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O38" t="s">
         <v>21</v>
       </c>
       <c r="P38" t="str">
-        <f t="shared" si="1"/>
-        <v>{"episode":"37","title":""Escape from the Oblivious Dimension! The Battle of the Other Place!"","airDate":"1998-05-22","synopsis":"Fuuko, Tsukishiro and Kashamaru tried to escape from the Majigen dimension and eventually found the real Magensha and Domon won the match. In the second part of the semi-finals, Raiha, who was supposed to fight Kurei withdrew.","thumbnail":"37.jpg","season":2,"showId":"14"},</v>
+        <f>_xlfn.CONCAT(A38,B38,C38,D38,E38,F38,G38,H38,I38,J38,K38,L38,M38,N38,O38)</f>
+        <v>{"episode":"37","title":"Hanamichi: First-time As Starter!","airDate":"1994-09-10","synopsis":"Anzai-sensei decides to start Sakuragi, much to everyone's shock. He figures that with his height and drive, he'll be the perfect weapon to use against Shoyo.","thumbnail":"37.jpg","season":2,"showId":"15"},</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -3427,22 +4118,22 @@
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E39" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>138</v>
+        <v>235</v>
       </c>
       <c r="G39" t="s">
         <v>17</v>
       </c>
       <c r="H39" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="I39" t="s">
         <v>18</v>
@@ -3461,14 +4152,14 @@
         <v>20</v>
       </c>
       <c r="N39">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O39" t="s">
         <v>21</v>
       </c>
       <c r="P39" t="str">
-        <f t="shared" si="1"/>
-        <v>{"episode":"38","title":""Horror! The Walking Corpse"","airDate":"1998-05-29","synopsis":"Domon faces Noroi, a ghost that haunts the Bakuju madogu. Noroi tried to invade Domon's mind and body but thanks to Domon's strong spiritual capacity, he was able to repel the Bakuju's spell and emerged victorious. And at the end of the match, Kurei appeared.","thumbnail":"38.jpg","season":2,"showId":"14"},</v>
+        <f>_xlfn.CONCAT(A39,B39,C39,D39,E39,F39,G39,H39,I39,J39,K39,L39,M39,N39,O39)</f>
+        <v>{"episode":"38","title":"Rukawa's Counterattack!","airDate":"1994-09-17","synopsis":"With the Shohoku offense stalled by Shoyo's defense, Rukawa takes it upon himself to lead the offensive charge.","thumbnail":"38.jpg","season":2,"showId":"15"},</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -3479,22 +4170,22 @@
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D40" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E40" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>139</v>
+        <v>236</v>
       </c>
       <c r="G40" t="s">
         <v>17</v>
       </c>
       <c r="H40" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I40" t="s">
         <v>18</v>
@@ -3513,14 +4204,14 @@
         <v>20</v>
       </c>
       <c r="N40">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O40" t="s">
         <v>21</v>
       </c>
       <c r="P40" t="str">
-        <f t="shared" si="1"/>
-        <v>{"episode":"39","title":""Mikagami Battles. Desperate Ice Sword!"","airDate":"1998-06-12","synopsis":"Mikagami battles Kai who is suspected to be the murderer of Mifuyu. Kai was able to defeat Mikagami. But despite this, Kai declared that Mikagami was the rightful heir of the Hyomon Ken (Ice Crest Sword). And before he died, Kai revealed that the murderer of Mifuyu was their sensei and Tokiya's grandfather, Meguri Kyoza (In the manga, two men hired by Kurei were the true killers and Meguri arrive too late and blamed himself for Mifuyu's death. Also, Kai stabbed himself with the Hyoma En in the manga after the match). At the same time, Recca learned that the 8 Flame Dragons were Hokage ancestors and was forced to fight them again to regain their powers.","thumbnail":"39.jpg","season":2,"showId":"14"},</v>
+        <f>_xlfn.CONCAT(A40,B40,C40,D40,E40,F40,G40,H40,I40,J40,K40,L40,M40,N40,O40)</f>
+        <v>{"episode":"39","title":"Lightning Flash Ryota!","airDate":"1994-09-24","synopsis":"With Rukawa taking the heat off of the rest of the team, Miyagi gets a chance to show off his skills as a point guard and his speed on the court.","thumbnail":"39.jpg","season":2,"showId":"15"},</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
@@ -3531,22 +4222,22 @@
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D41" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E41" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>140</v>
+        <v>237</v>
       </c>
       <c r="G41" t="s">
         <v>17</v>
       </c>
       <c r="H41" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="I41" t="s">
         <v>18</v>
@@ -3565,14 +4256,14 @@
         <v>20</v>
       </c>
       <c r="N41">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O41" t="s">
         <v>21</v>
       </c>
       <c r="P41" t="str">
-        <f t="shared" si="1"/>
-        <v>{"episode":"40","title":""Trap of the Evil Woman. The God of Wind is Furious!/Trap, the Angry Fuujin"","airDate":"1998-06-19","synopsis":"Recca faces the last Karyu in the desert, Setsuna and the old man reveals himself to be the 7th dragon, Koku. Back at the arena, Fuuko fights Mikoto, in order to avenge a little boy's father's death by her (Mikoto). During the fight, the Mikoto Fuuko was fighting was actually a robot. The real Mikoto appeared and later abused the referee who accused her of cheating because her madogu takes human form. Fuuko was eventually poisoned by the Dokumashin, a poisonous nail that contains the poisons from all over the world. Mikoto too was poisoned in order to release the Gendokugan (the antidote). Fuuko took one dose but was eventually defeated since Domon interfered. Back at the desert, Recca fights Koku and told Recca to combine the dragons just as he (Recca) fought Magensha. However, there are rules to be honored to successfully summon composite dragons. NOTE: This is the only episode in the anime where Recca is only a minor character.","thumbnail":"40.jpg","season":2,"showId":"14"},</v>
+        <f>_xlfn.CONCAT(A41,B41,C41,D41,E41,F41,G41,H41,I41,J41,K41,L41,M41,N41,O41)</f>
+        <v>{"episode":"40","title":"Rebound King Hanamichi Sakuragi!","airDate":"1994-10-01","synopsis":"With Mitsui's 3 point shot, Shohoku finally catches up with Shoyo. It seems like Fujima has had enough, but Hanagata asks him to trust him for a little while longer. Fujima made a good decision in trusting his star center, for Shoyo pulled away from Shohoku again, creating another 10 point deficit.","thumbnail":"40.jpg","season":2,"showId":"15"},</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
@@ -3583,22 +4274,22 @@
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D42" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E42" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>141</v>
+        <v>237</v>
       </c>
       <c r="G42" t="s">
         <v>17</v>
       </c>
       <c r="H42" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="I42" t="s">
         <v>18</v>
@@ -3617,14 +4308,14 @@
         <v>20</v>
       </c>
       <c r="N42">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O42" t="s">
         <v>21</v>
       </c>
       <c r="P42" t="str">
-        <f t="shared" si="1"/>
-        <v>{"episode":"41","title":""Fight Again! Recca &amp; Kurei/Second Reckoning! Recca &amp; Kurei"","airDate":"1998-07-03","synopsis":"Koganei's fight with the Joker begins but the Joker gives up so Kurei can fight Recca. With Recca still not back from training the others battle Kurei four on one. Recca appears just in time to save Koganei. Recca and Kurei finally begin their fight. During the fight Recca simultaneously summoned all 7 dragons in order for Resshin, the 8th dragon to appear. But it turned out to be a whammy since he came to bear witness the fight between Recca and Kurei.","thumbnail":"41.jpg","season":2,"showId":"14"},</v>
+        <f>_xlfn.CONCAT(A42,B42,C42,D42,E42,F42,G42,H42,I42,J42,K42,L42,M42,N42,O42)</f>
+        <v>{"episode":"41","title":"Shoyo's Ace Fujima Enters the Court","airDate":"1994-10-01","synopsis":"Driven hard by Rukawa's offense and Sakuragi's rebounding, Fujima comes off the bench to lead his team to victory.","thumbnail":"41.jpg","season":2,"showId":"15"},</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -3635,22 +4326,22 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D43" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E43" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="G43" t="s">
         <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I43" t="s">
         <v>18</v>
@@ -3669,51 +4360,3083 @@
         <v>20</v>
       </c>
       <c r="N43">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O43" t="s">
         <v>21</v>
       </c>
       <c r="P43" t="str">
+        <f>_xlfn.CONCAT(A43,B43,C43,D43,E43,F43,G43,H43,I43,J43,K43,L43,M43,N43,O43)</f>
+        <v>{"episode":"42","title":"Shoyo Ace Fujima's Real Ability","airDate":"1994-10-15","synopsis":"Fujima is leading a strong charge for Shoyo against Shohoku, taking the lead once again. Though Shohoku has other problems besides Fujima; Mitsui is already very tired. Will Kogure be able to take his place?","thumbnail":"42.jpg","season":2,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="1">
+        <v>43</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D44" t="s">
+        <v>106</v>
+      </c>
+      <c r="E44" t="s">
+        <v>196</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" t="s">
+        <v>107</v>
+      </c>
+      <c r="I44" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="0"/>
+        <v>43.jpg</v>
+      </c>
+      <c r="K44" t="s">
+        <v>19</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+      <c r="M44" t="s">
+        <v>20</v>
+      </c>
+      <c r="N44">
+        <v>15</v>
+      </c>
+      <c r="O44" t="s">
+        <v>21</v>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" ref="P44:P102" si="1">_xlfn.CONCAT(A44,B44,C44,D44,E44,F44,G44,H44,I44,J44,K44,L44,M44,N44,O44)</f>
+        <v>{"episode":"43","title":"Has Mitsui Reached His Limit!?","airDate":"1994-10-22","synopsis":"Shohoku's problems continue piling up. Mitsui can't get a 3 pointer to go in, forcing all the burden on Rukawa. Plus, Sakuragi is on the brink of fouling out, one more and he's gone. Is this the end for Shohoku?","thumbnail":"43.jpg","season":2,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="1">
+        <v>44</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D45" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" t="s">
+        <v>196</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" t="s">
+        <v>109</v>
+      </c>
+      <c r="I45" t="s">
+        <v>18</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="0"/>
+        <v>44.jpg</v>
+      </c>
+      <c r="K45" t="s">
+        <v>19</v>
+      </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
+      <c r="M45" t="s">
+        <v>20</v>
+      </c>
+      <c r="N45">
+        <v>15</v>
+      </c>
+      <c r="O45" t="s">
+        <v>21</v>
+      </c>
+      <c r="P45" t="str">
         <f t="shared" si="1"/>
-        <v>{"episode":"42","title":""The Deadly Battle! When the Candle of Life Burns out."","airDate":"1998-07-10","synopsis":"After Kurenai has been extinguished, Kurei unleashed his powerful flame, the Sacred Flame Ho-Oh (Phoenix). Resshin recalled that the Sacred Flames caused Kurei's harsh fate. It is revealed that Resshin was a spirit of Recca and Kurei's real father, Oka. During the end of the fight, Kouran Mori appeared with a puppet Kurei. Recca and Kurei faced the puppet and Resshin finally joins them to destroy the puppet. At the end, Recca emerged victorious.","thumbnail":"42.jpg","season":2,"showId":"14"},</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C44"/>
-      <c r="F44"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C45"/>
-      <c r="F45"/>
+        <v>{"episode":"44","title":"Mitsui! Stormy 3 Points","airDate":"1994-11-05","synopsis":"Mitsui, reminiscing upon the past, gets the energy to play and lead his team. In just a matter of time, he scores 9 consecutive points thanks to his impressive shooting, but is it enough to overcome Shoyo?","thumbnail":"44.jpg","season":2,"showId":"15"},</v>
+      </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C46"/>
-      <c r="F46"/>
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="1">
+        <v>45</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D46" t="s">
+        <v>110</v>
+      </c>
+      <c r="E46" t="s">
+        <v>196</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" t="s">
+        <v>111</v>
+      </c>
+      <c r="I46" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="0"/>
+        <v>45.jpg</v>
+      </c>
+      <c r="K46" t="s">
+        <v>19</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46" t="s">
+        <v>20</v>
+      </c>
+      <c r="N46">
+        <v>15</v>
+      </c>
+      <c r="O46" t="s">
+        <v>21</v>
+      </c>
+      <c r="P46" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"45","title":"Imminent Walkout!? Hanamichi's Pinch","airDate":"1994-11-26","synopsis":"While Mitsui has increased his efficiency during the game, Sakuragi still faces the risk of being dismissed. After a few destructive words from Rukawa, Sakuragi is fueled with fire.","thumbnail":"45.jpg","season":2,"showId":"15"},</v>
+      </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C47"/>
-      <c r="F47"/>
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="1">
+        <v>46</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D47" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" t="s">
+        <v>196</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" t="s">
+        <v>113</v>
+      </c>
+      <c r="I47" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="0"/>
+        <v>46.jpg</v>
+      </c>
+      <c r="K47" t="s">
+        <v>19</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N47">
+        <v>15</v>
+      </c>
+      <c r="O47" t="s">
+        <v>21</v>
+      </c>
+      <c r="P47" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"46","title":"Hanamichi, Hot Dunk","airDate":"1994-12-03","synopsis":"Thanks to a basket from Rukawa, Shohoku has finally taken the lead in a critical time. Sakuragi, wanting to feel important, jumps up at the same time as two opposing Shoyo players as he goes for the dunk. It seems like Sakuragi's long desire to perform a slam dunk will be fulfilled.","thumbnail":"46.jpg","season":2,"showId":"15"},</v>
+      </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C48"/>
-      <c r="F48"/>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C49"/>
-      <c r="F49"/>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C50"/>
-      <c r="F50"/>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C51"/>
-      <c r="F51"/>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C52"/>
-      <c r="F52"/>
+      <c r="A48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="1">
+        <v>47</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D48" t="s">
+        <v>114</v>
+      </c>
+      <c r="E48" t="s">
+        <v>196</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" t="s">
+        <v>115</v>
+      </c>
+      <c r="I48" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="0"/>
+        <v>47.jpg</v>
+      </c>
+      <c r="K48" t="s">
+        <v>19</v>
+      </c>
+      <c r="L48">
+        <v>2</v>
+      </c>
+      <c r="M48" t="s">
+        <v>20</v>
+      </c>
+      <c r="N48">
+        <v>15</v>
+      </c>
+      <c r="O48" t="s">
+        <v>21</v>
+      </c>
+      <c r="P48" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"47","title":"Challenge From a Rival","airDate":"1994-12-10","synopsis":"Shohoku has defeated Shoyo, and Sakuragi is quick to spread the word, especially after his ferocious slam dunk on Hanagata. It seems like Oda, a person that went to the same junior high as him, is going to be facing Kainan. They're also hoping to pull off an upset victory like Shohoku has.","thumbnail":"47.jpg","season":2,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="1">
+        <v>48</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D49" t="s">
+        <v>116</v>
+      </c>
+      <c r="E49" t="s">
+        <v>196</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" t="s">
+        <v>117</v>
+      </c>
+      <c r="I49" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="0"/>
+        <v>48.jpg</v>
+      </c>
+      <c r="K49" t="s">
+        <v>19</v>
+      </c>
+      <c r="L49">
+        <v>2</v>
+      </c>
+      <c r="M49" t="s">
+        <v>20</v>
+      </c>
+      <c r="N49">
+        <v>15</v>
+      </c>
+      <c r="O49" t="s">
+        <v>21</v>
+      </c>
+      <c r="P49" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"48","title":"The Guy Who Pledged to Defeat Kainan","airDate":"1994-12-17","synopsis":"Sakuragi skips practice in order to investigate on why Yohko was acting so strangely. When they get to Takezono, he is immediately met by hordes of girls who misjudge his delinquent looks as someone who came to beat up Oda in order to Sabotage Takezono's chances of beating Kainan.","thumbnail":"48.jpg","season":2,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="1">
+        <v>49</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D50" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" t="s">
+        <v>196</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" t="s">
+        <v>119</v>
+      </c>
+      <c r="I50" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="0"/>
+        <v>49.jpg</v>
+      </c>
+      <c r="K50" t="s">
+        <v>19</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50" t="s">
+        <v>20</v>
+      </c>
+      <c r="N50">
+        <v>15</v>
+      </c>
+      <c r="O50" t="s">
+        <v>21</v>
+      </c>
+      <c r="P50" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"49","title":"Takezono, Last Fight","airDate":"1994-12-24","synopsis":"The match between Takezono and Kainan starts. Kainan only put in two starters the entire game, but it seemed like it was enough to take care of their opponents. That wasn't Takezono's only problem; Oda's injury remains ignorant to everyone but Yohko and Sakuragi, and it's clearly affecting his ability to play.","thumbnail":"49.jpg","season":2,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="3">
+        <v>50</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>50.jpg</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L51" s="2">
+        <v>3</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N51" s="2">
+        <v>15</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P51" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"50","title":"Challenge to the King","airDate":"1995-01-07","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"50.jpg","season":3,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="1">
+        <v>51</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D52" t="s">
+        <v>121</v>
+      </c>
+      <c r="E52" t="s">
+        <v>196</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" t="s">
+        <v>122</v>
+      </c>
+      <c r="I52" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="0"/>
+        <v>51.jpg</v>
+      </c>
+      <c r="K52" t="s">
+        <v>19</v>
+      </c>
+      <c r="L52" s="4">
+        <v>3</v>
+      </c>
+      <c r="M52" t="s">
+        <v>20</v>
+      </c>
+      <c r="N52">
+        <v>15</v>
+      </c>
+      <c r="O52" t="s">
+        <v>21</v>
+      </c>
+      <c r="P52" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"51","title":"Outside Calculation!? Hanamichi at His Best!","airDate":"1995-01-14","synopsis":"The match between Shohoku and Kainan has been tight and intense all the way through, but it was Sakuragi who stood out the most with his cocky attitude and amazing athleticism. However, Kainan's coach is planning something to get Sakuragi off the court.","thumbnail":"51.jpg","season":3,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" s="1">
+        <v>52</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D53" t="s">
+        <v>123</v>
+      </c>
+      <c r="E53" t="s">
+        <v>196</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" t="s">
+        <v>124</v>
+      </c>
+      <c r="I53" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="0"/>
+        <v>52.jpg</v>
+      </c>
+      <c r="K53" t="s">
+        <v>19</v>
+      </c>
+      <c r="L53" s="4">
+        <v>3</v>
+      </c>
+      <c r="M53" t="s">
+        <v>20</v>
+      </c>
+      <c r="N53">
+        <v>15</v>
+      </c>
+      <c r="O53" t="s">
+        <v>21</v>
+      </c>
+      <c r="P53" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"52","title":"Secret Weapon Against Sakuragi!","airDate":"1995-01-21","synopsis":"Takato seemed to have devised the perfect plan to counter-attack against Sakuragi, which is sending in the extremely small and weak Miyamasu. In an unbelievable turn around, the plan worked in which Sakuragi ends up horribly embarrassed, allowing Kainan to widen the gap. Rukawa however, seems to be heating up.","thumbnail":"52.jpg","season":3,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="1">
+        <v>53</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D54" t="s">
+        <v>125</v>
+      </c>
+      <c r="E54" t="s">
+        <v>196</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" t="s">
+        <v>126</v>
+      </c>
+      <c r="I54" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="0"/>
+        <v>53.jpg</v>
+      </c>
+      <c r="K54" t="s">
+        <v>19</v>
+      </c>
+      <c r="L54" s="4">
+        <v>3</v>
+      </c>
+      <c r="M54" t="s">
+        <v>20</v>
+      </c>
+      <c r="N54">
+        <v>15</v>
+      </c>
+      <c r="O54" t="s">
+        <v>21</v>
+      </c>
+      <c r="P54" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"53","title":"The Gorilla's Injury! Desperate Situation!?","airDate":"1995-01-28","synopsis":"Coach Anzai asks for a time-out and substitutes Sakuragi. Rukawa is heated-up and starts scoring for Shohoku. Akagi assists with rebounds but takes a misstep and injures his foot. As he has to be taken out, Sakuragi goes back into the court with some words from Ansai for him and Rukawa. In the meantime, Ryonan is winning with an overwhelming difference against Takesato.","thumbnail":"53.jpg","season":3,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" s="1">
+        <v>54</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D55" t="s">
+        <v>127</v>
+      </c>
+      <c r="E55" t="s">
+        <v>196</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" t="s">
+        <v>197</v>
+      </c>
+      <c r="I55" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="0"/>
+        <v>54.jpg</v>
+      </c>
+      <c r="K55" t="s">
+        <v>19</v>
+      </c>
+      <c r="L55" s="4">
+        <v>3</v>
+      </c>
+      <c r="M55" t="s">
+        <v>20</v>
+      </c>
+      <c r="N55">
+        <v>15</v>
+      </c>
+      <c r="O55" t="s">
+        <v>21</v>
+      </c>
+      <c r="P55" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"54","title":"King Kong's Younger Brother","airDate":"1995-02-04","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"54.jpg","season":3,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" s="1">
+        <v>55</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D56" t="s">
+        <v>128</v>
+      </c>
+      <c r="E56" t="s">
+        <v>196</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" t="s">
+        <v>197</v>
+      </c>
+      <c r="I56" t="s">
+        <v>18</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="0"/>
+        <v>55.jpg</v>
+      </c>
+      <c r="K56" t="s">
+        <v>19</v>
+      </c>
+      <c r="L56" s="4">
+        <v>3</v>
+      </c>
+      <c r="M56" t="s">
+        <v>20</v>
+      </c>
+      <c r="N56">
+        <v>15</v>
+      </c>
+      <c r="O56" t="s">
+        <v>21</v>
+      </c>
+      <c r="P56" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"55","title":"The Guy Who Dominates the Game","airDate":"1995-02-11","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"55.jpg","season":3,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="1">
+        <v>56</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D57" t="s">
+        <v>129</v>
+      </c>
+      <c r="E57" t="s">
+        <v>196</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" t="s">
+        <v>197</v>
+      </c>
+      <c r="I57" t="s">
+        <v>18</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="0"/>
+        <v>56.jpg</v>
+      </c>
+      <c r="K57" t="s">
+        <v>19</v>
+      </c>
+      <c r="L57" s="4">
+        <v>3</v>
+      </c>
+      <c r="M57" t="s">
+        <v>20</v>
+      </c>
+      <c r="N57">
+        <v>15</v>
+      </c>
+      <c r="O57" t="s">
+        <v>21</v>
+      </c>
+      <c r="P57" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"56","title":"Ace Maki, Full Throttle","airDate":"1995-02-18","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"56.jpg","season":3,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="1">
+        <v>57</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D58" t="s">
+        <v>130</v>
+      </c>
+      <c r="E58" t="s">
+        <v>196</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" t="s">
+        <v>197</v>
+      </c>
+      <c r="I58" t="s">
+        <v>18</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="0"/>
+        <v>57.jpg</v>
+      </c>
+      <c r="K58" t="s">
+        <v>19</v>
+      </c>
+      <c r="L58" s="4">
+        <v>3</v>
+      </c>
+      <c r="M58" t="s">
+        <v>20</v>
+      </c>
+      <c r="N58">
+        <v>15</v>
+      </c>
+      <c r="O58" t="s">
+        <v>21</v>
+      </c>
+      <c r="P58" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"57","title":"Anzai, Bet on Victory!","airDate":"1995-02-25","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"57.jpg","season":3,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="1">
+        <v>58</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D59" t="s">
+        <v>131</v>
+      </c>
+      <c r="E59" t="s">
+        <v>196</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" t="s">
+        <v>197</v>
+      </c>
+      <c r="I59" t="s">
+        <v>18</v>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" si="0"/>
+        <v>58.jpg</v>
+      </c>
+      <c r="K59" t="s">
+        <v>19</v>
+      </c>
+      <c r="L59" s="4">
+        <v>3</v>
+      </c>
+      <c r="M59" t="s">
+        <v>20</v>
+      </c>
+      <c r="N59">
+        <v>15</v>
+      </c>
+      <c r="O59" t="s">
+        <v>21</v>
+      </c>
+      <c r="P59" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"58","title":"Stubborn Guys!","airDate":"1995-03-04","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"58.jpg","season":3,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" s="1">
+        <v>59</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D60" t="s">
+        <v>132</v>
+      </c>
+      <c r="E60" t="s">
+        <v>196</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" t="s">
+        <v>197</v>
+      </c>
+      <c r="I60" t="s">
+        <v>18</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" si="0"/>
+        <v>59.jpg</v>
+      </c>
+      <c r="K60" t="s">
+        <v>19</v>
+      </c>
+      <c r="L60" s="4">
+        <v>3</v>
+      </c>
+      <c r="M60" t="s">
+        <v>20</v>
+      </c>
+      <c r="N60">
+        <v>15</v>
+      </c>
+      <c r="O60" t="s">
+        <v>21</v>
+      </c>
+      <c r="P60" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"59","title":"Last 10 Seconds! A Perfect Conclusion","airDate":"1995-03-11","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"59.jpg","season":3,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="1">
+        <v>60</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D61" t="s">
+        <v>133</v>
+      </c>
+      <c r="E61" t="s">
+        <v>196</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" t="s">
+        <v>134</v>
+      </c>
+      <c r="I61" t="s">
+        <v>18</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="0"/>
+        <v>60.jpg</v>
+      </c>
+      <c r="K61" t="s">
+        <v>19</v>
+      </c>
+      <c r="L61" s="4">
+        <v>3</v>
+      </c>
+      <c r="M61" t="s">
+        <v>20</v>
+      </c>
+      <c r="N61">
+        <v>15</v>
+      </c>
+      <c r="O61" t="s">
+        <v>21</v>
+      </c>
+      <c r="P61" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"60","title":"Shohoku on the Edge","airDate":"1995-03-18","synopsis":"Sakuragi blames himself deeply for Shohoku's loss against Kainan and becomes depressed. However, after a beating match against Rukawa, who tries to leviate the blame on himself, Sakuragi shaves his red head bald. This episode also introduces Kicchou Fukuda, a player on Ryonan's basketball team that was in disgrace.","thumbnail":"60.jpg","season":3,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" s="1">
+        <v>61</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D62" t="s">
+        <v>135</v>
+      </c>
+      <c r="E62" t="s">
+        <v>196</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" t="s">
+        <v>197</v>
+      </c>
+      <c r="I62" t="s">
+        <v>18</v>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" si="0"/>
+        <v>61.jpg</v>
+      </c>
+      <c r="K62" t="s">
+        <v>19</v>
+      </c>
+      <c r="L62" s="4">
+        <v>3</v>
+      </c>
+      <c r="M62" t="s">
+        <v>20</v>
+      </c>
+      <c r="N62">
+        <v>15</v>
+      </c>
+      <c r="O62" t="s">
+        <v>21</v>
+      </c>
+      <c r="P62" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"61","title":"Baldy Strikes Back!","airDate":"1995-03-25","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"61.jpg","season":3,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" s="1">
+        <v>62</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D63" t="s">
+        <v>136</v>
+      </c>
+      <c r="E63" t="s">
+        <v>196</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" t="s">
+        <v>197</v>
+      </c>
+      <c r="I63" t="s">
+        <v>18</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" si="0"/>
+        <v>62.jpg</v>
+      </c>
+      <c r="K63" t="s">
+        <v>19</v>
+      </c>
+      <c r="L63" s="4">
+        <v>3</v>
+      </c>
+      <c r="M63" t="s">
+        <v>20</v>
+      </c>
+      <c r="N63">
+        <v>15</v>
+      </c>
+      <c r="O63" t="s">
+        <v>21</v>
+      </c>
+      <c r="P63" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"62","title":"Three-Day Super Training","airDate":"1995-04-08","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"62.jpg","season":3,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" s="1">
+        <v>63</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D64" t="s">
+        <v>137</v>
+      </c>
+      <c r="E64" t="s">
+        <v>196</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G64" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" t="s">
+        <v>197</v>
+      </c>
+      <c r="I64" t="s">
+        <v>18</v>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" si="0"/>
+        <v>63.jpg</v>
+      </c>
+      <c r="K64" t="s">
+        <v>19</v>
+      </c>
+      <c r="L64" s="4">
+        <v>3</v>
+      </c>
+      <c r="M64" t="s">
+        <v>20</v>
+      </c>
+      <c r="N64">
+        <v>15</v>
+      </c>
+      <c r="O64" t="s">
+        <v>21</v>
+      </c>
+      <c r="P64" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"63","title":"Battle of the Aces! Kainan vs Ryonan","airDate":"1995-04-08","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"63.jpg","season":3,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" s="1">
+        <v>64</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D65" t="s">
+        <v>138</v>
+      </c>
+      <c r="E65" t="s">
+        <v>196</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" t="s">
+        <v>197</v>
+      </c>
+      <c r="I65" t="s">
+        <v>18</v>
+      </c>
+      <c r="J65" t="str">
+        <f t="shared" si="0"/>
+        <v>64.jpg</v>
+      </c>
+      <c r="K65" t="s">
+        <v>19</v>
+      </c>
+      <c r="L65" s="4">
+        <v>3</v>
+      </c>
+      <c r="M65" t="s">
+        <v>20</v>
+      </c>
+      <c r="N65">
+        <v>15</v>
+      </c>
+      <c r="O65" t="s">
+        <v>21</v>
+      </c>
+      <c r="P65" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"64","title":"King Kainan Shows its Abilities!","airDate":"1995-04-15","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"64.jpg","season":3,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" s="1">
+        <v>65</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D66" t="s">
+        <v>139</v>
+      </c>
+      <c r="E66" t="s">
+        <v>196</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" t="s">
+        <v>197</v>
+      </c>
+      <c r="I66" t="s">
+        <v>18</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" si="0"/>
+        <v>65.jpg</v>
+      </c>
+      <c r="K66" t="s">
+        <v>19</v>
+      </c>
+      <c r="L66" s="4">
+        <v>3</v>
+      </c>
+      <c r="M66" t="s">
+        <v>20</v>
+      </c>
+      <c r="N66">
+        <v>15</v>
+      </c>
+      <c r="O66" t="s">
+        <v>21</v>
+      </c>
+      <c r="P66" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"65","title":"The Strongest Match! Sendoh vs Maki","airDate":"1995-04-29","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"65.jpg","season":3,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" s="1">
+        <v>66</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D67" t="s">
+        <v>140</v>
+      </c>
+      <c r="E67" t="s">
+        <v>196</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G67" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" t="s">
+        <v>197</v>
+      </c>
+      <c r="I67" t="s">
+        <v>18</v>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" ref="J67:J102" si="2">_xlfn.CONCAT(B67,".jpg")</f>
+        <v>66.jpg</v>
+      </c>
+      <c r="K67" t="s">
+        <v>19</v>
+      </c>
+      <c r="L67" s="4">
+        <v>3</v>
+      </c>
+      <c r="M67" t="s">
+        <v>20</v>
+      </c>
+      <c r="N67">
+        <v>15</v>
+      </c>
+      <c r="O67" t="s">
+        <v>21</v>
+      </c>
+      <c r="P67" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"66","title":"Sendoh's Bet","airDate":"1995-05-13","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"66.jpg","season":3,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" s="1">
+        <v>67</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D68" t="s">
+        <v>141</v>
+      </c>
+      <c r="E68" t="s">
+        <v>196</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" t="s">
+        <v>197</v>
+      </c>
+      <c r="I68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J68" t="str">
+        <f t="shared" si="2"/>
+        <v>67.jpg</v>
+      </c>
+      <c r="K68" t="s">
+        <v>19</v>
+      </c>
+      <c r="L68" s="4">
+        <v>3</v>
+      </c>
+      <c r="M68" t="s">
+        <v>20</v>
+      </c>
+      <c r="N68">
+        <v>15</v>
+      </c>
+      <c r="O68" t="s">
+        <v>21</v>
+      </c>
+      <c r="P68" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"67","title":"The Final Battle! Shohoku vs Ryonan","airDate":"1995-05-20","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"67.jpg","season":3,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="1">
+        <v>68</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D69" t="s">
+        <v>142</v>
+      </c>
+      <c r="E69" t="s">
+        <v>196</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G69" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" t="s">
+        <v>197</v>
+      </c>
+      <c r="I69" t="s">
+        <v>18</v>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" si="2"/>
+        <v>68.jpg</v>
+      </c>
+      <c r="K69" t="s">
+        <v>19</v>
+      </c>
+      <c r="L69" s="4">
+        <v>3</v>
+      </c>
+      <c r="M69" t="s">
+        <v>20</v>
+      </c>
+      <c r="N69">
+        <v>15</v>
+      </c>
+      <c r="O69" t="s">
+        <v>21</v>
+      </c>
+      <c r="P69" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"68","title":"Savior!? Hanamichi Sakuragi","airDate":"1995-05-27","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"68.jpg","season":3,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" s="1">
+        <v>69</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D70" t="s">
+        <v>143</v>
+      </c>
+      <c r="E70" t="s">
+        <v>196</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" t="s">
+        <v>197</v>
+      </c>
+      <c r="I70" t="s">
+        <v>18</v>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" si="2"/>
+        <v>69.jpg</v>
+      </c>
+      <c r="K70" t="s">
+        <v>19</v>
+      </c>
+      <c r="L70" s="4">
+        <v>3</v>
+      </c>
+      <c r="M70" t="s">
+        <v>20</v>
+      </c>
+      <c r="N70">
+        <v>15</v>
+      </c>
+      <c r="O70" t="s">
+        <v>21</v>
+      </c>
+      <c r="P70" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"69","title":"Gorilla Goes Astray","airDate":"1995-06-03","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"69.jpg","season":3,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" s="1">
+        <v>70</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D71" t="s">
+        <v>144</v>
+      </c>
+      <c r="E71" t="s">
+        <v>196</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G71" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" t="s">
+        <v>197</v>
+      </c>
+      <c r="I71" t="s">
+        <v>18</v>
+      </c>
+      <c r="J71" t="str">
+        <f t="shared" si="2"/>
+        <v>70.jpg</v>
+      </c>
+      <c r="K71" t="s">
+        <v>19</v>
+      </c>
+      <c r="L71" s="4">
+        <v>3</v>
+      </c>
+      <c r="M71" t="s">
+        <v>20</v>
+      </c>
+      <c r="N71">
+        <v>15</v>
+      </c>
+      <c r="O71" t="s">
+        <v>21</v>
+      </c>
+      <c r="P71" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"70","title":"Gorilla Dunk II","airDate":"1995-06-10","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"70.jpg","season":3,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" s="1">
+        <v>71</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D72" t="s">
+        <v>145</v>
+      </c>
+      <c r="E72" t="s">
+        <v>196</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" t="s">
+        <v>197</v>
+      </c>
+      <c r="I72" t="s">
+        <v>18</v>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" si="2"/>
+        <v>71.jpg</v>
+      </c>
+      <c r="K72" t="s">
+        <v>19</v>
+      </c>
+      <c r="L72" s="4">
+        <v>3</v>
+      </c>
+      <c r="M72" t="s">
+        <v>20</v>
+      </c>
+      <c r="N72">
+        <v>15</v>
+      </c>
+      <c r="O72" t="s">
+        <v>21</v>
+      </c>
+      <c r="P72" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"71","title":"Gorilla, Shout of Revival!","airDate":"1995-06-17","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"71.jpg","season":3,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" s="1">
+        <v>72</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D73" t="s">
+        <v>146</v>
+      </c>
+      <c r="E73" t="s">
+        <v>196</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G73" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" t="s">
+        <v>197</v>
+      </c>
+      <c r="I73" t="s">
+        <v>18</v>
+      </c>
+      <c r="J73" t="str">
+        <f t="shared" si="2"/>
+        <v>72.jpg</v>
+      </c>
+      <c r="K73" t="s">
+        <v>19</v>
+      </c>
+      <c r="L73" s="4">
+        <v>3</v>
+      </c>
+      <c r="M73" t="s">
+        <v>20</v>
+      </c>
+      <c r="N73">
+        <v>15</v>
+      </c>
+      <c r="O73" t="s">
+        <v>21</v>
+      </c>
+      <c r="P73" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"72","title":"The Greatest Shame of One's Life","airDate":"1995-07-01","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"72.jpg","season":3,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" s="1">
+        <v>73</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D74" t="s">
+        <v>147</v>
+      </c>
+      <c r="E74" t="s">
+        <v>196</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G74" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" t="s">
+        <v>197</v>
+      </c>
+      <c r="I74" t="s">
+        <v>18</v>
+      </c>
+      <c r="J74" t="str">
+        <f t="shared" si="2"/>
+        <v>73.jpg</v>
+      </c>
+      <c r="K74" t="s">
+        <v>19</v>
+      </c>
+      <c r="L74" s="4">
+        <v>3</v>
+      </c>
+      <c r="M74" t="s">
+        <v>20</v>
+      </c>
+      <c r="N74">
+        <v>15</v>
+      </c>
+      <c r="O74" t="s">
+        <v>21</v>
+      </c>
+      <c r="P74" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"73","title":"Rukawa Kaede, Gambling on the 2nd Half","airDate":"1995-07-08","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"73.jpg","season":3,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" s="1">
+        <v>74</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D75" t="s">
+        <v>148</v>
+      </c>
+      <c r="E75" t="s">
+        <v>196</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G75" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" t="s">
+        <v>197</v>
+      </c>
+      <c r="I75" t="s">
+        <v>18</v>
+      </c>
+      <c r="J75" t="str">
+        <f t="shared" si="2"/>
+        <v>74.jpg</v>
+      </c>
+      <c r="K75" t="s">
+        <v>19</v>
+      </c>
+      <c r="L75" s="4">
+        <v>3</v>
+      </c>
+      <c r="M75" t="s">
+        <v>20</v>
+      </c>
+      <c r="N75">
+        <v>15</v>
+      </c>
+      <c r="O75" t="s">
+        <v>21</v>
+      </c>
+      <c r="P75" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"74","title":"The Most Dangerous Challenger!","airDate":"1995-07-15","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"74.jpg","season":3,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" s="1">
+        <v>75</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D76" t="s">
+        <v>149</v>
+      </c>
+      <c r="E76" t="s">
+        <v>196</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G76" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" t="s">
+        <v>197</v>
+      </c>
+      <c r="I76" t="s">
+        <v>18</v>
+      </c>
+      <c r="J76" t="str">
+        <f t="shared" si="2"/>
+        <v>75.jpg</v>
+      </c>
+      <c r="K76" t="s">
+        <v>19</v>
+      </c>
+      <c r="L76" s="4">
+        <v>3</v>
+      </c>
+      <c r="M76" t="s">
+        <v>20</v>
+      </c>
+      <c r="N76">
+        <v>15</v>
+      </c>
+      <c r="O76" t="s">
+        <v>21</v>
+      </c>
+      <c r="P76" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"75","title":"Fine Play","airDate":"1995-07-22","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"75.jpg","season":3,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" s="1">
+        <v>76</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D77" t="s">
+        <v>150</v>
+      </c>
+      <c r="E77" t="s">
+        <v>196</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G77" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" t="s">
+        <v>197</v>
+      </c>
+      <c r="I77" t="s">
+        <v>18</v>
+      </c>
+      <c r="J77" t="str">
+        <f t="shared" si="2"/>
+        <v>76.jpg</v>
+      </c>
+      <c r="K77" t="s">
+        <v>19</v>
+      </c>
+      <c r="L77" s="4">
+        <v>3</v>
+      </c>
+      <c r="M77" t="s">
+        <v>20</v>
+      </c>
+      <c r="N77">
+        <v>15</v>
+      </c>
+      <c r="O77" t="s">
+        <v>21</v>
+      </c>
+      <c r="P77" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"76","title":"The Feeling of Victory","airDate":"1995-08-05","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"76.jpg","season":3,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" s="1">
+        <v>77</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D78" t="s">
+        <v>151</v>
+      </c>
+      <c r="E78" t="s">
+        <v>196</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G78" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" t="s">
+        <v>197</v>
+      </c>
+      <c r="I78" t="s">
+        <v>18</v>
+      </c>
+      <c r="J78" t="str">
+        <f t="shared" si="2"/>
+        <v>77.jpg</v>
+      </c>
+      <c r="K78" t="s">
+        <v>19</v>
+      </c>
+      <c r="L78" s="4">
+        <v>3</v>
+      </c>
+      <c r="M78" t="s">
+        <v>20</v>
+      </c>
+      <c r="N78">
+        <v>15</v>
+      </c>
+      <c r="O78" t="s">
+        <v>21</v>
+      </c>
+      <c r="P78" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"77","title":"You Guys Are Strong!","airDate":"1995-08-12","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"77.jpg","season":3,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" s="1">
+        <v>78</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D79" t="s">
+        <v>152</v>
+      </c>
+      <c r="E79" t="s">
+        <v>196</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G79" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" t="s">
+        <v>197</v>
+      </c>
+      <c r="I79" t="s">
+        <v>18</v>
+      </c>
+      <c r="J79" t="str">
+        <f t="shared" si="2"/>
+        <v>78.jpg</v>
+      </c>
+      <c r="K79" t="s">
+        <v>19</v>
+      </c>
+      <c r="L79" s="4">
+        <v>3</v>
+      </c>
+      <c r="M79" t="s">
+        <v>20</v>
+      </c>
+      <c r="N79">
+        <v>15</v>
+      </c>
+      <c r="O79" t="s">
+        <v>21</v>
+      </c>
+      <c r="P79" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"78","title":"Uozumi Jun Revives","airDate":"1995-08-19","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"78.jpg","season":3,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" s="1">
+        <v>79</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D80" t="s">
+        <v>153</v>
+      </c>
+      <c r="E80" t="s">
+        <v>196</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G80" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" t="s">
+        <v>197</v>
+      </c>
+      <c r="I80" t="s">
+        <v>18</v>
+      </c>
+      <c r="J80" t="str">
+        <f t="shared" si="2"/>
+        <v>79.jpg</v>
+      </c>
+      <c r="K80" t="s">
+        <v>19</v>
+      </c>
+      <c r="L80" s="4">
+        <v>3</v>
+      </c>
+      <c r="M80" t="s">
+        <v>20</v>
+      </c>
+      <c r="N80">
+        <v>15</v>
+      </c>
+      <c r="O80" t="s">
+        <v>21</v>
+      </c>
+      <c r="P80" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"79","title":"Blue Waves - Ryonan Fights Back!","airDate":"1995-08-26","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"79.jpg","season":3,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" s="1">
+        <v>80</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D81" t="s">
+        <v>154</v>
+      </c>
+      <c r="E81" t="s">
+        <v>196</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G81" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" t="s">
+        <v>197</v>
+      </c>
+      <c r="I81" t="s">
+        <v>18</v>
+      </c>
+      <c r="J81" t="str">
+        <f t="shared" si="2"/>
+        <v>80.jpg</v>
+      </c>
+      <c r="K81" t="s">
+        <v>19</v>
+      </c>
+      <c r="L81" s="4">
+        <v>3</v>
+      </c>
+      <c r="M81" t="s">
+        <v>20</v>
+      </c>
+      <c r="N81">
+        <v>15</v>
+      </c>
+      <c r="O81" t="s">
+        <v>21</v>
+      </c>
+      <c r="P81" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"80","title":"Shohoku's Problems","airDate":"1995-09-02","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"80.jpg","season":3,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" s="1">
+        <v>81</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D82" t="s">
+        <v>155</v>
+      </c>
+      <c r="E82" t="s">
+        <v>196</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G82" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" t="s">
+        <v>197</v>
+      </c>
+      <c r="I82" t="s">
+        <v>18</v>
+      </c>
+      <c r="J82" t="str">
+        <f t="shared" si="2"/>
+        <v>81.jpg</v>
+      </c>
+      <c r="K82" t="s">
+        <v>19</v>
+      </c>
+      <c r="L82" s="4">
+        <v>3</v>
+      </c>
+      <c r="M82" t="s">
+        <v>20</v>
+      </c>
+      <c r="N82">
+        <v>15</v>
+      </c>
+      <c r="O82" t="s">
+        <v>21</v>
+      </c>
+      <c r="P82" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"81","title":"Sendoh On Fire! Shohoku Loses","airDate":"1995-09-09","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"81.jpg","season":3,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="1">
+        <v>82</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D83" t="s">
+        <v>156</v>
+      </c>
+      <c r="E83" t="s">
+        <v>196</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G83" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" t="s">
+        <v>197</v>
+      </c>
+      <c r="I83" t="s">
+        <v>18</v>
+      </c>
+      <c r="J83" t="str">
+        <f t="shared" si="2"/>
+        <v>82.jpg</v>
+      </c>
+      <c r="K83" t="s">
+        <v>19</v>
+      </c>
+      <c r="L83" s="4">
+        <v>3</v>
+      </c>
+      <c r="M83" t="s">
+        <v>20</v>
+      </c>
+      <c r="N83">
+        <v>15</v>
+      </c>
+      <c r="O83" t="s">
+        <v>21</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"82","title":"Amateur Sakuragi Hanamichi the Man","airDate":"1995-10-21","synopsis":"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Facilisi etiam dignissim diam quis enim lobortis scelerisque fermentum.","thumbnail":"82.jpg","season":3,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" s="1">
+        <v>83</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D84" t="s">
+        <v>157</v>
+      </c>
+      <c r="E84" t="s">
+        <v>196</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G84" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" t="s">
+        <v>158</v>
+      </c>
+      <c r="I84" t="s">
+        <v>18</v>
+      </c>
+      <c r="J84" t="str">
+        <f t="shared" si="2"/>
+        <v>83.jpg</v>
+      </c>
+      <c r="K84" t="s">
+        <v>19</v>
+      </c>
+      <c r="L84" s="4">
+        <v>3</v>
+      </c>
+      <c r="M84" t="s">
+        <v>20</v>
+      </c>
+      <c r="N84">
+        <v>15</v>
+      </c>
+      <c r="O84" t="s">
+        <v>21</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"83","title":"Vice-Captain Kogure's Determination","airDate":"1995-10-28","synopsis":"While shooting a three-pointer that will determine Shohoku's chances of winning, Kogure has a flashback from his early days of playing basketball up to the present, which also counts as a recap of the series from Kogure's point of view.","thumbnail":"83.jpg","season":3,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" s="1">
+        <v>84</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D85" t="s">
+        <v>159</v>
+      </c>
+      <c r="E85" t="s">
+        <v>196</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G85" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" t="s">
+        <v>160</v>
+      </c>
+      <c r="I85" t="s">
+        <v>18</v>
+      </c>
+      <c r="J85" t="str">
+        <f t="shared" si="2"/>
+        <v>84.jpg</v>
+      </c>
+      <c r="K85" t="s">
+        <v>19</v>
+      </c>
+      <c r="L85" s="4">
+        <v>3</v>
+      </c>
+      <c r="M85" t="s">
+        <v>20</v>
+      </c>
+      <c r="N85">
+        <v>15</v>
+      </c>
+      <c r="O85" t="s">
+        <v>21</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"84","title":"Win or Lose","airDate":"1995-11-04","synopsis":"It is a race against time between Shohoku and Ryonan to win the basketball match and earn the final qualifying position for the National Championship Games.","thumbnail":"84.jpg","season":3,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" s="1">
+        <v>85</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D86" t="s">
+        <v>161</v>
+      </c>
+      <c r="E86" t="s">
+        <v>196</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G86" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" t="s">
+        <v>162</v>
+      </c>
+      <c r="I86" t="s">
+        <v>18</v>
+      </c>
+      <c r="J86" t="str">
+        <f t="shared" si="2"/>
+        <v>85.jpg</v>
+      </c>
+      <c r="K86" t="s">
+        <v>19</v>
+      </c>
+      <c r="L86" s="4">
+        <v>3</v>
+      </c>
+      <c r="M86" t="s">
+        <v>20</v>
+      </c>
+      <c r="N86">
+        <v>15</v>
+      </c>
+      <c r="O86" t="s">
+        <v>21</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"85","title":"New Challenge: The National Championship!","airDate":"1995-11-11","synopsis":"The Shohoku Basketball Team's reputation has grown popular following their winning the final qualifying position for the National Championship Games, with Rukawa's popularity soaring high, much to Sakuragi's ire. However, it seems that Rukawa has some high ambitions of his own.","thumbnail":"85.jpg","season":3,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" s="1">
+        <v>86</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D87" t="s">
+        <v>163</v>
+      </c>
+      <c r="E87" t="s">
+        <v>196</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G87" t="s">
+        <v>17</v>
+      </c>
+      <c r="H87" t="s">
+        <v>164</v>
+      </c>
+      <c r="I87" t="s">
+        <v>18</v>
+      </c>
+      <c r="J87" t="str">
+        <f t="shared" si="2"/>
+        <v>86.jpg</v>
+      </c>
+      <c r="K87" t="s">
+        <v>19</v>
+      </c>
+      <c r="L87" s="4">
+        <v>3</v>
+      </c>
+      <c r="M87" t="s">
+        <v>20</v>
+      </c>
+      <c r="N87">
+        <v>15</v>
+      </c>
+      <c r="O87" t="s">
+        <v>21</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"86","title":"Rukawa's Ambition","airDate":"1995-11-18","synopsis":"In the aftermath of Ryonan losing the final qualifying position for the National Championship Games, Uozomi and Ikegami retire from the basketball team, passing the team's leadership to Sendoh, whom Yayoi Aida, Hikoichi's older sister and a basketball magazine reporter, wants to do a report on despite her editor's refusal on the grounds that Ryonan had lost.","thumbnail":"86.jpg","season":3,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" s="1">
+        <v>87</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D88" t="s">
+        <v>165</v>
+      </c>
+      <c r="E88" t="s">
+        <v>196</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G88" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" t="s">
+        <v>166</v>
+      </c>
+      <c r="I88" t="s">
+        <v>18</v>
+      </c>
+      <c r="J88" t="str">
+        <f t="shared" si="2"/>
+        <v>87.jpg</v>
+      </c>
+      <c r="K88" t="s">
+        <v>19</v>
+      </c>
+      <c r="L88" s="4">
+        <v>3</v>
+      </c>
+      <c r="M88" t="s">
+        <v>20</v>
+      </c>
+      <c r="N88">
+        <v>15</v>
+      </c>
+      <c r="O88" t="s">
+        <v>21</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"87","title":"Japan's Number One High School Player","airDate":"1995-11-25","synopsis":"Sakuragi chances upon Kainan players Maki and Kiyota and accompanies them to watch a basketball match between Sannoh Industry Affiliated High School and Aiwa Academy, which Maki acknowledges will be the new powerful rivals Shohoku will face in the National Championship Games. Meanwhile, Rukawa visits Coach Anzai to ask for his blessing for his wish to study abroad in the United States of America. To his surprise, Coach Anzai refuses, instead telling him to become the top-ranking player in Japan before he even thought of it.","thumbnail":"87.jpg","season":3,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" s="1">
+        <v>88</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D89" t="s">
+        <v>167</v>
+      </c>
+      <c r="E89" t="s">
+        <v>196</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G89" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" t="s">
+        <v>168</v>
+      </c>
+      <c r="I89" t="s">
+        <v>18</v>
+      </c>
+      <c r="J89" t="str">
+        <f t="shared" si="2"/>
+        <v>88.jpg</v>
+      </c>
+      <c r="K89" t="s">
+        <v>19</v>
+      </c>
+      <c r="L89" s="4">
+        <v>3</v>
+      </c>
+      <c r="M89" t="s">
+        <v>20</v>
+      </c>
+      <c r="N89">
+        <v>15</v>
+      </c>
+      <c r="O89" t="s">
+        <v>21</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"88","title":"The Basketball Kingdom - America","airDate":"1995-12-02","synopsis":"Coach Anzai's wife tells Rukawa the story of Ryuji Yazawa, a talented basketball player from Anzai's past 10 years ago who became dissatisfied with Anzai's tough training for him alone and left Japan to play in the United States, where he thought he would have better opportunities to show his talent, only to become depressed as a result of the unsupportive American college basketball culture and die in a high-speed head-on car collision five years later, reportedly under the influence of drugs. This revelation forces Rukawa to rethink his views on basketball playing.","thumbnail":"88.jpg","season":3,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" s="1">
+        <v>89</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D90" t="s">
+        <v>169</v>
+      </c>
+      <c r="E90" t="s">
+        <v>196</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G90" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" t="s">
+        <v>170</v>
+      </c>
+      <c r="I90" t="s">
+        <v>18</v>
+      </c>
+      <c r="J90" t="str">
+        <f t="shared" si="2"/>
+        <v>89.jpg</v>
+      </c>
+      <c r="K90" t="s">
+        <v>19</v>
+      </c>
+      <c r="L90" s="4">
+        <v>3</v>
+      </c>
+      <c r="M90" t="s">
+        <v>20</v>
+      </c>
+      <c r="N90">
+        <v>15</v>
+      </c>
+      <c r="O90" t="s">
+        <v>21</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"89","title":"Rukawa Kaede's Spirit","airDate":"1995-12-09","synopsis":"With a new viewpoint, Rukawa shows great improvement on his basketball skills, impressing his teammates and fans alike, much to the ire of Sakuragi. Haruko also comes to realize that her crush on Rukawa will never be requited.","thumbnail":"89.jpg","season":3,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>16</v>
+      </c>
+      <c r="B91" s="1">
+        <v>90</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D91" t="s">
+        <v>171</v>
+      </c>
+      <c r="E91" t="s">
+        <v>196</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G91" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" t="s">
+        <v>172</v>
+      </c>
+      <c r="I91" t="s">
+        <v>18</v>
+      </c>
+      <c r="J91" t="str">
+        <f t="shared" si="2"/>
+        <v>90.jpg</v>
+      </c>
+      <c r="K91" t="s">
+        <v>19</v>
+      </c>
+      <c r="L91" s="4">
+        <v>3</v>
+      </c>
+      <c r="M91" t="s">
+        <v>20</v>
+      </c>
+      <c r="N91">
+        <v>15</v>
+      </c>
+      <c r="O91" t="s">
+        <v>21</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"90","title":"Shohoku's Real Ace","airDate":"1995-12-16","synopsis":"Unwilling to accept Rukawa's improvement, Sakuragi challenges his rival to a one-on-one match to see who befits the role of Shohoku's Ace player. Meanwhile, Akagi is visited by the coach and captain of Shintai University's basketball team at his house with the invitation of joining their team upon graduating high school.","thumbnail":"90.jpg","season":3,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92" s="1">
+        <v>91</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D92" t="s">
+        <v>173</v>
+      </c>
+      <c r="E92" t="s">
+        <v>196</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G92" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" t="s">
+        <v>174</v>
+      </c>
+      <c r="I92" t="s">
+        <v>18</v>
+      </c>
+      <c r="J92" t="str">
+        <f t="shared" si="2"/>
+        <v>91.jpg</v>
+      </c>
+      <c r="K92" t="s">
+        <v>19</v>
+      </c>
+      <c r="L92" s="4">
+        <v>3</v>
+      </c>
+      <c r="M92" t="s">
+        <v>20</v>
+      </c>
+      <c r="N92">
+        <v>15</v>
+      </c>
+      <c r="O92" t="s">
+        <v>21</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"91","title":"The Nationals' Crisis!","airDate":"1995-12-23","synopsis":"The Shohoku Basketball Team faces an unusual crisis when four of its best players - Sakuragi, Rukawa, Miyagi and Mitsui, are at risk of being disqualified from participating in the National Championship Games due to their poor academic grades, prompting Team Captain Akagi to beg the school authorities to give them a retry test and draft them into a study camp at his house.","thumbnail":"91.jpg","season":3,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" s="3">
+        <v>92</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J93" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>92.jpg</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L93" s="2">
+        <v>4</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N93" s="2">
+        <v>15</v>
+      </c>
+      <c r="O93" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"92","title":"Guys' Friendship? Sakuragi Gang","airDate":"1996-01-13","synopsis":"Sakuragi's gang take part-time jobs among two rivaling beachside stands to earn the money to pay for the travel expenses to watch the National Championship Games, and learn the hard lesson of hard-earned money when they unwittingly waste their first paycheck and then have to earn it back several times fold when asked by their employers to help defend their stands against a typhoon strike. Sakuragi steals their hard-earned money to pay for his travel expenses to attend Shohoku's friendship match with Jousei High but is dismayed to learn that he is being left behind at Coach Anzai's request, and the gang steal their money back from him.","thumbnail":"92.jpg","season":4,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>16</v>
+      </c>
+      <c r="B94" s="1">
+        <v>93</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D94" t="s">
+        <v>177</v>
+      </c>
+      <c r="E94" t="s">
+        <v>196</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G94" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" t="s">
+        <v>178</v>
+      </c>
+      <c r="I94" t="s">
+        <v>18</v>
+      </c>
+      <c r="J94" t="str">
+        <f t="shared" si="2"/>
+        <v>93.jpg</v>
+      </c>
+      <c r="K94" t="s">
+        <v>19</v>
+      </c>
+      <c r="L94" s="4">
+        <v>4</v>
+      </c>
+      <c r="M94" t="s">
+        <v>20</v>
+      </c>
+      <c r="N94">
+        <v>15</v>
+      </c>
+      <c r="O94" t="s">
+        <v>21</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"93","title":"Going Toward 20000 Shoots","airDate":"1996-01-20","synopsis":"Coach Anzai reveals that Sakuragi's weakness is long-distance shooting, so he puts him through a special training regime of 20,000 practice shots in a week to prepare for the National Championship Games. Haruko and Sakuragi's gang arrive to offer support.","thumbnail":"93.jpg","season":4,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95" s="1">
+        <v>94</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D95" t="s">
+        <v>179</v>
+      </c>
+      <c r="E95" t="s">
+        <v>196</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G95" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" t="s">
+        <v>180</v>
+      </c>
+      <c r="I95" t="s">
+        <v>18</v>
+      </c>
+      <c r="J95" t="str">
+        <f t="shared" si="2"/>
+        <v>94.jpg</v>
+      </c>
+      <c r="K95" t="s">
+        <v>19</v>
+      </c>
+      <c r="L95" s="4">
+        <v>4</v>
+      </c>
+      <c r="M95" t="s">
+        <v>20</v>
+      </c>
+      <c r="N95">
+        <v>15</v>
+      </c>
+      <c r="O95" t="s">
+        <v>21</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"94","title":"Shizuoka's Fierce Fight! Shohoku vs. Jousei","airDate":"1996-01-27","synopsis":"While Sakuragi's training under Coach Anzai continues, the Shohoku Basketball Team faces off against the Jousei High Basketball Team in their friendship match.","thumbnail":"94.jpg","season":4,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>16</v>
+      </c>
+      <c r="B96" s="1">
+        <v>95</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D96" t="s">
+        <v>181</v>
+      </c>
+      <c r="E96" t="s">
+        <v>196</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G96" t="s">
+        <v>17</v>
+      </c>
+      <c r="H96" t="s">
+        <v>182</v>
+      </c>
+      <c r="I96" t="s">
+        <v>18</v>
+      </c>
+      <c r="J96" t="str">
+        <f t="shared" si="2"/>
+        <v>95.jpg</v>
+      </c>
+      <c r="K96" t="s">
+        <v>19</v>
+      </c>
+      <c r="L96" s="4">
+        <v>4</v>
+      </c>
+      <c r="M96" t="s">
+        <v>20</v>
+      </c>
+      <c r="N96">
+        <v>15</v>
+      </c>
+      <c r="O96" t="s">
+        <v>21</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"95","title":"Hanamichi's Hottest Day","airDate":"1996-02-03","synopsis":"Sakuragi's training is completed just as the Shohoku Basketball Team returns from their friendship match against Jousei High, and Haruko decides to reward Sakuragi for his hard practicing by taking him to the summer festival. Sakuragi sees this as an opportunity to try to get with her, but the process became harder than he had expected.","thumbnail":"95.jpg","season":4,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97" s="1">
+        <v>96</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D97" t="s">
+        <v>183</v>
+      </c>
+      <c r="E97" t="s">
+        <v>196</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G97" t="s">
+        <v>17</v>
+      </c>
+      <c r="H97" t="s">
+        <v>184</v>
+      </c>
+      <c r="I97" t="s">
+        <v>18</v>
+      </c>
+      <c r="J97" t="str">
+        <f t="shared" si="2"/>
+        <v>96.jpg</v>
+      </c>
+      <c r="K97" t="s">
+        <v>19</v>
+      </c>
+      <c r="L97" s="4">
+        <v>4</v>
+      </c>
+      <c r="M97" t="s">
+        <v>20</v>
+      </c>
+      <c r="N97">
+        <v>15</v>
+      </c>
+      <c r="O97" t="s">
+        <v>21</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"96","title":"Basketball Shoes Part II","airDate":"1996-02-10","synopsis":"Sakuragi has been working hard for the past months to improve his basketball skills, but as a result, his shoes have torn. He visits none other than the man that gave him his first shoes.","thumbnail":"96.jpg","season":4,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" s="1">
+        <v>97</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D98" t="s">
+        <v>185</v>
+      </c>
+      <c r="E98" t="s">
+        <v>196</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G98" t="s">
+        <v>17</v>
+      </c>
+      <c r="H98" t="s">
+        <v>186</v>
+      </c>
+      <c r="I98" t="s">
+        <v>18</v>
+      </c>
+      <c r="J98" t="str">
+        <f t="shared" si="2"/>
+        <v>97.jpg</v>
+      </c>
+      <c r="K98" t="s">
+        <v>19</v>
+      </c>
+      <c r="L98" s="4">
+        <v>4</v>
+      </c>
+      <c r="M98" t="s">
+        <v>20</v>
+      </c>
+      <c r="N98">
+        <v>15</v>
+      </c>
+      <c r="O98" t="s">
+        <v>21</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"97","title":"Mixed Feelings, Uozumi Returns","airDate":"1996-02-17","synopsis":"When a couple of Shoyo players decided to give their goodlucks to Shohoku, Sakuragi comes up with a suggestion; a game against Shoyo and Ryonan!","thumbnail":"97.jpg","season":4,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99" s="1">
+        <v>98</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D99" t="s">
+        <v>187</v>
+      </c>
+      <c r="E99" t="s">
+        <v>196</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G99" t="s">
+        <v>17</v>
+      </c>
+      <c r="H99" t="s">
+        <v>188</v>
+      </c>
+      <c r="I99" t="s">
+        <v>18</v>
+      </c>
+      <c r="J99" t="str">
+        <f t="shared" si="2"/>
+        <v>98.jpg</v>
+      </c>
+      <c r="K99" t="s">
+        <v>19</v>
+      </c>
+      <c r="L99" s="4">
+        <v>4</v>
+      </c>
+      <c r="M99" t="s">
+        <v>20</v>
+      </c>
+      <c r="N99">
+        <v>15</v>
+      </c>
+      <c r="O99" t="s">
+        <v>21</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"98","title":"Fierce Battle Begins! Shohoku vs. Shoyo/Ryonan","airDate":"1996-02-24","synopsis":"Rukawa garnered all the attention with his strong start to the game, but it was Sendoh who soon stole that spotlight when he entered the gym in his fishing clothes.","thumbnail":"98.jpg","season":4,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" s="1">
+        <v>99</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D100" t="s">
+        <v>189</v>
+      </c>
+      <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G100" t="s">
+        <v>17</v>
+      </c>
+      <c r="H100" t="s">
+        <v>190</v>
+      </c>
+      <c r="I100" t="s">
+        <v>18</v>
+      </c>
+      <c r="J100" t="str">
+        <f t="shared" si="2"/>
+        <v>99.jpg</v>
+      </c>
+      <c r="K100" t="s">
+        <v>19</v>
+      </c>
+      <c r="L100" s="4">
+        <v>4</v>
+      </c>
+      <c r="M100" t="s">
+        <v>20</v>
+      </c>
+      <c r="N100">
+        <v>15</v>
+      </c>
+      <c r="O100" t="s">
+        <v>21</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"99","title":"Facing the Strongest Team, Shohoku in Danger!","airDate":"1996-03-02","synopsis":"The combination team has become even more formidable by adding Sendoh and Fukuda to their lineup, and while Sakuragi is still struggling, Shohoku retains the lead.","thumbnail":"99.jpg","season":4,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" s="1">
+        <v>100</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D101" t="s">
+        <v>191</v>
+      </c>
+      <c r="E101" t="s">
+        <v>196</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G101" t="s">
+        <v>17</v>
+      </c>
+      <c r="H101" t="s">
+        <v>192</v>
+      </c>
+      <c r="I101" t="s">
+        <v>18</v>
+      </c>
+      <c r="J101" t="str">
+        <f t="shared" si="2"/>
+        <v>100.jpg</v>
+      </c>
+      <c r="K101" t="s">
+        <v>19</v>
+      </c>
+      <c r="L101" s="4">
+        <v>4</v>
+      </c>
+      <c r="M101" t="s">
+        <v>20</v>
+      </c>
+      <c r="N101">
+        <v>15</v>
+      </c>
+      <c r="O101" t="s">
+        <v>21</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"100","title":"The Man of Miracles, Hanamichi Sakuragi!","airDate":"1996-03-09","synopsis":"Fujima starts passing more and shooting less 3 pointers, giving hims teammates more open looks and easy opportunities to score. But is it enough to overcome Shohoku?","thumbnail":"100.jpg","season":4,"showId":"15"},</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102" s="1">
+        <v>101</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D102" t="s">
+        <v>193</v>
+      </c>
+      <c r="E102" t="s">
+        <v>196</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G102" t="s">
+        <v>17</v>
+      </c>
+      <c r="H102" t="s">
+        <v>194</v>
+      </c>
+      <c r="I102" t="s">
+        <v>18</v>
+      </c>
+      <c r="J102" t="str">
+        <f t="shared" si="2"/>
+        <v>101.jpg</v>
+      </c>
+      <c r="K102" t="s">
+        <v>19</v>
+      </c>
+      <c r="L102" s="4">
+        <v>4</v>
+      </c>
+      <c r="M102" t="s">
+        <v>20</v>
+      </c>
+      <c r="N102">
+        <v>15</v>
+      </c>
+      <c r="O102" t="s">
+        <v>21</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="1"/>
+        <v>{"episode":"101","title":"The Glorious Slam Dunk!","airDate":"1996-03-23","synopsis":"The game between Shoyo-Ryonan and Shohoku continues. At the last few minutes of the practice game, Sakuragi made two jump shots and everyone is amazed. The score is tied, when Fujima and Sendo attempts to do an alley-oop. Everyone is amazed when Sakuragi appeared at the back of Sendo, blocking the supposed alley-oop. Sakuragi then takes control of the ball and when he is about to dunk the ball, he remembered what Haruko taught him about slam dunk when he first met her. Shohoku wins with the score 76-74. The last episode ends showing the team of Shohoku and Kainan about to leave Kanagawa for the Inter High. When Shohoku is about to enter the shinkansen train, they promised to themselves that they're going to win the championship.","thumbnail":"101.jpg","season":4,"showId":"15"},</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
